--- a/rasp.xlsx
+++ b/rasp.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicel\OneDrive\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicel\PycharmProjects\TgBotV2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="187">
   <si>
     <t>Расписание классов</t>
   </si>
@@ -577,6 +577,9 @@
   </si>
   <si>
     <t>А303</t>
+  </si>
+  <si>
+    <t>жопа</t>
   </si>
 </sst>
 </file>
@@ -934,7 +937,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -1391,6 +1394,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF707070"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF707070"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1436,7 +1483,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1566,149 +1613,95 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1720,35 +1713,104 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2073,8 +2135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ES27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AH3" sqref="AH3:AK3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2230,308 +2292,308 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:149" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="107"/>
-      <c r="R1" s="107"/>
-      <c r="S1" s="107"/>
-      <c r="T1" s="107"/>
-      <c r="U1" s="107"/>
-      <c r="V1" s="107"/>
-      <c r="W1" s="107"/>
-      <c r="X1" s="107"/>
-      <c r="Y1" s="107"/>
-      <c r="Z1" s="107"/>
-      <c r="AA1" s="107"/>
-      <c r="AB1" s="107"/>
-      <c r="AC1" s="107"/>
-      <c r="AD1" s="107"/>
-      <c r="AE1" s="107"/>
-      <c r="AF1" s="107"/>
-      <c r="AG1" s="107"/>
-      <c r="AH1" s="107"/>
-      <c r="AI1" s="107"/>
-      <c r="AJ1" s="107"/>
-      <c r="AK1" s="107"/>
-      <c r="AL1" s="107"/>
-      <c r="AM1" s="107"/>
-      <c r="AN1" s="107"/>
-      <c r="AO1" s="107"/>
-      <c r="AP1" s="107"/>
-      <c r="AQ1" s="107"/>
-      <c r="AR1" s="107"/>
-      <c r="AS1" s="107"/>
-      <c r="AT1" s="107"/>
-      <c r="AU1" s="107"/>
-      <c r="AV1" s="107"/>
-      <c r="AW1" s="107"/>
-      <c r="AX1" s="107"/>
-      <c r="AY1" s="107"/>
-      <c r="AZ1" s="107"/>
-      <c r="BA1" s="107"/>
-      <c r="BB1" s="107"/>
-      <c r="BC1" s="107"/>
-      <c r="BD1" s="107"/>
-      <c r="BE1" s="107"/>
-      <c r="BF1" s="107"/>
-      <c r="BG1" s="107"/>
-      <c r="BH1" s="107"/>
-      <c r="BI1" s="107"/>
-      <c r="BJ1" s="107"/>
-      <c r="BK1" s="107"/>
-      <c r="BL1" s="107"/>
-      <c r="BM1" s="107"/>
-      <c r="BN1" s="107"/>
-      <c r="BO1" s="107"/>
-      <c r="BP1" s="107"/>
-      <c r="BQ1" s="107"/>
-      <c r="BR1" s="107"/>
-      <c r="BS1" s="107"/>
-      <c r="BT1" s="107"/>
-      <c r="BU1" s="107"/>
-      <c r="BV1" s="107"/>
-      <c r="BW1" s="107"/>
-      <c r="BX1" s="107"/>
-      <c r="BY1" s="107"/>
-      <c r="BZ1" s="107"/>
-      <c r="CA1" s="107"/>
-      <c r="CB1" s="107"/>
-      <c r="CC1" s="107"/>
-      <c r="CD1" s="107"/>
-      <c r="CE1" s="107"/>
-      <c r="CF1" s="107"/>
-      <c r="CG1" s="107"/>
-      <c r="CH1" s="107"/>
-      <c r="CI1" s="107"/>
-      <c r="CJ1" s="107"/>
-      <c r="CK1" s="107"/>
-      <c r="CL1" s="107"/>
-      <c r="CM1" s="107"/>
-      <c r="CN1" s="107"/>
-      <c r="CO1" s="107"/>
-      <c r="CP1" s="107"/>
-      <c r="CQ1" s="107"/>
-      <c r="CR1" s="107"/>
-      <c r="CS1" s="107"/>
-      <c r="CT1" s="107"/>
-      <c r="CU1" s="107"/>
-      <c r="CV1" s="107"/>
-      <c r="CW1" s="107"/>
-      <c r="CX1" s="107"/>
-      <c r="CY1" s="107"/>
-      <c r="CZ1" s="107"/>
-      <c r="DA1" s="107"/>
-      <c r="DB1" s="107"/>
-      <c r="DC1" s="107"/>
-      <c r="DD1" s="107"/>
-      <c r="DE1" s="107"/>
-      <c r="DF1" s="107"/>
-      <c r="DG1" s="107"/>
-      <c r="DH1" s="107"/>
-      <c r="DI1" s="107"/>
-      <c r="DJ1" s="107"/>
-      <c r="DK1" s="107"/>
-      <c r="DL1" s="107"/>
-      <c r="DM1" s="107"/>
-      <c r="DN1" s="107"/>
-      <c r="DO1" s="107"/>
-      <c r="DP1" s="107"/>
-      <c r="DQ1" s="107"/>
-      <c r="DR1" s="107"/>
-      <c r="DS1" s="107"/>
-      <c r="DT1" s="107"/>
-      <c r="DU1" s="107"/>
-      <c r="DV1" s="107"/>
-      <c r="DW1" s="107"/>
-      <c r="DX1" s="107"/>
-      <c r="DY1" s="107"/>
-      <c r="DZ1" s="107"/>
-      <c r="EA1" s="107"/>
-      <c r="EB1" s="107"/>
-      <c r="EC1" s="107"/>
-      <c r="ED1" s="107"/>
-      <c r="EE1" s="107"/>
-      <c r="EF1" s="107"/>
-      <c r="EG1" s="107"/>
-      <c r="EH1" s="107"/>
-      <c r="EI1" s="107"/>
-      <c r="EJ1" s="107"/>
-      <c r="EK1" s="107"/>
-      <c r="EL1" s="107"/>
-      <c r="EM1" s="107"/>
-      <c r="EN1" s="107"/>
-      <c r="EO1" s="107"/>
-      <c r="EP1" s="107"/>
-      <c r="EQ1" s="107"/>
-      <c r="ER1" s="107"/>
-      <c r="ES1" s="107"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
+      <c r="X1" s="89"/>
+      <c r="Y1" s="89"/>
+      <c r="Z1" s="89"/>
+      <c r="AA1" s="89"/>
+      <c r="AB1" s="89"/>
+      <c r="AC1" s="89"/>
+      <c r="AD1" s="89"/>
+      <c r="AE1" s="89"/>
+      <c r="AF1" s="89"/>
+      <c r="AG1" s="89"/>
+      <c r="AH1" s="89"/>
+      <c r="AI1" s="89"/>
+      <c r="AJ1" s="89"/>
+      <c r="AK1" s="89"/>
+      <c r="AL1" s="89"/>
+      <c r="AM1" s="89"/>
+      <c r="AN1" s="89"/>
+      <c r="AO1" s="89"/>
+      <c r="AP1" s="89"/>
+      <c r="AQ1" s="89"/>
+      <c r="AR1" s="89"/>
+      <c r="AS1" s="89"/>
+      <c r="AT1" s="89"/>
+      <c r="AU1" s="89"/>
+      <c r="AV1" s="89"/>
+      <c r="AW1" s="89"/>
+      <c r="AX1" s="89"/>
+      <c r="AY1" s="89"/>
+      <c r="AZ1" s="89"/>
+      <c r="BA1" s="89"/>
+      <c r="BB1" s="89"/>
+      <c r="BC1" s="89"/>
+      <c r="BD1" s="89"/>
+      <c r="BE1" s="89"/>
+      <c r="BF1" s="89"/>
+      <c r="BG1" s="89"/>
+      <c r="BH1" s="89"/>
+      <c r="BI1" s="89"/>
+      <c r="BJ1" s="89"/>
+      <c r="BK1" s="89"/>
+      <c r="BL1" s="89"/>
+      <c r="BM1" s="89"/>
+      <c r="BN1" s="89"/>
+      <c r="BO1" s="89"/>
+      <c r="BP1" s="89"/>
+      <c r="BQ1" s="89"/>
+      <c r="BR1" s="89"/>
+      <c r="BS1" s="89"/>
+      <c r="BT1" s="89"/>
+      <c r="BU1" s="89"/>
+      <c r="BV1" s="89"/>
+      <c r="BW1" s="89"/>
+      <c r="BX1" s="89"/>
+      <c r="BY1" s="89"/>
+      <c r="BZ1" s="89"/>
+      <c r="CA1" s="89"/>
+      <c r="CB1" s="89"/>
+      <c r="CC1" s="89"/>
+      <c r="CD1" s="89"/>
+      <c r="CE1" s="89"/>
+      <c r="CF1" s="89"/>
+      <c r="CG1" s="89"/>
+      <c r="CH1" s="89"/>
+      <c r="CI1" s="89"/>
+      <c r="CJ1" s="89"/>
+      <c r="CK1" s="89"/>
+      <c r="CL1" s="89"/>
+      <c r="CM1" s="89"/>
+      <c r="CN1" s="89"/>
+      <c r="CO1" s="89"/>
+      <c r="CP1" s="89"/>
+      <c r="CQ1" s="89"/>
+      <c r="CR1" s="89"/>
+      <c r="CS1" s="89"/>
+      <c r="CT1" s="89"/>
+      <c r="CU1" s="89"/>
+      <c r="CV1" s="89"/>
+      <c r="CW1" s="89"/>
+      <c r="CX1" s="89"/>
+      <c r="CY1" s="89"/>
+      <c r="CZ1" s="89"/>
+      <c r="DA1" s="89"/>
+      <c r="DB1" s="89"/>
+      <c r="DC1" s="89"/>
+      <c r="DD1" s="89"/>
+      <c r="DE1" s="89"/>
+      <c r="DF1" s="89"/>
+      <c r="DG1" s="89"/>
+      <c r="DH1" s="89"/>
+      <c r="DI1" s="89"/>
+      <c r="DJ1" s="89"/>
+      <c r="DK1" s="89"/>
+      <c r="DL1" s="89"/>
+      <c r="DM1" s="89"/>
+      <c r="DN1" s="89"/>
+      <c r="DO1" s="89"/>
+      <c r="DP1" s="89"/>
+      <c r="DQ1" s="89"/>
+      <c r="DR1" s="89"/>
+      <c r="DS1" s="89"/>
+      <c r="DT1" s="89"/>
+      <c r="DU1" s="89"/>
+      <c r="DV1" s="89"/>
+      <c r="DW1" s="89"/>
+      <c r="DX1" s="89"/>
+      <c r="DY1" s="89"/>
+      <c r="DZ1" s="89"/>
+      <c r="EA1" s="89"/>
+      <c r="EB1" s="89"/>
+      <c r="EC1" s="89"/>
+      <c r="ED1" s="89"/>
+      <c r="EE1" s="89"/>
+      <c r="EF1" s="89"/>
+      <c r="EG1" s="89"/>
+      <c r="EH1" s="89"/>
+      <c r="EI1" s="89"/>
+      <c r="EJ1" s="89"/>
+      <c r="EK1" s="89"/>
+      <c r="EL1" s="89"/>
+      <c r="EM1" s="89"/>
+      <c r="EN1" s="89"/>
+      <c r="EO1" s="89"/>
+      <c r="EP1" s="89"/>
+      <c r="EQ1" s="89"/>
+      <c r="ER1" s="89"/>
+      <c r="ES1" s="89"/>
     </row>
     <row r="2" spans="1:149" x14ac:dyDescent="0.25">
-      <c r="A2" s="108"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="107"/>
-      <c r="S2" s="107"/>
-      <c r="T2" s="107"/>
-      <c r="U2" s="107"/>
-      <c r="V2" s="107"/>
-      <c r="W2" s="107"/>
-      <c r="X2" s="107"/>
-      <c r="Y2" s="107"/>
-      <c r="Z2" s="107"/>
-      <c r="AA2" s="107"/>
-      <c r="AB2" s="107"/>
-      <c r="AC2" s="107"/>
-      <c r="AD2" s="107"/>
-      <c r="AE2" s="107"/>
-      <c r="AF2" s="107"/>
-      <c r="AG2" s="107"/>
-      <c r="AH2" s="107"/>
-      <c r="AI2" s="107"/>
-      <c r="AJ2" s="107"/>
-      <c r="AK2" s="107"/>
-      <c r="AL2" s="107"/>
-      <c r="AM2" s="107"/>
-      <c r="AN2" s="107"/>
-      <c r="AO2" s="107"/>
-      <c r="AP2" s="107"/>
-      <c r="AQ2" s="107"/>
-      <c r="AR2" s="107"/>
-      <c r="AS2" s="107"/>
-      <c r="AT2" s="107"/>
-      <c r="AU2" s="107"/>
-      <c r="AV2" s="107"/>
-      <c r="AW2" s="107"/>
-      <c r="AX2" s="107"/>
-      <c r="AY2" s="107"/>
-      <c r="AZ2" s="107"/>
-      <c r="BA2" s="107"/>
-      <c r="BB2" s="107"/>
-      <c r="BC2" s="107"/>
-      <c r="BD2" s="107"/>
-      <c r="BE2" s="107"/>
-      <c r="BF2" s="107"/>
-      <c r="BG2" s="107"/>
-      <c r="BH2" s="107"/>
-      <c r="BI2" s="107"/>
-      <c r="BJ2" s="107"/>
-      <c r="BK2" s="107"/>
-      <c r="BL2" s="107"/>
-      <c r="BM2" s="107"/>
-      <c r="BN2" s="107"/>
-      <c r="BO2" s="107"/>
-      <c r="BP2" s="107"/>
-      <c r="BQ2" s="107"/>
-      <c r="BR2" s="107"/>
-      <c r="BS2" s="107"/>
-      <c r="BT2" s="107"/>
-      <c r="BU2" s="107"/>
-      <c r="BV2" s="107"/>
-      <c r="BW2" s="107"/>
-      <c r="BX2" s="107"/>
-      <c r="BY2" s="107"/>
-      <c r="BZ2" s="107"/>
-      <c r="CA2" s="107"/>
-      <c r="CB2" s="107"/>
-      <c r="CC2" s="107"/>
-      <c r="CD2" s="107"/>
-      <c r="CE2" s="107"/>
-      <c r="CF2" s="107"/>
-      <c r="CG2" s="107"/>
-      <c r="CH2" s="107"/>
-      <c r="CI2" s="107"/>
-      <c r="CJ2" s="107"/>
-      <c r="CK2" s="107"/>
-      <c r="CL2" s="107"/>
-      <c r="CM2" s="107"/>
-      <c r="CN2" s="107"/>
-      <c r="CO2" s="107"/>
-      <c r="CP2" s="107"/>
-      <c r="CQ2" s="107"/>
-      <c r="CR2" s="107"/>
-      <c r="CS2" s="107"/>
-      <c r="CT2" s="107"/>
-      <c r="CU2" s="107"/>
-      <c r="CV2" s="107"/>
-      <c r="CW2" s="107"/>
-      <c r="CX2" s="107"/>
-      <c r="CY2" s="107"/>
-      <c r="CZ2" s="107"/>
-      <c r="DA2" s="107"/>
-      <c r="DB2" s="107"/>
-      <c r="DC2" s="107"/>
-      <c r="DD2" s="107"/>
-      <c r="DE2" s="107"/>
-      <c r="DF2" s="107"/>
-      <c r="DG2" s="107"/>
-      <c r="DH2" s="107"/>
-      <c r="DI2" s="107"/>
-      <c r="DJ2" s="107"/>
-      <c r="DK2" s="107"/>
-      <c r="DL2" s="107"/>
-      <c r="DM2" s="107"/>
-      <c r="DN2" s="107"/>
-      <c r="DO2" s="107"/>
-      <c r="DP2" s="107"/>
-      <c r="DQ2" s="107"/>
-      <c r="DR2" s="107"/>
-      <c r="DS2" s="107"/>
-      <c r="DT2" s="107"/>
-      <c r="DU2" s="107"/>
-      <c r="DV2" s="107"/>
-      <c r="DW2" s="107"/>
-      <c r="DX2" s="107"/>
-      <c r="DY2" s="107"/>
-      <c r="DZ2" s="107"/>
-      <c r="EA2" s="107"/>
-      <c r="EB2" s="107"/>
-      <c r="EC2" s="107"/>
-      <c r="ED2" s="107"/>
-      <c r="EE2" s="107"/>
-      <c r="EF2" s="107"/>
-      <c r="EG2" s="107"/>
-      <c r="EH2" s="107"/>
-      <c r="EI2" s="107"/>
-      <c r="EJ2" s="107"/>
-      <c r="EK2" s="107"/>
-      <c r="EL2" s="107"/>
-      <c r="EM2" s="107"/>
-      <c r="EN2" s="107"/>
-      <c r="EO2" s="107"/>
-      <c r="EP2" s="107"/>
-      <c r="EQ2" s="107"/>
-      <c r="ER2" s="107"/>
-      <c r="ES2" s="107"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="89"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="89"/>
+      <c r="V2" s="89"/>
+      <c r="W2" s="89"/>
+      <c r="X2" s="89"/>
+      <c r="Y2" s="89"/>
+      <c r="Z2" s="89"/>
+      <c r="AA2" s="89"/>
+      <c r="AB2" s="89"/>
+      <c r="AC2" s="89"/>
+      <c r="AD2" s="89"/>
+      <c r="AE2" s="89"/>
+      <c r="AF2" s="89"/>
+      <c r="AG2" s="89"/>
+      <c r="AH2" s="89"/>
+      <c r="AI2" s="89"/>
+      <c r="AJ2" s="89"/>
+      <c r="AK2" s="89"/>
+      <c r="AL2" s="89"/>
+      <c r="AM2" s="89"/>
+      <c r="AN2" s="89"/>
+      <c r="AO2" s="89"/>
+      <c r="AP2" s="89"/>
+      <c r="AQ2" s="89"/>
+      <c r="AR2" s="89"/>
+      <c r="AS2" s="89"/>
+      <c r="AT2" s="89"/>
+      <c r="AU2" s="89"/>
+      <c r="AV2" s="89"/>
+      <c r="AW2" s="89"/>
+      <c r="AX2" s="89"/>
+      <c r="AY2" s="89"/>
+      <c r="AZ2" s="89"/>
+      <c r="BA2" s="89"/>
+      <c r="BB2" s="89"/>
+      <c r="BC2" s="89"/>
+      <c r="BD2" s="89"/>
+      <c r="BE2" s="89"/>
+      <c r="BF2" s="89"/>
+      <c r="BG2" s="89"/>
+      <c r="BH2" s="89"/>
+      <c r="BI2" s="89"/>
+      <c r="BJ2" s="89"/>
+      <c r="BK2" s="89"/>
+      <c r="BL2" s="89"/>
+      <c r="BM2" s="89"/>
+      <c r="BN2" s="89"/>
+      <c r="BO2" s="89"/>
+      <c r="BP2" s="89"/>
+      <c r="BQ2" s="89"/>
+      <c r="BR2" s="89"/>
+      <c r="BS2" s="89"/>
+      <c r="BT2" s="89"/>
+      <c r="BU2" s="89"/>
+      <c r="BV2" s="89"/>
+      <c r="BW2" s="89"/>
+      <c r="BX2" s="89"/>
+      <c r="BY2" s="89"/>
+      <c r="BZ2" s="89"/>
+      <c r="CA2" s="89"/>
+      <c r="CB2" s="89"/>
+      <c r="CC2" s="89"/>
+      <c r="CD2" s="89"/>
+      <c r="CE2" s="89"/>
+      <c r="CF2" s="89"/>
+      <c r="CG2" s="89"/>
+      <c r="CH2" s="89"/>
+      <c r="CI2" s="89"/>
+      <c r="CJ2" s="89"/>
+      <c r="CK2" s="89"/>
+      <c r="CL2" s="89"/>
+      <c r="CM2" s="89"/>
+      <c r="CN2" s="89"/>
+      <c r="CO2" s="89"/>
+      <c r="CP2" s="89"/>
+      <c r="CQ2" s="89"/>
+      <c r="CR2" s="89"/>
+      <c r="CS2" s="89"/>
+      <c r="CT2" s="89"/>
+      <c r="CU2" s="89"/>
+      <c r="CV2" s="89"/>
+      <c r="CW2" s="89"/>
+      <c r="CX2" s="89"/>
+      <c r="CY2" s="89"/>
+      <c r="CZ2" s="89"/>
+      <c r="DA2" s="89"/>
+      <c r="DB2" s="89"/>
+      <c r="DC2" s="89"/>
+      <c r="DD2" s="89"/>
+      <c r="DE2" s="89"/>
+      <c r="DF2" s="89"/>
+      <c r="DG2" s="89"/>
+      <c r="DH2" s="89"/>
+      <c r="DI2" s="89"/>
+      <c r="DJ2" s="89"/>
+      <c r="DK2" s="89"/>
+      <c r="DL2" s="89"/>
+      <c r="DM2" s="89"/>
+      <c r="DN2" s="89"/>
+      <c r="DO2" s="89"/>
+      <c r="DP2" s="89"/>
+      <c r="DQ2" s="89"/>
+      <c r="DR2" s="89"/>
+      <c r="DS2" s="89"/>
+      <c r="DT2" s="89"/>
+      <c r="DU2" s="89"/>
+      <c r="DV2" s="89"/>
+      <c r="DW2" s="89"/>
+      <c r="DX2" s="89"/>
+      <c r="DY2" s="89"/>
+      <c r="DZ2" s="89"/>
+      <c r="EA2" s="89"/>
+      <c r="EB2" s="89"/>
+      <c r="EC2" s="89"/>
+      <c r="ED2" s="89"/>
+      <c r="EE2" s="89"/>
+      <c r="EF2" s="89"/>
+      <c r="EG2" s="89"/>
+      <c r="EH2" s="89"/>
+      <c r="EI2" s="89"/>
+      <c r="EJ2" s="89"/>
+      <c r="EK2" s="89"/>
+      <c r="EL2" s="89"/>
+      <c r="EM2" s="89"/>
+      <c r="EN2" s="89"/>
+      <c r="EO2" s="89"/>
+      <c r="EP2" s="89"/>
+      <c r="EQ2" s="89"/>
+      <c r="ER2" s="89"/>
+      <c r="ES2" s="89"/>
     </row>
     <row r="3" spans="1:149" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
@@ -2541,243 +2603,243 @@
       <c r="C3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="95" t="s">
+      <c r="D3" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="95" t="s">
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="95" t="s">
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="104"/>
-      <c r="N3" s="104"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="95" t="s">
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="93"/>
+      <c r="P3" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="104"/>
-      <c r="R3" s="104"/>
-      <c r="S3" s="103"/>
-      <c r="T3" s="95" t="s">
+      <c r="Q3" s="92"/>
+      <c r="R3" s="92"/>
+      <c r="S3" s="93"/>
+      <c r="T3" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="U3" s="104"/>
-      <c r="V3" s="104"/>
-      <c r="W3" s="103"/>
-      <c r="X3" s="95" t="s">
+      <c r="U3" s="92"/>
+      <c r="V3" s="92"/>
+      <c r="W3" s="93"/>
+      <c r="X3" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="Y3" s="104"/>
-      <c r="Z3" s="104"/>
-      <c r="AA3" s="103"/>
-      <c r="AB3" s="95" t="s">
+      <c r="Y3" s="92"/>
+      <c r="Z3" s="92"/>
+      <c r="AA3" s="93"/>
+      <c r="AB3" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="AC3" s="104"/>
-      <c r="AD3" s="104"/>
-      <c r="AE3" s="103"/>
-      <c r="AF3" s="95" t="s">
+      <c r="AC3" s="92"/>
+      <c r="AD3" s="92"/>
+      <c r="AE3" s="93"/>
+      <c r="AF3" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="AG3" s="103"/>
-      <c r="AH3" s="95" t="s">
+      <c r="AG3" s="93"/>
+      <c r="AH3" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="AI3" s="104"/>
-      <c r="AJ3" s="104"/>
-      <c r="AK3" s="103"/>
-      <c r="AL3" s="95" t="s">
+      <c r="AI3" s="92"/>
+      <c r="AJ3" s="92"/>
+      <c r="AK3" s="93"/>
+      <c r="AL3" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="AM3" s="104"/>
-      <c r="AN3" s="104"/>
-      <c r="AO3" s="103"/>
-      <c r="AP3" s="95" t="s">
+      <c r="AM3" s="92"/>
+      <c r="AN3" s="92"/>
+      <c r="AO3" s="93"/>
+      <c r="AP3" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="AQ3" s="104"/>
-      <c r="AR3" s="104"/>
-      <c r="AS3" s="103"/>
-      <c r="AT3" s="95" t="s">
+      <c r="AQ3" s="92"/>
+      <c r="AR3" s="92"/>
+      <c r="AS3" s="93"/>
+      <c r="AT3" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="AU3" s="104"/>
-      <c r="AV3" s="104"/>
-      <c r="AW3" s="103"/>
-      <c r="AX3" s="95" t="s">
+      <c r="AU3" s="92"/>
+      <c r="AV3" s="92"/>
+      <c r="AW3" s="93"/>
+      <c r="AX3" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="AY3" s="104"/>
-      <c r="AZ3" s="104"/>
-      <c r="BA3" s="103"/>
-      <c r="BB3" s="95" t="s">
+      <c r="AY3" s="92"/>
+      <c r="AZ3" s="92"/>
+      <c r="BA3" s="93"/>
+      <c r="BB3" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="BC3" s="104"/>
-      <c r="BD3" s="104"/>
-      <c r="BE3" s="103"/>
-      <c r="BF3" s="95" t="s">
+      <c r="BC3" s="92"/>
+      <c r="BD3" s="92"/>
+      <c r="BE3" s="93"/>
+      <c r="BF3" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="BG3" s="104"/>
-      <c r="BH3" s="104"/>
-      <c r="BI3" s="103"/>
-      <c r="BJ3" s="95" t="s">
+      <c r="BG3" s="92"/>
+      <c r="BH3" s="92"/>
+      <c r="BI3" s="93"/>
+      <c r="BJ3" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="BK3" s="103"/>
-      <c r="BL3" s="95" t="s">
+      <c r="BK3" s="93"/>
+      <c r="BL3" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="BM3" s="104"/>
-      <c r="BN3" s="104"/>
-      <c r="BO3" s="103"/>
-      <c r="BP3" s="95" t="s">
+      <c r="BM3" s="92"/>
+      <c r="BN3" s="92"/>
+      <c r="BO3" s="93"/>
+      <c r="BP3" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="BQ3" s="103"/>
-      <c r="BR3" s="95" t="s">
+      <c r="BQ3" s="93"/>
+      <c r="BR3" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="BS3" s="104"/>
-      <c r="BT3" s="104"/>
-      <c r="BU3" s="103"/>
-      <c r="BV3" s="95" t="s">
+      <c r="BS3" s="92"/>
+      <c r="BT3" s="92"/>
+      <c r="BU3" s="93"/>
+      <c r="BV3" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="BW3" s="104"/>
-      <c r="BX3" s="104"/>
-      <c r="BY3" s="103"/>
-      <c r="BZ3" s="95" t="s">
+      <c r="BW3" s="92"/>
+      <c r="BX3" s="92"/>
+      <c r="BY3" s="93"/>
+      <c r="BZ3" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="CA3" s="103"/>
-      <c r="CB3" s="95" t="s">
+      <c r="CA3" s="93"/>
+      <c r="CB3" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="CC3" s="104"/>
-      <c r="CD3" s="104"/>
-      <c r="CE3" s="103"/>
-      <c r="CF3" s="95" t="s">
+      <c r="CC3" s="92"/>
+      <c r="CD3" s="92"/>
+      <c r="CE3" s="93"/>
+      <c r="CF3" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="CG3" s="104"/>
-      <c r="CH3" s="104"/>
-      <c r="CI3" s="103"/>
-      <c r="CJ3" s="95" t="s">
+      <c r="CG3" s="92"/>
+      <c r="CH3" s="92"/>
+      <c r="CI3" s="93"/>
+      <c r="CJ3" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="CK3" s="103"/>
-      <c r="CL3" s="95" t="s">
+      <c r="CK3" s="93"/>
+      <c r="CL3" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="CM3" s="104"/>
-      <c r="CN3" s="104"/>
-      <c r="CO3" s="103"/>
-      <c r="CP3" s="95" t="s">
+      <c r="CM3" s="92"/>
+      <c r="CN3" s="92"/>
+      <c r="CO3" s="93"/>
+      <c r="CP3" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="CQ3" s="104"/>
-      <c r="CR3" s="104"/>
-      <c r="CS3" s="103"/>
-      <c r="CT3" s="95" t="s">
+      <c r="CQ3" s="92"/>
+      <c r="CR3" s="92"/>
+      <c r="CS3" s="93"/>
+      <c r="CT3" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="CU3" s="104"/>
-      <c r="CV3" s="104"/>
-      <c r="CW3" s="103"/>
-      <c r="CX3" s="95" t="s">
+      <c r="CU3" s="92"/>
+      <c r="CV3" s="92"/>
+      <c r="CW3" s="93"/>
+      <c r="CX3" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="CY3" s="104"/>
-      <c r="CZ3" s="104"/>
-      <c r="DA3" s="103"/>
-      <c r="DB3" s="95" t="s">
+      <c r="CY3" s="92"/>
+      <c r="CZ3" s="92"/>
+      <c r="DA3" s="93"/>
+      <c r="DB3" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="DC3" s="103"/>
-      <c r="DD3" s="95" t="s">
+      <c r="DC3" s="93"/>
+      <c r="DD3" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="DE3" s="104"/>
-      <c r="DF3" s="104"/>
-      <c r="DG3" s="103"/>
-      <c r="DH3" s="95" t="s">
+      <c r="DE3" s="92"/>
+      <c r="DF3" s="92"/>
+      <c r="DG3" s="93"/>
+      <c r="DH3" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="DI3" s="104"/>
-      <c r="DJ3" s="104"/>
-      <c r="DK3" s="103"/>
-      <c r="DL3" s="95" t="s">
+      <c r="DI3" s="92"/>
+      <c r="DJ3" s="92"/>
+      <c r="DK3" s="93"/>
+      <c r="DL3" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="DM3" s="104"/>
-      <c r="DN3" s="104"/>
-      <c r="DO3" s="103"/>
-      <c r="DP3" s="95" t="s">
+      <c r="DM3" s="92"/>
+      <c r="DN3" s="92"/>
+      <c r="DO3" s="93"/>
+      <c r="DP3" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="DQ3" s="104"/>
-      <c r="DR3" s="104"/>
-      <c r="DS3" s="103"/>
-      <c r="DT3" s="95" t="s">
+      <c r="DQ3" s="92"/>
+      <c r="DR3" s="92"/>
+      <c r="DS3" s="93"/>
+      <c r="DT3" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="DU3" s="104"/>
-      <c r="DV3" s="104"/>
-      <c r="DW3" s="103"/>
-      <c r="DX3" s="95" t="s">
+      <c r="DU3" s="92"/>
+      <c r="DV3" s="92"/>
+      <c r="DW3" s="93"/>
+      <c r="DX3" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="DY3" s="103"/>
-      <c r="DZ3" s="95" t="s">
+      <c r="DY3" s="93"/>
+      <c r="DZ3" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="EA3" s="104"/>
-      <c r="EB3" s="104"/>
-      <c r="EC3" s="104"/>
-      <c r="ED3" s="104"/>
-      <c r="EE3" s="103"/>
-      <c r="EF3" s="95" t="s">
+      <c r="EA3" s="92"/>
+      <c r="EB3" s="92"/>
+      <c r="EC3" s="92"/>
+      <c r="ED3" s="92"/>
+      <c r="EE3" s="93"/>
+      <c r="EF3" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="EG3" s="104"/>
-      <c r="EH3" s="104"/>
-      <c r="EI3" s="103"/>
-      <c r="EJ3" s="95" t="s">
+      <c r="EG3" s="92"/>
+      <c r="EH3" s="92"/>
+      <c r="EI3" s="93"/>
+      <c r="EJ3" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="EK3" s="103"/>
-      <c r="EL3" s="95" t="s">
+      <c r="EK3" s="93"/>
+      <c r="EL3" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="EM3" s="104"/>
-      <c r="EN3" s="104"/>
-      <c r="EO3" s="103"/>
-      <c r="EP3" s="95" t="s">
+      <c r="EM3" s="92"/>
+      <c r="EN3" s="92"/>
+      <c r="EO3" s="93"/>
+      <c r="EP3" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="EQ3" s="103"/>
-      <c r="ER3" s="95" t="s">
+      <c r="EQ3" s="93"/>
+      <c r="ER3" s="91" t="s">
         <v>43</v>
       </c>
-      <c r="ES3" s="96"/>
+      <c r="ES3" s="95"/>
     </row>
     <row r="4" spans="1:149" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="77">
+      <c r="B4" s="99">
         <v>1</v>
       </c>
-      <c r="C4" s="77" t="s">
+      <c r="C4" s="99" t="s">
         <v>45</v>
       </c>
       <c r="D4" s="61" t="s">
@@ -2788,7 +2850,7 @@
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="63" t="s">
+      <c r="H4" s="71" t="s">
         <v>55</v>
       </c>
       <c r="I4" s="17" t="s">
@@ -2804,11 +2866,11 @@
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="100"/>
-      <c r="Q4" s="101"/>
-      <c r="R4" s="101"/>
-      <c r="S4" s="102"/>
-      <c r="T4" s="63" t="s">
+      <c r="P4" s="63"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="64"/>
+      <c r="S4" s="65"/>
+      <c r="T4" s="71" t="s">
         <v>76</v>
       </c>
       <c r="U4" s="27" t="s">
@@ -2830,7 +2892,7 @@
       <c r="AC4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AD4" s="57" t="s">
+      <c r="AD4" s="69" t="s">
         <v>62</v>
       </c>
       <c r="AE4" s="7" t="s">
@@ -2842,31 +2904,31 @@
       <c r="AG4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AH4" s="100"/>
-      <c r="AI4" s="101"/>
-      <c r="AJ4" s="101"/>
-      <c r="AK4" s="102"/>
-      <c r="AL4" s="100"/>
-      <c r="AM4" s="101"/>
-      <c r="AN4" s="101"/>
-      <c r="AO4" s="102"/>
-      <c r="AP4" s="100"/>
-      <c r="AQ4" s="101"/>
-      <c r="AR4" s="101"/>
-      <c r="AS4" s="102"/>
-      <c r="AT4" s="100"/>
-      <c r="AU4" s="101"/>
-      <c r="AV4" s="101"/>
-      <c r="AW4" s="102"/>
-      <c r="AX4" s="100"/>
-      <c r="AY4" s="101"/>
-      <c r="AZ4" s="101"/>
-      <c r="BA4" s="102"/>
-      <c r="BB4" s="100"/>
-      <c r="BC4" s="101"/>
-      <c r="BD4" s="101"/>
-      <c r="BE4" s="102"/>
-      <c r="BF4" s="91" t="s">
+      <c r="AH4" s="63"/>
+      <c r="AI4" s="64"/>
+      <c r="AJ4" s="64"/>
+      <c r="AK4" s="65"/>
+      <c r="AL4" s="63"/>
+      <c r="AM4" s="64"/>
+      <c r="AN4" s="64"/>
+      <c r="AO4" s="65"/>
+      <c r="AP4" s="63"/>
+      <c r="AQ4" s="64"/>
+      <c r="AR4" s="64"/>
+      <c r="AS4" s="65"/>
+      <c r="AT4" s="63"/>
+      <c r="AU4" s="64"/>
+      <c r="AV4" s="64"/>
+      <c r="AW4" s="65"/>
+      <c r="AX4" s="63"/>
+      <c r="AY4" s="64"/>
+      <c r="AZ4" s="64"/>
+      <c r="BA4" s="65"/>
+      <c r="BB4" s="63"/>
+      <c r="BC4" s="64"/>
+      <c r="BD4" s="64"/>
+      <c r="BE4" s="65"/>
+      <c r="BF4" s="73" t="s">
         <v>68</v>
       </c>
       <c r="BG4" s="50" t="s">
@@ -2874,8 +2936,8 @@
       </c>
       <c r="BH4" s="32"/>
       <c r="BI4" s="33"/>
-      <c r="BJ4" s="100"/>
-      <c r="BK4" s="102"/>
+      <c r="BJ4" s="63"/>
+      <c r="BK4" s="65"/>
       <c r="BL4" s="61" t="s">
         <v>70</v>
       </c>
@@ -2890,7 +2952,7 @@
       <c r="BQ4" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="BR4" s="63" t="s">
+      <c r="BR4" s="71" t="s">
         <v>99</v>
       </c>
       <c r="BS4" s="48" t="s">
@@ -2920,38 +2982,38 @@
       </c>
       <c r="CD4" s="2"/>
       <c r="CE4" s="3"/>
-      <c r="CF4" s="100"/>
-      <c r="CG4" s="101"/>
-      <c r="CH4" s="101"/>
-      <c r="CI4" s="102"/>
+      <c r="CF4" s="63"/>
+      <c r="CG4" s="64"/>
+      <c r="CH4" s="64"/>
+      <c r="CI4" s="65"/>
       <c r="CJ4" s="61" t="s">
         <v>46</v>
       </c>
       <c r="CK4" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="CL4" s="100"/>
-      <c r="CM4" s="101"/>
-      <c r="CN4" s="101"/>
-      <c r="CO4" s="102"/>
-      <c r="CP4" s="100"/>
-      <c r="CQ4" s="101"/>
-      <c r="CR4" s="101"/>
-      <c r="CS4" s="102"/>
-      <c r="CT4" s="100"/>
-      <c r="CU4" s="101"/>
-      <c r="CV4" s="101"/>
-      <c r="CW4" s="102"/>
-      <c r="CX4" s="100"/>
-      <c r="CY4" s="101"/>
-      <c r="CZ4" s="101"/>
-      <c r="DA4" s="102"/>
-      <c r="DB4" s="100"/>
-      <c r="DC4" s="102"/>
-      <c r="DD4" s="100"/>
-      <c r="DE4" s="101"/>
-      <c r="DF4" s="101"/>
-      <c r="DG4" s="102"/>
+      <c r="CL4" s="63"/>
+      <c r="CM4" s="64"/>
+      <c r="CN4" s="64"/>
+      <c r="CO4" s="65"/>
+      <c r="CP4" s="63"/>
+      <c r="CQ4" s="64"/>
+      <c r="CR4" s="64"/>
+      <c r="CS4" s="65"/>
+      <c r="CT4" s="63"/>
+      <c r="CU4" s="64"/>
+      <c r="CV4" s="64"/>
+      <c r="CW4" s="65"/>
+      <c r="CX4" s="63"/>
+      <c r="CY4" s="64"/>
+      <c r="CZ4" s="64"/>
+      <c r="DA4" s="65"/>
+      <c r="DB4" s="63"/>
+      <c r="DC4" s="65"/>
+      <c r="DD4" s="63"/>
+      <c r="DE4" s="64"/>
+      <c r="DF4" s="64"/>
+      <c r="DG4" s="65"/>
       <c r="DH4" s="61"/>
       <c r="DI4" s="1"/>
       <c r="DJ4" s="2"/>
@@ -2984,14 +3046,14 @@
       </c>
       <c r="EH4" s="2"/>
       <c r="EI4" s="3"/>
-      <c r="EJ4" s="100"/>
-      <c r="EK4" s="102"/>
-      <c r="EL4" s="100"/>
-      <c r="EM4" s="101"/>
-      <c r="EN4" s="101"/>
-      <c r="EO4" s="102"/>
-      <c r="EP4" s="100"/>
-      <c r="EQ4" s="102"/>
+      <c r="EJ4" s="63"/>
+      <c r="EK4" s="65"/>
+      <c r="EL4" s="63"/>
+      <c r="EM4" s="64"/>
+      <c r="EN4" s="64"/>
+      <c r="EO4" s="65"/>
+      <c r="EP4" s="63"/>
+      <c r="EQ4" s="65"/>
       <c r="ER4" s="61" t="s">
         <v>90</v>
       </c>
@@ -3000,16 +3062,16 @@
       </c>
     </row>
     <row r="5" spans="1:149" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="98"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
+      <c r="A5" s="97"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
       <c r="D5" s="62"/>
       <c r="E5" s="4" t="s">
         <v>48</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="64"/>
+      <c r="H5" s="72"/>
       <c r="I5" s="20" t="s">
         <v>51</v>
       </c>
@@ -3021,11 +3083,11 @@
       </c>
       <c r="N5" s="5"/>
       <c r="O5" s="6"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="81"/>
-      <c r="T5" s="64"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="68"/>
+      <c r="T5" s="72"/>
       <c r="U5" s="29" t="s">
         <v>57</v>
       </c>
@@ -3041,7 +3103,7 @@
       <c r="AC5" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="AD5" s="58"/>
+      <c r="AD5" s="70"/>
       <c r="AE5" s="37" t="s">
         <v>97</v>
       </c>
@@ -3049,38 +3111,38 @@
       <c r="AG5" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="AH5" s="75"/>
-      <c r="AI5" s="82"/>
-      <c r="AJ5" s="82"/>
-      <c r="AK5" s="81"/>
-      <c r="AL5" s="75"/>
-      <c r="AM5" s="82"/>
-      <c r="AN5" s="82"/>
-      <c r="AO5" s="81"/>
-      <c r="AP5" s="75"/>
-      <c r="AQ5" s="82"/>
-      <c r="AR5" s="82"/>
-      <c r="AS5" s="81"/>
-      <c r="AT5" s="75"/>
-      <c r="AU5" s="82"/>
-      <c r="AV5" s="82"/>
-      <c r="AW5" s="81"/>
-      <c r="AX5" s="75"/>
-      <c r="AY5" s="82"/>
-      <c r="AZ5" s="82"/>
-      <c r="BA5" s="81"/>
-      <c r="BB5" s="75"/>
-      <c r="BC5" s="82"/>
-      <c r="BD5" s="82"/>
-      <c r="BE5" s="81"/>
-      <c r="BF5" s="92"/>
+      <c r="AH5" s="66"/>
+      <c r="AI5" s="67"/>
+      <c r="AJ5" s="67"/>
+      <c r="AK5" s="68"/>
+      <c r="AL5" s="66"/>
+      <c r="AM5" s="67"/>
+      <c r="AN5" s="67"/>
+      <c r="AO5" s="68"/>
+      <c r="AP5" s="66"/>
+      <c r="AQ5" s="67"/>
+      <c r="AR5" s="67"/>
+      <c r="AS5" s="68"/>
+      <c r="AT5" s="66"/>
+      <c r="AU5" s="67"/>
+      <c r="AV5" s="67"/>
+      <c r="AW5" s="68"/>
+      <c r="AX5" s="66"/>
+      <c r="AY5" s="67"/>
+      <c r="AZ5" s="67"/>
+      <c r="BA5" s="68"/>
+      <c r="BB5" s="66"/>
+      <c r="BC5" s="67"/>
+      <c r="BD5" s="67"/>
+      <c r="BE5" s="68"/>
+      <c r="BF5" s="74"/>
       <c r="BG5" s="52" t="s">
         <v>181</v>
       </c>
       <c r="BH5" s="35"/>
       <c r="BI5" s="36"/>
-      <c r="BJ5" s="75"/>
-      <c r="BK5" s="81"/>
+      <c r="BJ5" s="66"/>
+      <c r="BK5" s="68"/>
       <c r="BL5" s="62"/>
       <c r="BM5" s="4" t="s">
         <v>72</v>
@@ -3091,7 +3153,7 @@
       <c r="BQ5" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="BR5" s="64"/>
+      <c r="BR5" s="72"/>
       <c r="BS5" s="49" t="s">
         <v>78</v>
       </c>
@@ -3113,36 +3175,36 @@
       </c>
       <c r="CD5" s="5"/>
       <c r="CE5" s="6"/>
-      <c r="CF5" s="75"/>
-      <c r="CG5" s="82"/>
-      <c r="CH5" s="82"/>
-      <c r="CI5" s="81"/>
+      <c r="CF5" s="66"/>
+      <c r="CG5" s="67"/>
+      <c r="CH5" s="67"/>
+      <c r="CI5" s="68"/>
       <c r="CJ5" s="62"/>
       <c r="CK5" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="CL5" s="75"/>
-      <c r="CM5" s="82"/>
-      <c r="CN5" s="82"/>
-      <c r="CO5" s="81"/>
-      <c r="CP5" s="75"/>
-      <c r="CQ5" s="82"/>
-      <c r="CR5" s="82"/>
-      <c r="CS5" s="81"/>
-      <c r="CT5" s="75"/>
-      <c r="CU5" s="82"/>
-      <c r="CV5" s="82"/>
-      <c r="CW5" s="81"/>
-      <c r="CX5" s="75"/>
-      <c r="CY5" s="82"/>
-      <c r="CZ5" s="82"/>
-      <c r="DA5" s="81"/>
-      <c r="DB5" s="75"/>
-      <c r="DC5" s="81"/>
-      <c r="DD5" s="75"/>
-      <c r="DE5" s="82"/>
-      <c r="DF5" s="82"/>
-      <c r="DG5" s="81"/>
+      <c r="CL5" s="66"/>
+      <c r="CM5" s="67"/>
+      <c r="CN5" s="67"/>
+      <c r="CO5" s="68"/>
+      <c r="CP5" s="66"/>
+      <c r="CQ5" s="67"/>
+      <c r="CR5" s="67"/>
+      <c r="CS5" s="68"/>
+      <c r="CT5" s="66"/>
+      <c r="CU5" s="67"/>
+      <c r="CV5" s="67"/>
+      <c r="CW5" s="68"/>
+      <c r="CX5" s="66"/>
+      <c r="CY5" s="67"/>
+      <c r="CZ5" s="67"/>
+      <c r="DA5" s="68"/>
+      <c r="DB5" s="66"/>
+      <c r="DC5" s="68"/>
+      <c r="DD5" s="66"/>
+      <c r="DE5" s="67"/>
+      <c r="DF5" s="67"/>
+      <c r="DG5" s="68"/>
       <c r="DH5" s="62"/>
       <c r="DI5" s="4"/>
       <c r="DJ5" s="5"/>
@@ -3173,25 +3235,25 @@
       </c>
       <c r="EH5" s="5"/>
       <c r="EI5" s="6"/>
-      <c r="EJ5" s="75"/>
-      <c r="EK5" s="81"/>
-      <c r="EL5" s="75"/>
-      <c r="EM5" s="82"/>
-      <c r="EN5" s="82"/>
-      <c r="EO5" s="81"/>
-      <c r="EP5" s="75"/>
-      <c r="EQ5" s="81"/>
+      <c r="EJ5" s="66"/>
+      <c r="EK5" s="68"/>
+      <c r="EL5" s="66"/>
+      <c r="EM5" s="67"/>
+      <c r="EN5" s="67"/>
+      <c r="EO5" s="68"/>
+      <c r="EP5" s="66"/>
+      <c r="EQ5" s="68"/>
       <c r="ER5" s="62"/>
       <c r="ES5" s="12" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:149" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="98"/>
-      <c r="B6" s="77">
+      <c r="A6" s="97"/>
+      <c r="B6" s="99">
         <v>2</v>
       </c>
-      <c r="C6" s="77" t="s">
+      <c r="C6" s="99" t="s">
         <v>93</v>
       </c>
       <c r="D6" s="61" t="s">
@@ -3208,7 +3270,7 @@
       <c r="I6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="J6" s="57" t="s">
+      <c r="J6" s="69" t="s">
         <v>62</v>
       </c>
       <c r="K6" s="7" t="s">
@@ -3230,7 +3292,7 @@
       </c>
       <c r="R6" s="2"/>
       <c r="S6" s="3"/>
-      <c r="T6" s="63" t="s">
+      <c r="T6" s="71" t="s">
         <v>55</v>
       </c>
       <c r="U6" s="17" t="s">
@@ -3260,31 +3322,31 @@
       <c r="AG6" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AH6" s="67"/>
-      <c r="AI6" s="73"/>
-      <c r="AJ6" s="73"/>
-      <c r="AK6" s="71"/>
-      <c r="AL6" s="67"/>
-      <c r="AM6" s="73"/>
-      <c r="AN6" s="73"/>
-      <c r="AO6" s="71"/>
-      <c r="AP6" s="67"/>
-      <c r="AQ6" s="73"/>
-      <c r="AR6" s="73"/>
-      <c r="AS6" s="71"/>
-      <c r="AT6" s="67"/>
-      <c r="AU6" s="73"/>
-      <c r="AV6" s="73"/>
-      <c r="AW6" s="71"/>
-      <c r="AX6" s="67"/>
-      <c r="AY6" s="73"/>
-      <c r="AZ6" s="73"/>
-      <c r="BA6" s="71"/>
-      <c r="BB6" s="67"/>
-      <c r="BC6" s="73"/>
-      <c r="BD6" s="73"/>
-      <c r="BE6" s="71"/>
-      <c r="BF6" s="91" t="s">
+      <c r="AH6" s="81"/>
+      <c r="AI6" s="82"/>
+      <c r="AJ6" s="82"/>
+      <c r="AK6" s="83"/>
+      <c r="AL6" s="81"/>
+      <c r="AM6" s="82"/>
+      <c r="AN6" s="82"/>
+      <c r="AO6" s="83"/>
+      <c r="AP6" s="81"/>
+      <c r="AQ6" s="82"/>
+      <c r="AR6" s="82"/>
+      <c r="AS6" s="83"/>
+      <c r="AT6" s="81"/>
+      <c r="AU6" s="82"/>
+      <c r="AV6" s="82"/>
+      <c r="AW6" s="83"/>
+      <c r="AX6" s="81"/>
+      <c r="AY6" s="82"/>
+      <c r="AZ6" s="82"/>
+      <c r="BA6" s="83"/>
+      <c r="BB6" s="81"/>
+      <c r="BC6" s="82"/>
+      <c r="BD6" s="82"/>
+      <c r="BE6" s="83"/>
+      <c r="BF6" s="73" t="s">
         <v>68</v>
       </c>
       <c r="BG6" s="50" t="s">
@@ -3292,7 +3354,7 @@
       </c>
       <c r="BH6" s="32"/>
       <c r="BI6" s="33"/>
-      <c r="BJ6" s="63"/>
+      <c r="BJ6" s="71"/>
       <c r="BK6" s="28"/>
       <c r="BL6" s="61" t="s">
         <v>46</v>
@@ -3308,7 +3370,7 @@
       <c r="BQ6" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="BR6" s="63" t="s">
+      <c r="BR6" s="71" t="s">
         <v>76</v>
       </c>
       <c r="BS6" s="48" t="s">
@@ -3316,7 +3378,7 @@
       </c>
       <c r="BT6" s="18"/>
       <c r="BU6" s="19"/>
-      <c r="BV6" s="63" t="s">
+      <c r="BV6" s="71" t="s">
         <v>73</v>
       </c>
       <c r="BW6" s="48" t="s">
@@ -3324,25 +3386,25 @@
       </c>
       <c r="BX6" s="18"/>
       <c r="BY6" s="19"/>
-      <c r="BZ6" s="63" t="s">
+      <c r="BZ6" s="71" t="s">
         <v>99</v>
       </c>
       <c r="CA6" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="CB6" s="63" t="s">
+      <c r="CB6" s="71" t="s">
         <v>60</v>
       </c>
       <c r="CC6" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="CD6" s="59" t="s">
+      <c r="CD6" s="84" t="s">
         <v>62</v>
       </c>
       <c r="CE6" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="CF6" s="63" t="s">
+      <c r="CF6" s="71" t="s">
         <v>46</v>
       </c>
       <c r="CG6" s="48" t="s">
@@ -3350,63 +3412,63 @@
       </c>
       <c r="CH6" s="18"/>
       <c r="CI6" s="19"/>
-      <c r="CJ6" s="63" t="s">
+      <c r="CJ6" s="71" t="s">
         <v>73</v>
       </c>
       <c r="CK6" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="CL6" s="67"/>
-      <c r="CM6" s="73"/>
-      <c r="CN6" s="73"/>
-      <c r="CO6" s="71"/>
-      <c r="CP6" s="67"/>
-      <c r="CQ6" s="73"/>
-      <c r="CR6" s="73"/>
-      <c r="CS6" s="71"/>
-      <c r="CT6" s="67"/>
-      <c r="CU6" s="73"/>
-      <c r="CV6" s="73"/>
-      <c r="CW6" s="71"/>
-      <c r="CX6" s="67"/>
-      <c r="CY6" s="73"/>
-      <c r="CZ6" s="73"/>
-      <c r="DA6" s="71"/>
-      <c r="DB6" s="67"/>
-      <c r="DC6" s="71"/>
-      <c r="DD6" s="67"/>
-      <c r="DE6" s="73"/>
-      <c r="DF6" s="73"/>
-      <c r="DG6" s="71"/>
-      <c r="DH6" s="113" t="s">
+      <c r="CL6" s="81"/>
+      <c r="CM6" s="82"/>
+      <c r="CN6" s="82"/>
+      <c r="CO6" s="83"/>
+      <c r="CP6" s="81"/>
+      <c r="CQ6" s="82"/>
+      <c r="CR6" s="82"/>
+      <c r="CS6" s="83"/>
+      <c r="CT6" s="81"/>
+      <c r="CU6" s="82"/>
+      <c r="CV6" s="82"/>
+      <c r="CW6" s="83"/>
+      <c r="CX6" s="81"/>
+      <c r="CY6" s="82"/>
+      <c r="CZ6" s="82"/>
+      <c r="DA6" s="83"/>
+      <c r="DB6" s="81"/>
+      <c r="DC6" s="83"/>
+      <c r="DD6" s="81"/>
+      <c r="DE6" s="82"/>
+      <c r="DF6" s="82"/>
+      <c r="DG6" s="83"/>
+      <c r="DH6" s="57" t="s">
         <v>184</v>
       </c>
-      <c r="DI6" s="114"/>
+      <c r="DI6" s="58"/>
       <c r="DJ6" s="18"/>
       <c r="DK6" s="19"/>
-      <c r="DL6" s="113" t="s">
+      <c r="DL6" s="57" t="s">
         <v>184</v>
       </c>
-      <c r="DM6" s="114"/>
+      <c r="DM6" s="58"/>
       <c r="DN6" s="18"/>
       <c r="DO6" s="19"/>
-      <c r="DP6" s="113" t="s">
+      <c r="DP6" s="57" t="s">
         <v>184</v>
       </c>
-      <c r="DQ6" s="114"/>
+      <c r="DQ6" s="58"/>
       <c r="DR6" s="18"/>
       <c r="DS6" s="19"/>
-      <c r="DT6" s="113" t="s">
+      <c r="DT6" s="57" t="s">
         <v>184</v>
       </c>
-      <c r="DU6" s="114"/>
+      <c r="DU6" s="58"/>
       <c r="DV6" s="18"/>
       <c r="DW6" s="19"/>
-      <c r="DX6" s="111" t="s">
+      <c r="DX6" s="79" t="s">
         <v>184</v>
       </c>
       <c r="DY6" s="7"/>
-      <c r="DZ6" s="111" t="s">
+      <c r="DZ6" s="79" t="s">
         <v>184</v>
       </c>
       <c r="EA6" s="25"/>
@@ -3422,8 +3484,8 @@
       </c>
       <c r="EH6" s="2"/>
       <c r="EI6" s="3"/>
-      <c r="EJ6" s="67"/>
-      <c r="EK6" s="71"/>
+      <c r="EJ6" s="81"/>
+      <c r="EK6" s="83"/>
       <c r="EL6" s="61" t="s">
         <v>46</v>
       </c>
@@ -3432,7 +3494,7 @@
       </c>
       <c r="EN6" s="2"/>
       <c r="EO6" s="3"/>
-      <c r="EP6" s="63" t="s">
+      <c r="EP6" s="71" t="s">
         <v>115</v>
       </c>
       <c r="EQ6" s="28" t="s">
@@ -3446,9 +3508,9 @@
       </c>
     </row>
     <row r="7" spans="1:149" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="98"/>
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
+      <c r="A7" s="97"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
       <c r="D7" s="62"/>
       <c r="E7" s="4" t="s">
         <v>48</v>
@@ -3459,7 +3521,7 @@
       <c r="I7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="J7" s="58"/>
+      <c r="J7" s="70"/>
       <c r="K7" s="8" t="s">
         <v>51</v>
       </c>
@@ -3475,7 +3537,7 @@
       </c>
       <c r="R7" s="5"/>
       <c r="S7" s="6"/>
-      <c r="T7" s="64"/>
+      <c r="T7" s="72"/>
       <c r="U7" s="20" t="s">
         <v>57</v>
       </c>
@@ -3497,37 +3559,37 @@
       <c r="AG7" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="AH7" s="75"/>
-      <c r="AI7" s="82"/>
-      <c r="AJ7" s="82"/>
-      <c r="AK7" s="81"/>
-      <c r="AL7" s="75"/>
-      <c r="AM7" s="82"/>
-      <c r="AN7" s="82"/>
-      <c r="AO7" s="81"/>
-      <c r="AP7" s="75"/>
-      <c r="AQ7" s="82"/>
-      <c r="AR7" s="82"/>
-      <c r="AS7" s="81"/>
-      <c r="AT7" s="75"/>
-      <c r="AU7" s="82"/>
-      <c r="AV7" s="82"/>
-      <c r="AW7" s="81"/>
-      <c r="AX7" s="75"/>
-      <c r="AY7" s="82"/>
-      <c r="AZ7" s="82"/>
-      <c r="BA7" s="81"/>
-      <c r="BB7" s="75"/>
-      <c r="BC7" s="82"/>
-      <c r="BD7" s="82"/>
-      <c r="BE7" s="81"/>
-      <c r="BF7" s="92"/>
+      <c r="AH7" s="66"/>
+      <c r="AI7" s="67"/>
+      <c r="AJ7" s="67"/>
+      <c r="AK7" s="68"/>
+      <c r="AL7" s="66"/>
+      <c r="AM7" s="67"/>
+      <c r="AN7" s="67"/>
+      <c r="AO7" s="68"/>
+      <c r="AP7" s="66"/>
+      <c r="AQ7" s="67"/>
+      <c r="AR7" s="67"/>
+      <c r="AS7" s="68"/>
+      <c r="AT7" s="66"/>
+      <c r="AU7" s="67"/>
+      <c r="AV7" s="67"/>
+      <c r="AW7" s="68"/>
+      <c r="AX7" s="66"/>
+      <c r="AY7" s="67"/>
+      <c r="AZ7" s="67"/>
+      <c r="BA7" s="68"/>
+      <c r="BB7" s="66"/>
+      <c r="BC7" s="67"/>
+      <c r="BD7" s="67"/>
+      <c r="BE7" s="68"/>
+      <c r="BF7" s="74"/>
       <c r="BG7" s="52" t="s">
         <v>181</v>
       </c>
       <c r="BH7" s="35"/>
       <c r="BI7" s="36"/>
-      <c r="BJ7" s="64"/>
+      <c r="BJ7" s="72"/>
       <c r="BK7" s="30"/>
       <c r="BL7" s="62"/>
       <c r="BM7" s="4" t="s">
@@ -3539,91 +3601,91 @@
       <c r="BQ7" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="BR7" s="64"/>
+      <c r="BR7" s="72"/>
       <c r="BS7" s="49" t="s">
         <v>78</v>
       </c>
       <c r="BT7" s="21"/>
       <c r="BU7" s="22"/>
-      <c r="BV7" s="64"/>
+      <c r="BV7" s="72"/>
       <c r="BW7" s="49" t="s">
         <v>80</v>
       </c>
       <c r="BX7" s="21"/>
       <c r="BY7" s="22"/>
-      <c r="BZ7" s="64"/>
+      <c r="BZ7" s="72"/>
       <c r="CA7" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="CB7" s="64"/>
+      <c r="CB7" s="72"/>
       <c r="CC7" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="CD7" s="60"/>
+      <c r="CD7" s="85"/>
       <c r="CE7" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="CF7" s="64"/>
+      <c r="CF7" s="72"/>
       <c r="CG7" s="49" t="s">
         <v>104</v>
       </c>
       <c r="CH7" s="21"/>
       <c r="CI7" s="22"/>
-      <c r="CJ7" s="64"/>
+      <c r="CJ7" s="72"/>
       <c r="CK7" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="CL7" s="75"/>
-      <c r="CM7" s="82"/>
-      <c r="CN7" s="82"/>
-      <c r="CO7" s="81"/>
-      <c r="CP7" s="75"/>
-      <c r="CQ7" s="82"/>
-      <c r="CR7" s="82"/>
-      <c r="CS7" s="81"/>
-      <c r="CT7" s="75"/>
-      <c r="CU7" s="82"/>
-      <c r="CV7" s="82"/>
-      <c r="CW7" s="81"/>
-      <c r="CX7" s="75"/>
-      <c r="CY7" s="82"/>
-      <c r="CZ7" s="82"/>
-      <c r="DA7" s="81"/>
-      <c r="DB7" s="75"/>
-      <c r="DC7" s="81"/>
-      <c r="DD7" s="75"/>
-      <c r="DE7" s="82"/>
-      <c r="DF7" s="82"/>
-      <c r="DG7" s="81"/>
-      <c r="DH7" s="115"/>
-      <c r="DI7" s="116"/>
+      <c r="CL7" s="66"/>
+      <c r="CM7" s="67"/>
+      <c r="CN7" s="67"/>
+      <c r="CO7" s="68"/>
+      <c r="CP7" s="66"/>
+      <c r="CQ7" s="67"/>
+      <c r="CR7" s="67"/>
+      <c r="CS7" s="68"/>
+      <c r="CT7" s="66"/>
+      <c r="CU7" s="67"/>
+      <c r="CV7" s="67"/>
+      <c r="CW7" s="68"/>
+      <c r="CX7" s="66"/>
+      <c r="CY7" s="67"/>
+      <c r="CZ7" s="67"/>
+      <c r="DA7" s="68"/>
+      <c r="DB7" s="66"/>
+      <c r="DC7" s="68"/>
+      <c r="DD7" s="66"/>
+      <c r="DE7" s="67"/>
+      <c r="DF7" s="67"/>
+      <c r="DG7" s="68"/>
+      <c r="DH7" s="59"/>
+      <c r="DI7" s="60"/>
       <c r="DJ7" s="21"/>
       <c r="DK7" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="DL7" s="115"/>
-      <c r="DM7" s="116"/>
+      <c r="DL7" s="59"/>
+      <c r="DM7" s="60"/>
       <c r="DN7" s="21"/>
       <c r="DO7" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="DP7" s="115"/>
-      <c r="DQ7" s="116"/>
+      <c r="DP7" s="59"/>
+      <c r="DQ7" s="60"/>
       <c r="DR7" s="21"/>
       <c r="DS7" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="DT7" s="115"/>
-      <c r="DU7" s="116"/>
+      <c r="DT7" s="59"/>
+      <c r="DU7" s="60"/>
       <c r="DV7" s="21"/>
       <c r="DW7" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="DX7" s="112"/>
+      <c r="DX7" s="80"/>
       <c r="DY7" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="DZ7" s="112"/>
+      <c r="DZ7" s="80"/>
       <c r="EA7" s="26" t="s">
         <v>157</v>
       </c>
@@ -3637,15 +3699,15 @@
       </c>
       <c r="EH7" s="5"/>
       <c r="EI7" s="6"/>
-      <c r="EJ7" s="75"/>
-      <c r="EK7" s="81"/>
+      <c r="EJ7" s="66"/>
+      <c r="EK7" s="68"/>
       <c r="EL7" s="62"/>
       <c r="EM7" s="4" t="s">
         <v>114</v>
       </c>
       <c r="EN7" s="5"/>
       <c r="EO7" s="6"/>
-      <c r="EP7" s="64"/>
+      <c r="EP7" s="72"/>
       <c r="EQ7" s="30" t="s">
         <v>179</v>
       </c>
@@ -3655,11 +3717,11 @@
       </c>
     </row>
     <row r="8" spans="1:149" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="98"/>
-      <c r="B8" s="77">
+      <c r="A8" s="97"/>
+      <c r="B8" s="99">
         <v>3</v>
       </c>
-      <c r="C8" s="77" t="s">
+      <c r="C8" s="99" t="s">
         <v>118</v>
       </c>
       <c r="D8" s="61" t="s">
@@ -3694,13 +3756,13 @@
       </c>
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
-      <c r="T8" s="93" t="s">
+      <c r="T8" s="75" t="s">
         <v>60</v>
       </c>
       <c r="U8" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="V8" s="117" t="s">
+      <c r="V8" s="77" t="s">
         <v>62</v>
       </c>
       <c r="W8" s="39" t="s">
@@ -3728,31 +3790,31 @@
       <c r="AG8" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="AH8" s="67"/>
-      <c r="AI8" s="73"/>
-      <c r="AJ8" s="73"/>
-      <c r="AK8" s="71"/>
-      <c r="AL8" s="67"/>
-      <c r="AM8" s="73"/>
-      <c r="AN8" s="73"/>
-      <c r="AO8" s="71"/>
-      <c r="AP8" s="67"/>
-      <c r="AQ8" s="73"/>
-      <c r="AR8" s="73"/>
-      <c r="AS8" s="71"/>
-      <c r="AT8" s="67"/>
-      <c r="AU8" s="73"/>
-      <c r="AV8" s="73"/>
-      <c r="AW8" s="71"/>
-      <c r="AX8" s="67"/>
-      <c r="AY8" s="73"/>
-      <c r="AZ8" s="73"/>
-      <c r="BA8" s="71"/>
-      <c r="BB8" s="67"/>
-      <c r="BC8" s="73"/>
-      <c r="BD8" s="73"/>
-      <c r="BE8" s="71"/>
-      <c r="BF8" s="91" t="s">
+      <c r="AH8" s="81"/>
+      <c r="AI8" s="82"/>
+      <c r="AJ8" s="82"/>
+      <c r="AK8" s="83"/>
+      <c r="AL8" s="81"/>
+      <c r="AM8" s="82"/>
+      <c r="AN8" s="82"/>
+      <c r="AO8" s="83"/>
+      <c r="AP8" s="81"/>
+      <c r="AQ8" s="82"/>
+      <c r="AR8" s="82"/>
+      <c r="AS8" s="83"/>
+      <c r="AT8" s="81"/>
+      <c r="AU8" s="82"/>
+      <c r="AV8" s="82"/>
+      <c r="AW8" s="83"/>
+      <c r="AX8" s="81"/>
+      <c r="AY8" s="82"/>
+      <c r="AZ8" s="82"/>
+      <c r="BA8" s="83"/>
+      <c r="BB8" s="81"/>
+      <c r="BC8" s="82"/>
+      <c r="BD8" s="82"/>
+      <c r="BE8" s="83"/>
+      <c r="BF8" s="73" t="s">
         <v>99</v>
       </c>
       <c r="BG8" s="50" t="s">
@@ -3760,7 +3822,7 @@
       </c>
       <c r="BH8" s="32"/>
       <c r="BI8" s="33"/>
-      <c r="BJ8" s="63" t="s">
+      <c r="BJ8" s="71" t="s">
         <v>142</v>
       </c>
       <c r="BK8" s="28" t="s">
@@ -3780,7 +3842,7 @@
       <c r="BQ8" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="BR8" s="63" t="s">
+      <c r="BR8" s="71" t="s">
         <v>73</v>
       </c>
       <c r="BS8" s="48" t="s">
@@ -3788,7 +3850,7 @@
       </c>
       <c r="BT8" s="18"/>
       <c r="BU8" s="19"/>
-      <c r="BV8" s="63" t="s">
+      <c r="BV8" s="71" t="s">
         <v>83</v>
       </c>
       <c r="BW8" s="48" t="s">
@@ -3796,13 +3858,13 @@
       </c>
       <c r="BX8" s="18"/>
       <c r="BY8" s="19"/>
-      <c r="BZ8" s="63" t="s">
+      <c r="BZ8" s="71" t="s">
         <v>46</v>
       </c>
       <c r="CA8" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="CB8" s="63" t="s">
+      <c r="CB8" s="71" t="s">
         <v>73</v>
       </c>
       <c r="CC8" s="48" t="s">
@@ -3810,75 +3872,75 @@
       </c>
       <c r="CD8" s="18"/>
       <c r="CE8" s="19"/>
-      <c r="CF8" s="63" t="s">
+      <c r="CF8" s="71" t="s">
         <v>60</v>
       </c>
       <c r="CG8" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="CH8" s="59" t="s">
+      <c r="CH8" s="84" t="s">
         <v>62</v>
       </c>
       <c r="CI8" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="CJ8" s="63" t="s">
+      <c r="CJ8" s="71" t="s">
         <v>70</v>
       </c>
       <c r="CK8" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="CL8" s="67"/>
-      <c r="CM8" s="73"/>
-      <c r="CN8" s="73"/>
-      <c r="CO8" s="71"/>
-      <c r="CP8" s="67"/>
-      <c r="CQ8" s="73"/>
-      <c r="CR8" s="73"/>
-      <c r="CS8" s="71"/>
-      <c r="CT8" s="67"/>
-      <c r="CU8" s="73"/>
-      <c r="CV8" s="73"/>
-      <c r="CW8" s="71"/>
-      <c r="CX8" s="67"/>
-      <c r="CY8" s="73"/>
-      <c r="CZ8" s="73"/>
-      <c r="DA8" s="71"/>
-      <c r="DB8" s="67"/>
-      <c r="DC8" s="71"/>
-      <c r="DD8" s="67"/>
-      <c r="DE8" s="73"/>
-      <c r="DF8" s="73"/>
-      <c r="DG8" s="71"/>
-      <c r="DH8" s="113" t="s">
+      <c r="CL8" s="81"/>
+      <c r="CM8" s="82"/>
+      <c r="CN8" s="82"/>
+      <c r="CO8" s="83"/>
+      <c r="CP8" s="81"/>
+      <c r="CQ8" s="82"/>
+      <c r="CR8" s="82"/>
+      <c r="CS8" s="83"/>
+      <c r="CT8" s="81"/>
+      <c r="CU8" s="82"/>
+      <c r="CV8" s="82"/>
+      <c r="CW8" s="83"/>
+      <c r="CX8" s="81"/>
+      <c r="CY8" s="82"/>
+      <c r="CZ8" s="82"/>
+      <c r="DA8" s="83"/>
+      <c r="DB8" s="81"/>
+      <c r="DC8" s="83"/>
+      <c r="DD8" s="81"/>
+      <c r="DE8" s="82"/>
+      <c r="DF8" s="82"/>
+      <c r="DG8" s="83"/>
+      <c r="DH8" s="57" t="s">
         <v>184</v>
       </c>
-      <c r="DI8" s="114"/>
+      <c r="DI8" s="58"/>
       <c r="DJ8" s="18"/>
       <c r="DK8" s="19"/>
-      <c r="DL8" s="113" t="s">
+      <c r="DL8" s="57" t="s">
         <v>184</v>
       </c>
-      <c r="DM8" s="114"/>
+      <c r="DM8" s="58"/>
       <c r="DN8" s="18"/>
       <c r="DO8" s="19"/>
-      <c r="DP8" s="113" t="s">
+      <c r="DP8" s="57" t="s">
         <v>184</v>
       </c>
-      <c r="DQ8" s="114"/>
+      <c r="DQ8" s="58"/>
       <c r="DR8" s="18"/>
       <c r="DS8" s="19"/>
-      <c r="DT8" s="113" t="s">
+      <c r="DT8" s="57" t="s">
         <v>184</v>
       </c>
-      <c r="DU8" s="114"/>
+      <c r="DU8" s="58"/>
       <c r="DV8" s="18"/>
       <c r="DW8" s="19"/>
-      <c r="DX8" s="111" t="s">
+      <c r="DX8" s="79" t="s">
         <v>184</v>
       </c>
       <c r="DY8" s="7"/>
-      <c r="DZ8" s="111" t="s">
+      <c r="DZ8" s="79" t="s">
         <v>184</v>
       </c>
       <c r="EA8" s="1"/>
@@ -3892,7 +3954,7 @@
       <c r="EG8" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="EH8" s="57" t="s">
+      <c r="EH8" s="69" t="s">
         <v>62</v>
       </c>
       <c r="EI8" s="7" t="s">
@@ -3912,7 +3974,7 @@
       </c>
       <c r="EN8" s="2"/>
       <c r="EO8" s="3"/>
-      <c r="EP8" s="63" t="s">
+      <c r="EP8" s="71" t="s">
         <v>115</v>
       </c>
       <c r="EQ8" s="28" t="s">
@@ -3926,9 +3988,9 @@
       </c>
     </row>
     <row r="9" spans="1:149" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="98"/>
-      <c r="B9" s="83"/>
-      <c r="C9" s="83"/>
+      <c r="A9" s="97"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="100"/>
       <c r="D9" s="62"/>
       <c r="E9" s="4" t="s">
         <v>48</v>
@@ -3953,11 +4015,11 @@
       </c>
       <c r="R9" s="5"/>
       <c r="S9" s="6"/>
-      <c r="T9" s="94"/>
+      <c r="T9" s="76"/>
       <c r="U9" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="V9" s="118"/>
+      <c r="V9" s="78"/>
       <c r="W9" s="37" t="s">
         <v>57</v>
       </c>
@@ -3977,37 +4039,37 @@
       <c r="AG9" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="AH9" s="75"/>
-      <c r="AI9" s="82"/>
-      <c r="AJ9" s="82"/>
-      <c r="AK9" s="81"/>
-      <c r="AL9" s="75"/>
-      <c r="AM9" s="82"/>
-      <c r="AN9" s="82"/>
-      <c r="AO9" s="81"/>
-      <c r="AP9" s="75"/>
-      <c r="AQ9" s="82"/>
-      <c r="AR9" s="82"/>
-      <c r="AS9" s="81"/>
-      <c r="AT9" s="75"/>
-      <c r="AU9" s="82"/>
-      <c r="AV9" s="82"/>
-      <c r="AW9" s="81"/>
-      <c r="AX9" s="75"/>
-      <c r="AY9" s="82"/>
-      <c r="AZ9" s="82"/>
-      <c r="BA9" s="81"/>
-      <c r="BB9" s="75"/>
-      <c r="BC9" s="82"/>
-      <c r="BD9" s="82"/>
-      <c r="BE9" s="81"/>
-      <c r="BF9" s="92"/>
+      <c r="AH9" s="66"/>
+      <c r="AI9" s="67"/>
+      <c r="AJ9" s="67"/>
+      <c r="AK9" s="68"/>
+      <c r="AL9" s="66"/>
+      <c r="AM9" s="67"/>
+      <c r="AN9" s="67"/>
+      <c r="AO9" s="68"/>
+      <c r="AP9" s="66"/>
+      <c r="AQ9" s="67"/>
+      <c r="AR9" s="67"/>
+      <c r="AS9" s="68"/>
+      <c r="AT9" s="66"/>
+      <c r="AU9" s="67"/>
+      <c r="AV9" s="67"/>
+      <c r="AW9" s="68"/>
+      <c r="AX9" s="66"/>
+      <c r="AY9" s="67"/>
+      <c r="AZ9" s="67"/>
+      <c r="BA9" s="68"/>
+      <c r="BB9" s="66"/>
+      <c r="BC9" s="67"/>
+      <c r="BD9" s="67"/>
+      <c r="BE9" s="68"/>
+      <c r="BF9" s="74"/>
       <c r="BG9" s="52" t="s">
         <v>141</v>
       </c>
       <c r="BH9" s="35"/>
       <c r="BI9" s="36"/>
-      <c r="BJ9" s="64"/>
+      <c r="BJ9" s="72"/>
       <c r="BK9" s="30" t="s">
         <v>179</v>
       </c>
@@ -4021,91 +4083,91 @@
       <c r="BQ9" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="BR9" s="64"/>
+      <c r="BR9" s="72"/>
       <c r="BS9" s="49" t="s">
         <v>78</v>
       </c>
       <c r="BT9" s="21"/>
       <c r="BU9" s="22"/>
-      <c r="BV9" s="64"/>
+      <c r="BV9" s="72"/>
       <c r="BW9" s="49" t="s">
         <v>80</v>
       </c>
       <c r="BX9" s="21"/>
       <c r="BY9" s="22"/>
-      <c r="BZ9" s="64"/>
+      <c r="BZ9" s="72"/>
       <c r="CA9" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="CB9" s="64"/>
+      <c r="CB9" s="72"/>
       <c r="CC9" s="49" t="s">
         <v>102</v>
       </c>
       <c r="CD9" s="21"/>
       <c r="CE9" s="22"/>
-      <c r="CF9" s="64"/>
+      <c r="CF9" s="72"/>
       <c r="CG9" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="CH9" s="60"/>
+      <c r="CH9" s="85"/>
       <c r="CI9" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="CJ9" s="64"/>
+      <c r="CJ9" s="72"/>
       <c r="CK9" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="CL9" s="75"/>
-      <c r="CM9" s="82"/>
-      <c r="CN9" s="82"/>
-      <c r="CO9" s="81"/>
-      <c r="CP9" s="75"/>
-      <c r="CQ9" s="82"/>
-      <c r="CR9" s="82"/>
-      <c r="CS9" s="81"/>
-      <c r="CT9" s="75"/>
-      <c r="CU9" s="82"/>
-      <c r="CV9" s="82"/>
-      <c r="CW9" s="81"/>
-      <c r="CX9" s="75"/>
-      <c r="CY9" s="82"/>
-      <c r="CZ9" s="82"/>
-      <c r="DA9" s="81"/>
-      <c r="DB9" s="75"/>
-      <c r="DC9" s="81"/>
-      <c r="DD9" s="75"/>
-      <c r="DE9" s="82"/>
-      <c r="DF9" s="82"/>
-      <c r="DG9" s="81"/>
-      <c r="DH9" s="115"/>
-      <c r="DI9" s="116"/>
+      <c r="CL9" s="66"/>
+      <c r="CM9" s="67"/>
+      <c r="CN9" s="67"/>
+      <c r="CO9" s="68"/>
+      <c r="CP9" s="66"/>
+      <c r="CQ9" s="67"/>
+      <c r="CR9" s="67"/>
+      <c r="CS9" s="68"/>
+      <c r="CT9" s="66"/>
+      <c r="CU9" s="67"/>
+      <c r="CV9" s="67"/>
+      <c r="CW9" s="68"/>
+      <c r="CX9" s="66"/>
+      <c r="CY9" s="67"/>
+      <c r="CZ9" s="67"/>
+      <c r="DA9" s="68"/>
+      <c r="DB9" s="66"/>
+      <c r="DC9" s="68"/>
+      <c r="DD9" s="66"/>
+      <c r="DE9" s="67"/>
+      <c r="DF9" s="67"/>
+      <c r="DG9" s="68"/>
+      <c r="DH9" s="59"/>
+      <c r="DI9" s="60"/>
       <c r="DJ9" s="21"/>
       <c r="DK9" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="DL9" s="115"/>
-      <c r="DM9" s="116"/>
+      <c r="DL9" s="59"/>
+      <c r="DM9" s="60"/>
       <c r="DN9" s="21"/>
       <c r="DO9" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="DP9" s="115"/>
-      <c r="DQ9" s="116"/>
+      <c r="DP9" s="59"/>
+      <c r="DQ9" s="60"/>
       <c r="DR9" s="21"/>
       <c r="DS9" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="DT9" s="115"/>
-      <c r="DU9" s="116"/>
+      <c r="DT9" s="59"/>
+      <c r="DU9" s="60"/>
       <c r="DV9" s="21"/>
       <c r="DW9" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="DX9" s="112"/>
+      <c r="DX9" s="80"/>
       <c r="DY9" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="DZ9" s="112"/>
+      <c r="DZ9" s="80"/>
       <c r="EA9" s="4" t="s">
         <v>157</v>
       </c>
@@ -4117,7 +4179,7 @@
       <c r="EG9" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="EH9" s="58"/>
+      <c r="EH9" s="70"/>
       <c r="EI9" s="8" t="s">
         <v>158</v>
       </c>
@@ -4131,7 +4193,7 @@
       </c>
       <c r="EN9" s="5"/>
       <c r="EO9" s="6"/>
-      <c r="EP9" s="64"/>
+      <c r="EP9" s="72"/>
       <c r="EQ9" s="30" t="s">
         <v>179</v>
       </c>
@@ -4141,11 +4203,11 @@
       </c>
     </row>
     <row r="10" spans="1:149" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="98"/>
-      <c r="B10" s="77">
+      <c r="A10" s="97"/>
+      <c r="B10" s="99">
         <v>4</v>
       </c>
-      <c r="C10" s="77" t="s">
+      <c r="C10" s="99" t="s">
         <v>135</v>
       </c>
       <c r="D10" s="61" t="s">
@@ -4154,13 +4216,13 @@
       <c r="E10" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F10" s="57" t="s">
+      <c r="F10" s="69" t="s">
         <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="H10" s="63" t="s">
+      <c r="H10" s="71" t="s">
         <v>46</v>
       </c>
       <c r="I10" s="17" t="s">
@@ -4174,7 +4236,7 @@
       <c r="M10" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="N10" s="57" t="s">
+      <c r="N10" s="69" t="s">
         <v>62</v>
       </c>
       <c r="O10" s="7" t="s">
@@ -4188,7 +4250,7 @@
       </c>
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
-      <c r="T10" s="93" t="s">
+      <c r="T10" s="75" t="s">
         <v>46</v>
       </c>
       <c r="U10" s="38" t="s">
@@ -4202,7 +4264,7 @@
       <c r="Y10" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="Z10" s="57" t="s">
+      <c r="Z10" s="69" t="s">
         <v>62</v>
       </c>
       <c r="AA10" s="7" t="s">
@@ -4222,30 +4284,30 @@
       <c r="AG10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="AH10" s="67"/>
-      <c r="AI10" s="73"/>
-      <c r="AJ10" s="73"/>
-      <c r="AK10" s="71"/>
-      <c r="AL10" s="67"/>
-      <c r="AM10" s="73"/>
-      <c r="AN10" s="73"/>
-      <c r="AO10" s="71"/>
-      <c r="AP10" s="67"/>
-      <c r="AQ10" s="73"/>
-      <c r="AR10" s="73"/>
-      <c r="AS10" s="71"/>
-      <c r="AT10" s="67"/>
-      <c r="AU10" s="73"/>
-      <c r="AV10" s="73"/>
-      <c r="AW10" s="71"/>
+      <c r="AH10" s="81"/>
+      <c r="AI10" s="82"/>
+      <c r="AJ10" s="82"/>
+      <c r="AK10" s="83"/>
+      <c r="AL10" s="81"/>
+      <c r="AM10" s="82"/>
+      <c r="AN10" s="82"/>
+      <c r="AO10" s="83"/>
+      <c r="AP10" s="81"/>
+      <c r="AQ10" s="82"/>
+      <c r="AR10" s="82"/>
+      <c r="AS10" s="83"/>
+      <c r="AT10" s="81"/>
+      <c r="AU10" s="82"/>
+      <c r="AV10" s="82"/>
+      <c r="AW10" s="83"/>
       <c r="AX10" s="61"/>
       <c r="AY10" s="23"/>
       <c r="AZ10" s="2"/>
       <c r="BA10" s="3"/>
-      <c r="BB10" s="67"/>
-      <c r="BC10" s="73"/>
-      <c r="BD10" s="73"/>
-      <c r="BE10" s="71"/>
+      <c r="BB10" s="81"/>
+      <c r="BC10" s="82"/>
+      <c r="BD10" s="82"/>
+      <c r="BE10" s="83"/>
       <c r="BF10" s="61" t="s">
         <v>73</v>
       </c>
@@ -4254,7 +4316,7 @@
       </c>
       <c r="BH10" s="2"/>
       <c r="BI10" s="3"/>
-      <c r="BJ10" s="63" t="s">
+      <c r="BJ10" s="71" t="s">
         <v>99</v>
       </c>
       <c r="BK10" s="28" t="s">
@@ -4274,7 +4336,7 @@
       <c r="BQ10" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="BR10" s="63" t="s">
+      <c r="BR10" s="71" t="s">
         <v>83</v>
       </c>
       <c r="BS10" s="48" t="s">
@@ -4290,7 +4352,7 @@
       </c>
       <c r="BX10" s="2"/>
       <c r="BY10" s="3"/>
-      <c r="BZ10" s="63" t="s">
+      <c r="BZ10" s="71" t="s">
         <v>119</v>
       </c>
       <c r="CA10" s="28" t="s">
@@ -4312,63 +4374,63 @@
       </c>
       <c r="CH10" s="2"/>
       <c r="CI10" s="3"/>
-      <c r="CJ10" s="63" t="s">
+      <c r="CJ10" s="71" t="s">
         <v>115</v>
       </c>
       <c r="CK10" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="CL10" s="67"/>
-      <c r="CM10" s="73"/>
-      <c r="CN10" s="73"/>
-      <c r="CO10" s="71"/>
-      <c r="CP10" s="67"/>
-      <c r="CQ10" s="73"/>
-      <c r="CR10" s="73"/>
-      <c r="CS10" s="71"/>
-      <c r="CT10" s="67"/>
-      <c r="CU10" s="73"/>
-      <c r="CV10" s="73"/>
-      <c r="CW10" s="71"/>
-      <c r="CX10" s="67"/>
-      <c r="CY10" s="73"/>
-      <c r="CZ10" s="73"/>
-      <c r="DA10" s="71"/>
-      <c r="DB10" s="67"/>
-      <c r="DC10" s="71"/>
+      <c r="CL10" s="81"/>
+      <c r="CM10" s="82"/>
+      <c r="CN10" s="82"/>
+      <c r="CO10" s="83"/>
+      <c r="CP10" s="81"/>
+      <c r="CQ10" s="82"/>
+      <c r="CR10" s="82"/>
+      <c r="CS10" s="83"/>
+      <c r="CT10" s="81"/>
+      <c r="CU10" s="82"/>
+      <c r="CV10" s="82"/>
+      <c r="CW10" s="83"/>
+      <c r="CX10" s="81"/>
+      <c r="CY10" s="82"/>
+      <c r="CZ10" s="82"/>
+      <c r="DA10" s="83"/>
+      <c r="DB10" s="81"/>
+      <c r="DC10" s="83"/>
       <c r="DD10" s="61"/>
       <c r="DE10" s="23"/>
       <c r="DF10" s="2"/>
       <c r="DG10" s="3"/>
-      <c r="DH10" s="113" t="s">
+      <c r="DH10" s="57" t="s">
         <v>184</v>
       </c>
-      <c r="DI10" s="114"/>
+      <c r="DI10" s="58"/>
       <c r="DJ10" s="18"/>
       <c r="DK10" s="19"/>
-      <c r="DL10" s="113" t="s">
+      <c r="DL10" s="57" t="s">
         <v>184</v>
       </c>
-      <c r="DM10" s="114"/>
+      <c r="DM10" s="58"/>
       <c r="DN10" s="18"/>
       <c r="DO10" s="19"/>
-      <c r="DP10" s="113" t="s">
+      <c r="DP10" s="57" t="s">
         <v>184</v>
       </c>
-      <c r="DQ10" s="114"/>
+      <c r="DQ10" s="58"/>
       <c r="DR10" s="18"/>
       <c r="DS10" s="19"/>
-      <c r="DT10" s="113" t="s">
+      <c r="DT10" s="57" t="s">
         <v>184</v>
       </c>
-      <c r="DU10" s="114"/>
+      <c r="DU10" s="58"/>
       <c r="DV10" s="18"/>
       <c r="DW10" s="19"/>
-      <c r="DX10" s="111" t="s">
+      <c r="DX10" s="79" t="s">
         <v>184</v>
       </c>
       <c r="DY10" s="7"/>
-      <c r="DZ10" s="111" t="s">
+      <c r="DZ10" s="79" t="s">
         <v>184</v>
       </c>
       <c r="EA10" s="25"/>
@@ -4412,18 +4474,18 @@
       </c>
     </row>
     <row r="11" spans="1:149" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="98"/>
-      <c r="B11" s="83"/>
-      <c r="C11" s="83"/>
+      <c r="A11" s="97"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="100"/>
       <c r="D11" s="62"/>
       <c r="E11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="58"/>
+      <c r="F11" s="70"/>
       <c r="G11" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="64"/>
+      <c r="H11" s="72"/>
       <c r="I11" s="20" t="s">
         <v>51</v>
       </c>
@@ -4433,7 +4495,7 @@
       <c r="M11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="N11" s="58"/>
+      <c r="N11" s="70"/>
       <c r="O11" s="37" t="s">
         <v>54</v>
       </c>
@@ -4443,7 +4505,7 @@
       </c>
       <c r="R11" s="5"/>
       <c r="S11" s="6"/>
-      <c r="T11" s="94"/>
+      <c r="T11" s="76"/>
       <c r="U11" s="40" t="s">
         <v>57</v>
       </c>
@@ -4453,7 +4515,7 @@
       <c r="Y11" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="Z11" s="58"/>
+      <c r="Z11" s="70"/>
       <c r="AA11" s="37" t="s">
         <v>59</v>
       </c>
@@ -4467,37 +4529,37 @@
       <c r="AG11" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="AH11" s="75"/>
-      <c r="AI11" s="82"/>
-      <c r="AJ11" s="82"/>
-      <c r="AK11" s="81"/>
-      <c r="AL11" s="75"/>
-      <c r="AM11" s="82"/>
-      <c r="AN11" s="82"/>
-      <c r="AO11" s="81"/>
-      <c r="AP11" s="75"/>
-      <c r="AQ11" s="82"/>
-      <c r="AR11" s="82"/>
-      <c r="AS11" s="81"/>
-      <c r="AT11" s="75"/>
-      <c r="AU11" s="82"/>
-      <c r="AV11" s="82"/>
-      <c r="AW11" s="81"/>
+      <c r="AH11" s="66"/>
+      <c r="AI11" s="67"/>
+      <c r="AJ11" s="67"/>
+      <c r="AK11" s="68"/>
+      <c r="AL11" s="66"/>
+      <c r="AM11" s="67"/>
+      <c r="AN11" s="67"/>
+      <c r="AO11" s="68"/>
+      <c r="AP11" s="66"/>
+      <c r="AQ11" s="67"/>
+      <c r="AR11" s="67"/>
+      <c r="AS11" s="68"/>
+      <c r="AT11" s="66"/>
+      <c r="AU11" s="67"/>
+      <c r="AV11" s="67"/>
+      <c r="AW11" s="68"/>
       <c r="AX11" s="62"/>
       <c r="AY11" s="24"/>
       <c r="AZ11" s="5"/>
       <c r="BA11" s="6"/>
-      <c r="BB11" s="75"/>
-      <c r="BC11" s="82"/>
-      <c r="BD11" s="82"/>
-      <c r="BE11" s="81"/>
+      <c r="BB11" s="66"/>
+      <c r="BC11" s="67"/>
+      <c r="BD11" s="67"/>
+      <c r="BE11" s="68"/>
       <c r="BF11" s="62"/>
       <c r="BG11" s="4" t="s">
         <v>141</v>
       </c>
       <c r="BH11" s="5"/>
       <c r="BI11" s="6"/>
-      <c r="BJ11" s="64"/>
+      <c r="BJ11" s="72"/>
       <c r="BK11" s="30" t="s">
         <v>98</v>
       </c>
@@ -4511,7 +4573,7 @@
       <c r="BQ11" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="BR11" s="64"/>
+      <c r="BR11" s="72"/>
       <c r="BS11" s="49" t="s">
         <v>78</v>
       </c>
@@ -4523,7 +4585,7 @@
       </c>
       <c r="BX11" s="5"/>
       <c r="BY11" s="6"/>
-      <c r="BZ11" s="64"/>
+      <c r="BZ11" s="72"/>
       <c r="CA11" s="30" t="s">
         <v>82</v>
       </c>
@@ -4539,61 +4601,61 @@
       </c>
       <c r="CH11" s="5"/>
       <c r="CI11" s="6"/>
-      <c r="CJ11" s="64"/>
+      <c r="CJ11" s="72"/>
       <c r="CK11" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="CL11" s="75"/>
-      <c r="CM11" s="82"/>
-      <c r="CN11" s="82"/>
-      <c r="CO11" s="81"/>
-      <c r="CP11" s="75"/>
-      <c r="CQ11" s="82"/>
-      <c r="CR11" s="82"/>
-      <c r="CS11" s="81"/>
-      <c r="CT11" s="75"/>
-      <c r="CU11" s="82"/>
-      <c r="CV11" s="82"/>
-      <c r="CW11" s="81"/>
-      <c r="CX11" s="75"/>
-      <c r="CY11" s="82"/>
-      <c r="CZ11" s="82"/>
-      <c r="DA11" s="81"/>
-      <c r="DB11" s="75"/>
-      <c r="DC11" s="81"/>
+      <c r="CL11" s="66"/>
+      <c r="CM11" s="67"/>
+      <c r="CN11" s="67"/>
+      <c r="CO11" s="68"/>
+      <c r="CP11" s="66"/>
+      <c r="CQ11" s="67"/>
+      <c r="CR11" s="67"/>
+      <c r="CS11" s="68"/>
+      <c r="CT11" s="66"/>
+      <c r="CU11" s="67"/>
+      <c r="CV11" s="67"/>
+      <c r="CW11" s="68"/>
+      <c r="CX11" s="66"/>
+      <c r="CY11" s="67"/>
+      <c r="CZ11" s="67"/>
+      <c r="DA11" s="68"/>
+      <c r="DB11" s="66"/>
+      <c r="DC11" s="68"/>
       <c r="DD11" s="62"/>
       <c r="DE11" s="24"/>
       <c r="DF11" s="5"/>
       <c r="DG11" s="6"/>
-      <c r="DH11" s="115"/>
-      <c r="DI11" s="116"/>
+      <c r="DH11" s="59"/>
+      <c r="DI11" s="60"/>
       <c r="DJ11" s="21"/>
       <c r="DK11" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="DL11" s="115"/>
-      <c r="DM11" s="116"/>
+      <c r="DL11" s="59"/>
+      <c r="DM11" s="60"/>
       <c r="DN11" s="21"/>
       <c r="DO11" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="DP11" s="115"/>
-      <c r="DQ11" s="116"/>
+      <c r="DP11" s="59"/>
+      <c r="DQ11" s="60"/>
       <c r="DR11" s="21"/>
       <c r="DS11" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="DT11" s="115"/>
-      <c r="DU11" s="116"/>
+      <c r="DT11" s="59"/>
+      <c r="DU11" s="60"/>
       <c r="DV11" s="21"/>
       <c r="DW11" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="DX11" s="112"/>
+      <c r="DX11" s="80"/>
       <c r="DY11" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="DZ11" s="112"/>
+      <c r="DZ11" s="80"/>
       <c r="EA11" s="26" t="s">
         <v>157</v>
       </c>
@@ -4627,11 +4689,11 @@
       </c>
     </row>
     <row r="12" spans="1:149" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="98"/>
-      <c r="B12" s="77">
+      <c r="A12" s="97"/>
+      <c r="B12" s="99">
         <v>5</v>
       </c>
-      <c r="C12" s="77" t="s">
+      <c r="C12" s="99" t="s">
         <v>149</v>
       </c>
       <c r="D12" s="61" t="s">
@@ -4640,7 +4702,7 @@
       <c r="E12" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="57" t="s">
+      <c r="F12" s="69" t="s">
         <v>62</v>
       </c>
       <c r="G12" s="7" t="s">
@@ -4676,7 +4738,7 @@
       <c r="U12" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="V12" s="57" t="s">
+      <c r="V12" s="69" t="s">
         <v>62</v>
       </c>
       <c r="W12" s="7" t="s">
@@ -4704,31 +4766,31 @@
       <c r="AG12" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="AH12" s="67"/>
-      <c r="AI12" s="73"/>
-      <c r="AJ12" s="73"/>
-      <c r="AK12" s="71"/>
-      <c r="AL12" s="67"/>
-      <c r="AM12" s="73"/>
-      <c r="AN12" s="73"/>
-      <c r="AO12" s="71"/>
-      <c r="AP12" s="67"/>
-      <c r="AQ12" s="73"/>
-      <c r="AR12" s="73"/>
-      <c r="AS12" s="71"/>
-      <c r="AT12" s="63"/>
+      <c r="AH12" s="81"/>
+      <c r="AI12" s="82"/>
+      <c r="AJ12" s="82"/>
+      <c r="AK12" s="83"/>
+      <c r="AL12" s="81"/>
+      <c r="AM12" s="82"/>
+      <c r="AN12" s="82"/>
+      <c r="AO12" s="83"/>
+      <c r="AP12" s="81"/>
+      <c r="AQ12" s="82"/>
+      <c r="AR12" s="82"/>
+      <c r="AS12" s="83"/>
+      <c r="AT12" s="71"/>
       <c r="AU12" s="17"/>
       <c r="AV12" s="18"/>
       <c r="AW12" s="19"/>
-      <c r="AX12" s="67"/>
-      <c r="AY12" s="73"/>
-      <c r="AZ12" s="73"/>
-      <c r="BA12" s="71"/>
-      <c r="BB12" s="67"/>
-      <c r="BC12" s="73"/>
-      <c r="BD12" s="73"/>
-      <c r="BE12" s="71"/>
-      <c r="BF12" s="63" t="s">
+      <c r="AX12" s="81"/>
+      <c r="AY12" s="82"/>
+      <c r="AZ12" s="82"/>
+      <c r="BA12" s="83"/>
+      <c r="BB12" s="81"/>
+      <c r="BC12" s="82"/>
+      <c r="BD12" s="82"/>
+      <c r="BE12" s="83"/>
+      <c r="BF12" s="71" t="s">
         <v>120</v>
       </c>
       <c r="BG12" s="27" t="s">
@@ -4750,19 +4812,19 @@
       </c>
       <c r="BN12" s="2"/>
       <c r="BO12" s="3"/>
-      <c r="BP12" s="63" t="s">
+      <c r="BP12" s="71" t="s">
         <v>99</v>
       </c>
       <c r="BQ12" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="BR12" s="63" t="s">
+      <c r="BR12" s="71" t="s">
         <v>60</v>
       </c>
       <c r="BS12" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="BT12" s="59" t="s">
+      <c r="BT12" s="84" t="s">
         <v>62</v>
       </c>
       <c r="BU12" s="28" t="s">
@@ -4776,7 +4838,7 @@
       </c>
       <c r="BX12" s="2"/>
       <c r="BY12" s="3"/>
-      <c r="BZ12" s="63" t="s">
+      <c r="BZ12" s="71" t="s">
         <v>83</v>
       </c>
       <c r="CA12" s="28" t="s">
@@ -4798,63 +4860,63 @@
       </c>
       <c r="CH12" s="2"/>
       <c r="CI12" s="3"/>
-      <c r="CJ12" s="63" t="s">
+      <c r="CJ12" s="71" t="s">
         <v>115</v>
       </c>
       <c r="CK12" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="CL12" s="67"/>
-      <c r="CM12" s="73"/>
-      <c r="CN12" s="73"/>
-      <c r="CO12" s="71"/>
-      <c r="CP12" s="67"/>
-      <c r="CQ12" s="73"/>
-      <c r="CR12" s="73"/>
-      <c r="CS12" s="71"/>
-      <c r="CT12" s="67"/>
-      <c r="CU12" s="73"/>
-      <c r="CV12" s="73"/>
-      <c r="CW12" s="71"/>
-      <c r="CX12" s="67"/>
-      <c r="CY12" s="73"/>
-      <c r="CZ12" s="73"/>
-      <c r="DA12" s="71"/>
-      <c r="DB12" s="67"/>
-      <c r="DC12" s="71"/>
-      <c r="DD12" s="67"/>
-      <c r="DE12" s="73"/>
-      <c r="DF12" s="73"/>
-      <c r="DG12" s="71"/>
-      <c r="DH12" s="113" t="s">
+      <c r="CL12" s="81"/>
+      <c r="CM12" s="82"/>
+      <c r="CN12" s="82"/>
+      <c r="CO12" s="83"/>
+      <c r="CP12" s="81"/>
+      <c r="CQ12" s="82"/>
+      <c r="CR12" s="82"/>
+      <c r="CS12" s="83"/>
+      <c r="CT12" s="81"/>
+      <c r="CU12" s="82"/>
+      <c r="CV12" s="82"/>
+      <c r="CW12" s="83"/>
+      <c r="CX12" s="81"/>
+      <c r="CY12" s="82"/>
+      <c r="CZ12" s="82"/>
+      <c r="DA12" s="83"/>
+      <c r="DB12" s="81"/>
+      <c r="DC12" s="83"/>
+      <c r="DD12" s="81"/>
+      <c r="DE12" s="82"/>
+      <c r="DF12" s="82"/>
+      <c r="DG12" s="83"/>
+      <c r="DH12" s="57" t="s">
         <v>184</v>
       </c>
-      <c r="DI12" s="114"/>
+      <c r="DI12" s="58"/>
       <c r="DJ12" s="18"/>
       <c r="DK12" s="19"/>
-      <c r="DL12" s="113" t="s">
+      <c r="DL12" s="57" t="s">
         <v>184</v>
       </c>
-      <c r="DM12" s="114"/>
+      <c r="DM12" s="58"/>
       <c r="DN12" s="18"/>
       <c r="DO12" s="19"/>
-      <c r="DP12" s="113" t="s">
+      <c r="DP12" s="57" t="s">
         <v>184</v>
       </c>
-      <c r="DQ12" s="114"/>
+      <c r="DQ12" s="58"/>
       <c r="DR12" s="18"/>
       <c r="DS12" s="19"/>
-      <c r="DT12" s="113" t="s">
+      <c r="DT12" s="57" t="s">
         <v>184</v>
       </c>
-      <c r="DU12" s="114"/>
+      <c r="DU12" s="58"/>
       <c r="DV12" s="18"/>
       <c r="DW12" s="19"/>
-      <c r="DX12" s="111" t="s">
+      <c r="DX12" s="79" t="s">
         <v>184</v>
       </c>
       <c r="DY12" s="7"/>
-      <c r="DZ12" s="111" t="s">
+      <c r="DZ12" s="79" t="s">
         <v>184</v>
       </c>
       <c r="EA12" s="25"/>
@@ -4898,14 +4960,14 @@
       </c>
     </row>
     <row r="13" spans="1:149" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="98"/>
-      <c r="B13" s="83"/>
-      <c r="C13" s="83"/>
+      <c r="A13" s="97"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="100"/>
       <c r="D13" s="62"/>
       <c r="E13" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="58"/>
+      <c r="F13" s="70"/>
       <c r="G13" s="37" t="s">
         <v>48</v>
       </c>
@@ -4931,7 +4993,7 @@
       <c r="U13" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="V13" s="58"/>
+      <c r="V13" s="70"/>
       <c r="W13" s="8" t="s">
         <v>57</v>
       </c>
@@ -4951,31 +5013,31 @@
       <c r="AG13" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="AH13" s="75"/>
-      <c r="AI13" s="82"/>
-      <c r="AJ13" s="82"/>
-      <c r="AK13" s="81"/>
-      <c r="AL13" s="75"/>
-      <c r="AM13" s="82"/>
-      <c r="AN13" s="82"/>
-      <c r="AO13" s="81"/>
-      <c r="AP13" s="75"/>
-      <c r="AQ13" s="82"/>
-      <c r="AR13" s="82"/>
-      <c r="AS13" s="81"/>
-      <c r="AT13" s="64"/>
+      <c r="AH13" s="66"/>
+      <c r="AI13" s="67"/>
+      <c r="AJ13" s="67"/>
+      <c r="AK13" s="68"/>
+      <c r="AL13" s="66"/>
+      <c r="AM13" s="67"/>
+      <c r="AN13" s="67"/>
+      <c r="AO13" s="68"/>
+      <c r="AP13" s="66"/>
+      <c r="AQ13" s="67"/>
+      <c r="AR13" s="67"/>
+      <c r="AS13" s="68"/>
+      <c r="AT13" s="72"/>
       <c r="AU13" s="20"/>
       <c r="AV13" s="21"/>
       <c r="AW13" s="22"/>
-      <c r="AX13" s="75"/>
-      <c r="AY13" s="82"/>
-      <c r="AZ13" s="82"/>
-      <c r="BA13" s="81"/>
-      <c r="BB13" s="75"/>
-      <c r="BC13" s="82"/>
-      <c r="BD13" s="82"/>
-      <c r="BE13" s="81"/>
-      <c r="BF13" s="64"/>
+      <c r="AX13" s="66"/>
+      <c r="AY13" s="67"/>
+      <c r="AZ13" s="67"/>
+      <c r="BA13" s="68"/>
+      <c r="BB13" s="66"/>
+      <c r="BC13" s="67"/>
+      <c r="BD13" s="67"/>
+      <c r="BE13" s="68"/>
+      <c r="BF13" s="72"/>
       <c r="BG13" s="29" t="s">
         <v>122</v>
       </c>
@@ -4991,15 +5053,15 @@
       </c>
       <c r="BN13" s="5"/>
       <c r="BO13" s="6"/>
-      <c r="BP13" s="64"/>
+      <c r="BP13" s="72"/>
       <c r="BQ13" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="BR13" s="64"/>
+      <c r="BR13" s="72"/>
       <c r="BS13" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="BT13" s="60"/>
+      <c r="BT13" s="85"/>
       <c r="BU13" s="30" t="s">
         <v>78</v>
       </c>
@@ -5009,7 +5071,7 @@
       </c>
       <c r="BX13" s="5"/>
       <c r="BY13" s="6"/>
-      <c r="BZ13" s="64"/>
+      <c r="BZ13" s="72"/>
       <c r="CA13" s="30" t="s">
         <v>82</v>
       </c>
@@ -5025,61 +5087,61 @@
       </c>
       <c r="CH13" s="5"/>
       <c r="CI13" s="6"/>
-      <c r="CJ13" s="64"/>
+      <c r="CJ13" s="72"/>
       <c r="CK13" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="CL13" s="75"/>
-      <c r="CM13" s="82"/>
-      <c r="CN13" s="82"/>
-      <c r="CO13" s="81"/>
-      <c r="CP13" s="75"/>
-      <c r="CQ13" s="82"/>
-      <c r="CR13" s="82"/>
-      <c r="CS13" s="81"/>
-      <c r="CT13" s="75"/>
-      <c r="CU13" s="82"/>
-      <c r="CV13" s="82"/>
-      <c r="CW13" s="81"/>
-      <c r="CX13" s="75"/>
-      <c r="CY13" s="82"/>
-      <c r="CZ13" s="82"/>
-      <c r="DA13" s="81"/>
-      <c r="DB13" s="75"/>
-      <c r="DC13" s="81"/>
-      <c r="DD13" s="75"/>
-      <c r="DE13" s="82"/>
-      <c r="DF13" s="82"/>
-      <c r="DG13" s="81"/>
-      <c r="DH13" s="115"/>
-      <c r="DI13" s="116"/>
+      <c r="CL13" s="66"/>
+      <c r="CM13" s="67"/>
+      <c r="CN13" s="67"/>
+      <c r="CO13" s="68"/>
+      <c r="CP13" s="66"/>
+      <c r="CQ13" s="67"/>
+      <c r="CR13" s="67"/>
+      <c r="CS13" s="68"/>
+      <c r="CT13" s="66"/>
+      <c r="CU13" s="67"/>
+      <c r="CV13" s="67"/>
+      <c r="CW13" s="68"/>
+      <c r="CX13" s="66"/>
+      <c r="CY13" s="67"/>
+      <c r="CZ13" s="67"/>
+      <c r="DA13" s="68"/>
+      <c r="DB13" s="66"/>
+      <c r="DC13" s="68"/>
+      <c r="DD13" s="66"/>
+      <c r="DE13" s="67"/>
+      <c r="DF13" s="67"/>
+      <c r="DG13" s="68"/>
+      <c r="DH13" s="59"/>
+      <c r="DI13" s="60"/>
       <c r="DJ13" s="21"/>
       <c r="DK13" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="DL13" s="115"/>
-      <c r="DM13" s="116"/>
+      <c r="DL13" s="59"/>
+      <c r="DM13" s="60"/>
       <c r="DN13" s="21"/>
       <c r="DO13" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="DP13" s="115"/>
-      <c r="DQ13" s="116"/>
+      <c r="DP13" s="59"/>
+      <c r="DQ13" s="60"/>
       <c r="DR13" s="21"/>
       <c r="DS13" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="DT13" s="115"/>
-      <c r="DU13" s="116"/>
+      <c r="DT13" s="59"/>
+      <c r="DU13" s="60"/>
       <c r="DV13" s="21"/>
       <c r="DW13" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="DX13" s="112"/>
+      <c r="DX13" s="80"/>
       <c r="DY13" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="DZ13" s="112"/>
+      <c r="DZ13" s="80"/>
       <c r="EA13" s="26" t="s">
         <v>157</v>
       </c>
@@ -5113,11 +5175,11 @@
       </c>
     </row>
     <row r="14" spans="1:149" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="98"/>
-      <c r="B14" s="77">
+      <c r="A14" s="97"/>
+      <c r="B14" s="99">
         <v>6</v>
       </c>
-      <c r="C14" s="77" t="s">
+      <c r="C14" s="99" t="s">
         <v>151</v>
       </c>
       <c r="D14" s="61" t="s">
@@ -5128,7 +5190,7 @@
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="63" t="s">
+      <c r="H14" s="71" t="s">
         <v>99</v>
       </c>
       <c r="I14" s="17" t="s">
@@ -5136,10 +5198,10 @@
       </c>
       <c r="J14" s="18"/>
       <c r="K14" s="19"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="73"/>
-      <c r="N14" s="73"/>
-      <c r="O14" s="71"/>
+      <c r="L14" s="81"/>
+      <c r="M14" s="82"/>
+      <c r="N14" s="82"/>
+      <c r="O14" s="83"/>
       <c r="P14" s="61" t="s">
         <v>76</v>
       </c>
@@ -5164,61 +5226,61 @@
       </c>
       <c r="Z14" s="2"/>
       <c r="AA14" s="3"/>
-      <c r="AB14" s="67"/>
-      <c r="AC14" s="73"/>
-      <c r="AD14" s="73"/>
-      <c r="AE14" s="71"/>
+      <c r="AB14" s="81"/>
+      <c r="AC14" s="82"/>
+      <c r="AD14" s="82"/>
+      <c r="AE14" s="83"/>
       <c r="AF14" s="61" t="s">
         <v>152</v>
       </c>
       <c r="AG14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="AH14" s="67"/>
-      <c r="AI14" s="73"/>
-      <c r="AJ14" s="73"/>
-      <c r="AK14" s="71"/>
-      <c r="AL14" s="63"/>
+      <c r="AH14" s="81"/>
+      <c r="AI14" s="82"/>
+      <c r="AJ14" s="82"/>
+      <c r="AK14" s="83"/>
+      <c r="AL14" s="71"/>
       <c r="AM14" s="17"/>
-      <c r="AN14" s="59"/>
+      <c r="AN14" s="84"/>
       <c r="AO14" s="28"/>
-      <c r="AP14" s="67"/>
-      <c r="AQ14" s="73"/>
-      <c r="AR14" s="73"/>
-      <c r="AS14" s="71"/>
-      <c r="AT14" s="91" t="s">
+      <c r="AP14" s="81"/>
+      <c r="AQ14" s="82"/>
+      <c r="AR14" s="82"/>
+      <c r="AS14" s="83"/>
+      <c r="AT14" s="73" t="s">
         <v>60</v>
       </c>
       <c r="AU14" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="AV14" s="65" t="s">
+      <c r="AV14" s="116" t="s">
         <v>62</v>
       </c>
       <c r="AW14" s="51" t="s">
         <v>165</v>
       </c>
-      <c r="AX14" s="67"/>
-      <c r="AY14" s="73"/>
-      <c r="AZ14" s="73"/>
-      <c r="BA14" s="71"/>
-      <c r="BB14" s="67"/>
-      <c r="BC14" s="73"/>
-      <c r="BD14" s="73"/>
-      <c r="BE14" s="71"/>
+      <c r="AX14" s="81"/>
+      <c r="AY14" s="82"/>
+      <c r="AZ14" s="82"/>
+      <c r="BA14" s="83"/>
+      <c r="BB14" s="81"/>
+      <c r="BC14" s="82"/>
+      <c r="BD14" s="82"/>
+      <c r="BE14" s="83"/>
       <c r="BF14" s="61" t="s">
         <v>60</v>
       </c>
       <c r="BG14" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="BH14" s="59" t="s">
+      <c r="BH14" s="84" t="s">
         <v>62</v>
       </c>
       <c r="BI14" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="BJ14" s="63" t="s">
+      <c r="BJ14" s="71" t="s">
         <v>73</v>
       </c>
       <c r="BK14" s="28" t="s">
@@ -5230,13 +5292,13 @@
       <c r="BM14" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="BN14" s="57" t="s">
+      <c r="BN14" s="69" t="s">
         <v>62</v>
       </c>
       <c r="BO14" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="BP14" s="63" t="s">
+      <c r="BP14" s="71" t="s">
         <v>142</v>
       </c>
       <c r="BQ14" s="28" t="s">
@@ -5256,13 +5318,13 @@
       <c r="BW14" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="BX14" s="57" t="s">
+      <c r="BX14" s="69" t="s">
         <v>62</v>
       </c>
       <c r="BY14" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="BZ14" s="63" t="s">
+      <c r="BZ14" s="71" t="s">
         <v>115</v>
       </c>
       <c r="CA14" s="28" t="s">
@@ -5284,16 +5346,16 @@
       </c>
       <c r="CH14" s="2"/>
       <c r="CI14" s="3"/>
-      <c r="CJ14" s="63" t="s">
+      <c r="CJ14" s="71" t="s">
         <v>142</v>
       </c>
       <c r="CK14" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="CL14" s="67"/>
-      <c r="CM14" s="73"/>
-      <c r="CN14" s="73"/>
-      <c r="CO14" s="71"/>
+      <c r="CL14" s="81"/>
+      <c r="CM14" s="82"/>
+      <c r="CN14" s="82"/>
+      <c r="CO14" s="83"/>
       <c r="CP14" s="61" t="s">
         <v>83</v>
       </c>
@@ -5302,11 +5364,11 @@
       </c>
       <c r="CR14" s="2"/>
       <c r="CS14" s="3"/>
-      <c r="CT14" s="67"/>
-      <c r="CU14" s="73"/>
-      <c r="CV14" s="73"/>
-      <c r="CW14" s="71"/>
-      <c r="CX14" s="63" t="s">
+      <c r="CT14" s="81"/>
+      <c r="CU14" s="82"/>
+      <c r="CV14" s="82"/>
+      <c r="CW14" s="83"/>
+      <c r="CX14" s="71" t="s">
         <v>142</v>
       </c>
       <c r="CY14" s="27" t="s">
@@ -5324,35 +5386,35 @@
       </c>
       <c r="DF14" s="2"/>
       <c r="DG14" s="3"/>
-      <c r="DH14" s="113" t="s">
+      <c r="DH14" s="57" t="s">
         <v>184</v>
       </c>
-      <c r="DI14" s="114"/>
+      <c r="DI14" s="58"/>
       <c r="DJ14" s="18"/>
       <c r="DK14" s="19"/>
-      <c r="DL14" s="113" t="s">
+      <c r="DL14" s="57" t="s">
         <v>184</v>
       </c>
-      <c r="DM14" s="114"/>
+      <c r="DM14" s="58"/>
       <c r="DN14" s="18"/>
       <c r="DO14" s="19"/>
-      <c r="DP14" s="113" t="s">
+      <c r="DP14" s="57" t="s">
         <v>184</v>
       </c>
-      <c r="DQ14" s="114"/>
+      <c r="DQ14" s="58"/>
       <c r="DR14" s="18"/>
       <c r="DS14" s="19"/>
-      <c r="DT14" s="113" t="s">
+      <c r="DT14" s="57" t="s">
         <v>184</v>
       </c>
-      <c r="DU14" s="114"/>
+      <c r="DU14" s="58"/>
       <c r="DV14" s="18"/>
       <c r="DW14" s="19"/>
-      <c r="DX14" s="111" t="s">
+      <c r="DX14" s="79" t="s">
         <v>184</v>
       </c>
       <c r="DY14" s="7"/>
-      <c r="DZ14" s="111" t="s">
+      <c r="DZ14" s="79" t="s">
         <v>184</v>
       </c>
       <c r="EA14" s="25"/>
@@ -5396,25 +5458,25 @@
       </c>
     </row>
     <row r="15" spans="1:149" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="98"/>
-      <c r="B15" s="83"/>
-      <c r="C15" s="83"/>
+      <c r="A15" s="97"/>
+      <c r="B15" s="100"/>
+      <c r="C15" s="100"/>
       <c r="D15" s="62"/>
       <c r="E15" s="4" t="s">
         <v>48</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="64"/>
+      <c r="H15" s="72"/>
       <c r="I15" s="20" t="s">
         <v>51</v>
       </c>
       <c r="J15" s="21"/>
       <c r="K15" s="22"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="82"/>
-      <c r="N15" s="82"/>
-      <c r="O15" s="81"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="68"/>
       <c r="P15" s="62"/>
       <c r="Q15" s="4" t="s">
         <v>95</v>
@@ -5433,51 +5495,51 @@
       </c>
       <c r="Z15" s="5"/>
       <c r="AA15" s="6"/>
-      <c r="AB15" s="75"/>
-      <c r="AC15" s="82"/>
-      <c r="AD15" s="82"/>
-      <c r="AE15" s="81"/>
+      <c r="AB15" s="66"/>
+      <c r="AC15" s="67"/>
+      <c r="AD15" s="67"/>
+      <c r="AE15" s="68"/>
       <c r="AF15" s="62"/>
       <c r="AG15" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="AH15" s="75"/>
-      <c r="AI15" s="82"/>
-      <c r="AJ15" s="82"/>
-      <c r="AK15" s="81"/>
-      <c r="AL15" s="64"/>
+      <c r="AH15" s="66"/>
+      <c r="AI15" s="67"/>
+      <c r="AJ15" s="67"/>
+      <c r="AK15" s="68"/>
+      <c r="AL15" s="72"/>
       <c r="AM15" s="20"/>
-      <c r="AN15" s="60"/>
+      <c r="AN15" s="85"/>
       <c r="AO15" s="30"/>
-      <c r="AP15" s="75"/>
-      <c r="AQ15" s="82"/>
-      <c r="AR15" s="82"/>
-      <c r="AS15" s="81"/>
-      <c r="AT15" s="92"/>
+      <c r="AP15" s="66"/>
+      <c r="AQ15" s="67"/>
+      <c r="AR15" s="67"/>
+      <c r="AS15" s="68"/>
+      <c r="AT15" s="74"/>
       <c r="AU15" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="AV15" s="66"/>
+      <c r="AV15" s="117"/>
       <c r="AW15" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="AX15" s="75"/>
-      <c r="AY15" s="82"/>
-      <c r="AZ15" s="82"/>
-      <c r="BA15" s="81"/>
-      <c r="BB15" s="75"/>
-      <c r="BC15" s="82"/>
-      <c r="BD15" s="82"/>
-      <c r="BE15" s="81"/>
+      <c r="AX15" s="66"/>
+      <c r="AY15" s="67"/>
+      <c r="AZ15" s="67"/>
+      <c r="BA15" s="68"/>
+      <c r="BB15" s="66"/>
+      <c r="BC15" s="67"/>
+      <c r="BD15" s="67"/>
+      <c r="BE15" s="68"/>
       <c r="BF15" s="62"/>
       <c r="BG15" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="BH15" s="60"/>
+      <c r="BH15" s="85"/>
       <c r="BI15" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="BJ15" s="64"/>
+      <c r="BJ15" s="72"/>
       <c r="BK15" s="30" t="s">
         <v>98</v>
       </c>
@@ -5485,11 +5547,11 @@
       <c r="BM15" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="BN15" s="58"/>
+      <c r="BN15" s="70"/>
       <c r="BO15" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="BP15" s="64"/>
+      <c r="BP15" s="72"/>
       <c r="BQ15" s="30" t="s">
         <v>179</v>
       </c>
@@ -5503,11 +5565,11 @@
       <c r="BW15" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="BX15" s="58"/>
+      <c r="BX15" s="70"/>
       <c r="BY15" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="BZ15" s="64"/>
+      <c r="BZ15" s="72"/>
       <c r="CA15" s="30" t="s">
         <v>179</v>
       </c>
@@ -5523,25 +5585,25 @@
       </c>
       <c r="CH15" s="5"/>
       <c r="CI15" s="6"/>
-      <c r="CJ15" s="64"/>
+      <c r="CJ15" s="72"/>
       <c r="CK15" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="CL15" s="75"/>
-      <c r="CM15" s="82"/>
-      <c r="CN15" s="82"/>
-      <c r="CO15" s="81"/>
+      <c r="CL15" s="66"/>
+      <c r="CM15" s="67"/>
+      <c r="CN15" s="67"/>
+      <c r="CO15" s="68"/>
       <c r="CP15" s="62"/>
       <c r="CQ15" s="4" t="s">
         <v>54</v>
       </c>
       <c r="CR15" s="5"/>
       <c r="CS15" s="6"/>
-      <c r="CT15" s="75"/>
-      <c r="CU15" s="82"/>
-      <c r="CV15" s="82"/>
-      <c r="CW15" s="81"/>
-      <c r="CX15" s="64"/>
+      <c r="CT15" s="66"/>
+      <c r="CU15" s="67"/>
+      <c r="CV15" s="67"/>
+      <c r="CW15" s="68"/>
+      <c r="CX15" s="72"/>
       <c r="CY15" s="29" t="s">
         <v>179</v>
       </c>
@@ -5555,35 +5617,35 @@
       </c>
       <c r="DF15" s="5"/>
       <c r="DG15" s="6"/>
-      <c r="DH15" s="115"/>
-      <c r="DI15" s="116"/>
+      <c r="DH15" s="59"/>
+      <c r="DI15" s="60"/>
       <c r="DJ15" s="21"/>
       <c r="DK15" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="DL15" s="115"/>
-      <c r="DM15" s="116"/>
+      <c r="DL15" s="59"/>
+      <c r="DM15" s="60"/>
       <c r="DN15" s="21"/>
       <c r="DO15" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="DP15" s="115"/>
-      <c r="DQ15" s="116"/>
+      <c r="DP15" s="59"/>
+      <c r="DQ15" s="60"/>
       <c r="DR15" s="21"/>
       <c r="DS15" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="DT15" s="115"/>
-      <c r="DU15" s="116"/>
+      <c r="DT15" s="59"/>
+      <c r="DU15" s="60"/>
       <c r="DV15" s="21"/>
       <c r="DW15" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="DX15" s="112"/>
+      <c r="DX15" s="80"/>
       <c r="DY15" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="DZ15" s="112"/>
+      <c r="DZ15" s="80"/>
       <c r="EA15" s="26" t="s">
         <v>157</v>
       </c>
@@ -5617,18 +5679,18 @@
       </c>
     </row>
     <row r="16" spans="1:149" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="98"/>
-      <c r="B16" s="77">
+      <c r="A16" s="97"/>
+      <c r="B16" s="99">
         <v>7</v>
       </c>
-      <c r="C16" s="77" t="s">
+      <c r="C16" s="99" t="s">
         <v>162</v>
       </c>
-      <c r="D16" s="79"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="91" t="s">
+      <c r="D16" s="101"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="73" t="s">
         <v>49</v>
       </c>
       <c r="I16" s="31" t="s">
@@ -5636,17 +5698,17 @@
       </c>
       <c r="J16" s="32"/>
       <c r="K16" s="33"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="71"/>
+      <c r="L16" s="81"/>
+      <c r="M16" s="82"/>
+      <c r="N16" s="82"/>
+      <c r="O16" s="83"/>
       <c r="P16" s="61" t="s">
         <v>60</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="R16" s="57" t="s">
+      <c r="R16" s="69" t="s">
         <v>62</v>
       </c>
       <c r="S16" s="7" t="s">
@@ -5656,16 +5718,16 @@
       <c r="U16" s="1"/>
       <c r="V16" s="2"/>
       <c r="W16" s="3"/>
-      <c r="X16" s="67"/>
-      <c r="Y16" s="73"/>
-      <c r="Z16" s="73"/>
-      <c r="AA16" s="71"/>
-      <c r="AB16" s="67"/>
-      <c r="AC16" s="73"/>
-      <c r="AD16" s="73"/>
-      <c r="AE16" s="71"/>
-      <c r="AF16" s="67"/>
-      <c r="AG16" s="71"/>
+      <c r="X16" s="81"/>
+      <c r="Y16" s="82"/>
+      <c r="Z16" s="82"/>
+      <c r="AA16" s="83"/>
+      <c r="AB16" s="81"/>
+      <c r="AC16" s="82"/>
+      <c r="AD16" s="82"/>
+      <c r="AE16" s="83"/>
+      <c r="AF16" s="81"/>
+      <c r="AG16" s="83"/>
       <c r="AH16" s="61" t="s">
         <v>46</v>
       </c>
@@ -5674,23 +5736,23 @@
       </c>
       <c r="AJ16" s="2"/>
       <c r="AK16" s="3"/>
-      <c r="AL16" s="63" t="s">
+      <c r="AL16" s="71" t="s">
         <v>60</v>
       </c>
       <c r="AM16" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="AN16" s="59" t="s">
+      <c r="AN16" s="84" t="s">
         <v>62</v>
       </c>
       <c r="AO16" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="AP16" s="63"/>
+      <c r="AP16" s="71"/>
       <c r="AQ16" s="17"/>
       <c r="AR16" s="18"/>
       <c r="AS16" s="19"/>
-      <c r="AT16" s="63" t="s">
+      <c r="AT16" s="71" t="s">
         <v>76</v>
       </c>
       <c r="AU16" s="27" t="s">
@@ -5704,7 +5766,7 @@
       <c r="AY16" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AZ16" s="57" t="s">
+      <c r="AZ16" s="69" t="s">
         <v>62</v>
       </c>
       <c r="BA16" s="7" t="s">
@@ -5718,31 +5780,31 @@
       </c>
       <c r="BD16" s="2"/>
       <c r="BE16" s="3"/>
-      <c r="BF16" s="63"/>
+      <c r="BF16" s="71"/>
       <c r="BG16" s="48"/>
       <c r="BH16" s="18"/>
       <c r="BI16" s="19"/>
-      <c r="BJ16" s="63" t="s">
+      <c r="BJ16" s="71" t="s">
         <v>68</v>
       </c>
       <c r="BK16" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="BL16" s="67"/>
-      <c r="BM16" s="73"/>
-      <c r="BN16" s="73"/>
-      <c r="BO16" s="71"/>
-      <c r="BP16" s="63"/>
+      <c r="BL16" s="81"/>
+      <c r="BM16" s="82"/>
+      <c r="BN16" s="82"/>
+      <c r="BO16" s="83"/>
+      <c r="BP16" s="71"/>
       <c r="BQ16" s="28"/>
-      <c r="BR16" s="63"/>
+      <c r="BR16" s="71"/>
       <c r="BS16" s="48"/>
-      <c r="BT16" s="57"/>
+      <c r="BT16" s="69"/>
       <c r="BU16" s="7"/>
-      <c r="BV16" s="67"/>
-      <c r="BW16" s="73"/>
-      <c r="BX16" s="73"/>
-      <c r="BY16" s="71"/>
-      <c r="BZ16" s="63" t="s">
+      <c r="BV16" s="81"/>
+      <c r="BW16" s="82"/>
+      <c r="BX16" s="82"/>
+      <c r="BY16" s="83"/>
+      <c r="BZ16" s="71" t="s">
         <v>115</v>
       </c>
       <c r="CA16" s="28" t="s">
@@ -5764,8 +5826,8 @@
       </c>
       <c r="CH16" s="2"/>
       <c r="CI16" s="3"/>
-      <c r="CJ16" s="67"/>
-      <c r="CK16" s="71"/>
+      <c r="CJ16" s="81"/>
+      <c r="CK16" s="83"/>
       <c r="CL16" s="61" t="s">
         <v>83</v>
       </c>
@@ -5804,7 +5866,7 @@
       <c r="DC16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="DD16" s="63" t="s">
+      <c r="DD16" s="71" t="s">
         <v>99</v>
       </c>
       <c r="DE16" s="27" t="s">
@@ -5814,23 +5876,23 @@
       <c r="DG16" s="19"/>
       <c r="DH16" s="61"/>
       <c r="DI16" s="1"/>
-      <c r="DJ16" s="57"/>
+      <c r="DJ16" s="69"/>
       <c r="DK16" s="7"/>
-      <c r="DL16" s="63"/>
+      <c r="DL16" s="71"/>
       <c r="DM16" s="27"/>
       <c r="DN16" s="18"/>
       <c r="DO16" s="19"/>
-      <c r="DP16" s="63"/>
+      <c r="DP16" s="71"/>
       <c r="DQ16" s="27"/>
       <c r="DR16" s="18"/>
       <c r="DS16" s="19"/>
-      <c r="DT16" s="63"/>
+      <c r="DT16" s="71"/>
       <c r="DU16" s="27"/>
       <c r="DV16" s="18"/>
       <c r="DW16" s="19"/>
-      <c r="DX16" s="63"/>
+      <c r="DX16" s="71"/>
       <c r="DY16" s="28"/>
-      <c r="DZ16" s="63"/>
+      <c r="DZ16" s="71"/>
       <c r="EA16" s="27"/>
       <c r="EB16" s="18"/>
       <c r="EC16" s="18"/>
@@ -5872,28 +5934,28 @@
       </c>
     </row>
     <row r="17" spans="1:149" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="98"/>
-      <c r="B17" s="83"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="92"/>
+      <c r="A17" s="97"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="74"/>
       <c r="I17" s="34" t="s">
         <v>141</v>
       </c>
       <c r="J17" s="35"/>
       <c r="K17" s="36"/>
-      <c r="L17" s="75"/>
-      <c r="M17" s="82"/>
-      <c r="N17" s="82"/>
-      <c r="O17" s="81"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="67"/>
+      <c r="O17" s="68"/>
       <c r="P17" s="62"/>
       <c r="Q17" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="R17" s="58"/>
+      <c r="R17" s="70"/>
       <c r="S17" s="37" t="s">
         <v>140</v>
       </c>
@@ -5901,35 +5963,35 @@
       <c r="U17" s="4"/>
       <c r="V17" s="5"/>
       <c r="W17" s="6"/>
-      <c r="X17" s="75"/>
-      <c r="Y17" s="82"/>
-      <c r="Z17" s="82"/>
-      <c r="AA17" s="81"/>
-      <c r="AB17" s="75"/>
-      <c r="AC17" s="82"/>
-      <c r="AD17" s="82"/>
-      <c r="AE17" s="81"/>
-      <c r="AF17" s="75"/>
-      <c r="AG17" s="81"/>
+      <c r="X17" s="66"/>
+      <c r="Y17" s="67"/>
+      <c r="Z17" s="67"/>
+      <c r="AA17" s="68"/>
+      <c r="AB17" s="66"/>
+      <c r="AC17" s="67"/>
+      <c r="AD17" s="67"/>
+      <c r="AE17" s="68"/>
+      <c r="AF17" s="66"/>
+      <c r="AG17" s="68"/>
       <c r="AH17" s="62"/>
       <c r="AI17" s="4" t="s">
         <v>78</v>
       </c>
       <c r="AJ17" s="5"/>
       <c r="AK17" s="6"/>
-      <c r="AL17" s="64"/>
+      <c r="AL17" s="72"/>
       <c r="AM17" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="AN17" s="60"/>
+      <c r="AN17" s="85"/>
       <c r="AO17" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="AP17" s="64"/>
+      <c r="AP17" s="72"/>
       <c r="AQ17" s="20"/>
       <c r="AR17" s="21"/>
       <c r="AS17" s="22"/>
-      <c r="AT17" s="64"/>
+      <c r="AT17" s="72"/>
       <c r="AU17" s="29" t="s">
         <v>82</v>
       </c>
@@ -5939,7 +6001,7 @@
       <c r="AY17" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AZ17" s="58"/>
+      <c r="AZ17" s="70"/>
       <c r="BA17" s="8" t="s">
         <v>64</v>
       </c>
@@ -5949,29 +6011,29 @@
       </c>
       <c r="BD17" s="5"/>
       <c r="BE17" s="6"/>
-      <c r="BF17" s="64"/>
+      <c r="BF17" s="72"/>
       <c r="BG17" s="49"/>
       <c r="BH17" s="21"/>
       <c r="BI17" s="22"/>
-      <c r="BJ17" s="64"/>
+      <c r="BJ17" s="72"/>
       <c r="BK17" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="BL17" s="75"/>
-      <c r="BM17" s="82"/>
-      <c r="BN17" s="82"/>
-      <c r="BO17" s="81"/>
-      <c r="BP17" s="64"/>
+      <c r="BL17" s="66"/>
+      <c r="BM17" s="67"/>
+      <c r="BN17" s="67"/>
+      <c r="BO17" s="68"/>
+      <c r="BP17" s="72"/>
       <c r="BQ17" s="30"/>
-      <c r="BR17" s="64"/>
+      <c r="BR17" s="72"/>
       <c r="BS17" s="49"/>
-      <c r="BT17" s="58"/>
+      <c r="BT17" s="70"/>
       <c r="BU17" s="8"/>
-      <c r="BV17" s="75"/>
-      <c r="BW17" s="82"/>
-      <c r="BX17" s="82"/>
-      <c r="BY17" s="81"/>
-      <c r="BZ17" s="64"/>
+      <c r="BV17" s="66"/>
+      <c r="BW17" s="67"/>
+      <c r="BX17" s="67"/>
+      <c r="BY17" s="68"/>
+      <c r="BZ17" s="72"/>
       <c r="CA17" s="30" t="s">
         <v>179</v>
       </c>
@@ -5987,8 +6049,8 @@
       </c>
       <c r="CH17" s="5"/>
       <c r="CI17" s="6"/>
-      <c r="CJ17" s="75"/>
-      <c r="CK17" s="81"/>
+      <c r="CJ17" s="66"/>
+      <c r="CK17" s="68"/>
       <c r="CL17" s="62"/>
       <c r="CM17" s="4" t="s">
         <v>89</v>
@@ -6017,7 +6079,7 @@
       <c r="DC17" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="DD17" s="64"/>
+      <c r="DD17" s="72"/>
       <c r="DE17" s="29" t="s">
         <v>97</v>
       </c>
@@ -6025,23 +6087,23 @@
       <c r="DG17" s="22"/>
       <c r="DH17" s="62"/>
       <c r="DI17" s="4"/>
-      <c r="DJ17" s="58"/>
+      <c r="DJ17" s="70"/>
       <c r="DK17" s="8"/>
-      <c r="DL17" s="64"/>
+      <c r="DL17" s="72"/>
       <c r="DM17" s="29"/>
       <c r="DN17" s="21"/>
       <c r="DO17" s="22"/>
-      <c r="DP17" s="64"/>
+      <c r="DP17" s="72"/>
       <c r="DQ17" s="29"/>
       <c r="DR17" s="21"/>
       <c r="DS17" s="22"/>
-      <c r="DT17" s="64"/>
+      <c r="DT17" s="72"/>
       <c r="DU17" s="29"/>
       <c r="DV17" s="21"/>
       <c r="DW17" s="22"/>
-      <c r="DX17" s="64"/>
+      <c r="DX17" s="72"/>
       <c r="DY17" s="30"/>
-      <c r="DZ17" s="64"/>
+      <c r="DZ17" s="72"/>
       <c r="EA17" s="29"/>
       <c r="EB17" s="21"/>
       <c r="EC17" s="21"/>
@@ -6073,43 +6135,43 @@
       </c>
     </row>
     <row r="18" spans="1:149" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="98"/>
-      <c r="B18" s="77">
+      <c r="A18" s="97"/>
+      <c r="B18" s="99">
         <v>8</v>
       </c>
-      <c r="C18" s="77" t="s">
+      <c r="C18" s="99" t="s">
         <v>167</v>
       </c>
-      <c r="D18" s="79"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="86"/>
-      <c r="K18" s="87"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="73"/>
-      <c r="N18" s="73"/>
-      <c r="O18" s="71"/>
-      <c r="P18" s="67"/>
-      <c r="Q18" s="73"/>
-      <c r="R18" s="73"/>
-      <c r="S18" s="71"/>
-      <c r="T18" s="67"/>
-      <c r="U18" s="73"/>
-      <c r="V18" s="73"/>
-      <c r="W18" s="71"/>
-      <c r="X18" s="67"/>
-      <c r="Y18" s="73"/>
-      <c r="Z18" s="73"/>
-      <c r="AA18" s="71"/>
-      <c r="AB18" s="67"/>
-      <c r="AC18" s="73"/>
-      <c r="AD18" s="73"/>
-      <c r="AE18" s="71"/>
-      <c r="AF18" s="67"/>
-      <c r="AG18" s="71"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="104"/>
+      <c r="J18" s="104"/>
+      <c r="K18" s="105"/>
+      <c r="L18" s="81"/>
+      <c r="M18" s="82"/>
+      <c r="N18" s="82"/>
+      <c r="O18" s="83"/>
+      <c r="P18" s="81"/>
+      <c r="Q18" s="82"/>
+      <c r="R18" s="82"/>
+      <c r="S18" s="83"/>
+      <c r="T18" s="81"/>
+      <c r="U18" s="82"/>
+      <c r="V18" s="82"/>
+      <c r="W18" s="83"/>
+      <c r="X18" s="81"/>
+      <c r="Y18" s="82"/>
+      <c r="Z18" s="82"/>
+      <c r="AA18" s="83"/>
+      <c r="AB18" s="81"/>
+      <c r="AC18" s="82"/>
+      <c r="AD18" s="82"/>
+      <c r="AE18" s="83"/>
+      <c r="AF18" s="81"/>
+      <c r="AG18" s="83"/>
       <c r="AH18" s="61" t="s">
         <v>55</v>
       </c>
@@ -6126,11 +6188,11 @@
       </c>
       <c r="AN18" s="2"/>
       <c r="AO18" s="3"/>
-      <c r="AP18" s="63"/>
+      <c r="AP18" s="71"/>
       <c r="AQ18" s="17"/>
       <c r="AR18" s="18"/>
       <c r="AS18" s="19"/>
-      <c r="AT18" s="63" t="s">
+      <c r="AT18" s="71" t="s">
         <v>46</v>
       </c>
       <c r="AU18" s="27" t="s">
@@ -6138,7 +6200,7 @@
       </c>
       <c r="AV18" s="18"/>
       <c r="AW18" s="19"/>
-      <c r="AX18" s="63" t="s">
+      <c r="AX18" s="71" t="s">
         <v>52</v>
       </c>
       <c r="AY18" s="27" t="s">
@@ -6146,54 +6208,54 @@
       </c>
       <c r="AZ18" s="18"/>
       <c r="BA18" s="19"/>
-      <c r="BB18" s="63" t="s">
+      <c r="BB18" s="71" t="s">
         <v>136</v>
       </c>
       <c r="BC18" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="BD18" s="57" t="s">
+      <c r="BD18" s="69" t="s">
         <v>62</v>
       </c>
       <c r="BE18" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="BF18" s="67"/>
-      <c r="BG18" s="73"/>
-      <c r="BH18" s="73"/>
-      <c r="BI18" s="71"/>
-      <c r="BJ18" s="63" t="s">
+      <c r="BF18" s="81"/>
+      <c r="BG18" s="82"/>
+      <c r="BH18" s="82"/>
+      <c r="BI18" s="83"/>
+      <c r="BJ18" s="71" t="s">
         <v>68</v>
       </c>
       <c r="BK18" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="BL18" s="67"/>
-      <c r="BM18" s="73"/>
-      <c r="BN18" s="73"/>
-      <c r="BO18" s="71"/>
-      <c r="BP18" s="67"/>
-      <c r="BQ18" s="71"/>
-      <c r="BR18" s="67"/>
-      <c r="BS18" s="73"/>
-      <c r="BT18" s="73"/>
-      <c r="BU18" s="71"/>
+      <c r="BL18" s="81"/>
+      <c r="BM18" s="82"/>
+      <c r="BN18" s="82"/>
+      <c r="BO18" s="83"/>
+      <c r="BP18" s="81"/>
+      <c r="BQ18" s="83"/>
+      <c r="BR18" s="81"/>
+      <c r="BS18" s="82"/>
+      <c r="BT18" s="82"/>
+      <c r="BU18" s="83"/>
       <c r="BV18" s="61"/>
       <c r="BW18" s="46"/>
       <c r="BX18" s="2"/>
       <c r="BY18" s="3"/>
-      <c r="BZ18" s="67"/>
-      <c r="CA18" s="71"/>
-      <c r="CB18" s="67"/>
-      <c r="CC18" s="73"/>
-      <c r="CD18" s="73"/>
-      <c r="CE18" s="71"/>
-      <c r="CF18" s="67"/>
-      <c r="CG18" s="73"/>
-      <c r="CH18" s="73"/>
-      <c r="CI18" s="71"/>
-      <c r="CJ18" s="67"/>
-      <c r="CK18" s="71"/>
+      <c r="BZ18" s="81"/>
+      <c r="CA18" s="83"/>
+      <c r="CB18" s="81"/>
+      <c r="CC18" s="82"/>
+      <c r="CD18" s="82"/>
+      <c r="CE18" s="83"/>
+      <c r="CF18" s="81"/>
+      <c r="CG18" s="82"/>
+      <c r="CH18" s="82"/>
+      <c r="CI18" s="83"/>
+      <c r="CJ18" s="81"/>
+      <c r="CK18" s="83"/>
       <c r="CL18" s="61" t="s">
         <v>115</v>
       </c>
@@ -6224,13 +6286,13 @@
       <c r="CY18" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="CZ18" s="57" t="s">
+      <c r="CZ18" s="69" t="s">
         <v>62</v>
       </c>
       <c r="DA18" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="DB18" s="63" t="s">
+      <c r="DB18" s="71" t="s">
         <v>73</v>
       </c>
       <c r="DC18" s="28" t="s">
@@ -6242,7 +6304,7 @@
       <c r="DE18" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="DF18" s="57" t="s">
+      <c r="DF18" s="69" t="s">
         <v>62</v>
       </c>
       <c r="DG18" s="7" t="s">
@@ -6252,39 +6314,39 @@
       <c r="DI18" s="1"/>
       <c r="DJ18" s="2"/>
       <c r="DK18" s="3"/>
-      <c r="DL18" s="63"/>
+      <c r="DL18" s="71"/>
       <c r="DM18" s="27"/>
       <c r="DN18" s="18"/>
       <c r="DO18" s="19"/>
-      <c r="DP18" s="63"/>
+      <c r="DP18" s="71"/>
       <c r="DQ18" s="27"/>
       <c r="DR18" s="18"/>
       <c r="DS18" s="19"/>
-      <c r="DT18" s="63"/>
+      <c r="DT18" s="71"/>
       <c r="DU18" s="27"/>
       <c r="DV18" s="18"/>
       <c r="DW18" s="19"/>
-      <c r="DX18" s="63"/>
+      <c r="DX18" s="71"/>
       <c r="DY18" s="28"/>
-      <c r="DZ18" s="63"/>
+      <c r="DZ18" s="71"/>
       <c r="EA18" s="27"/>
       <c r="EB18" s="18"/>
       <c r="EC18" s="18"/>
       <c r="ED18" s="18"/>
       <c r="EE18" s="19"/>
-      <c r="EF18" s="67"/>
-      <c r="EG18" s="73"/>
-      <c r="EH18" s="73"/>
-      <c r="EI18" s="71"/>
-      <c r="EJ18" s="67"/>
-      <c r="EK18" s="71"/>
+      <c r="EF18" s="81"/>
+      <c r="EG18" s="82"/>
+      <c r="EH18" s="82"/>
+      <c r="EI18" s="83"/>
+      <c r="EJ18" s="81"/>
+      <c r="EK18" s="83"/>
       <c r="EL18" s="61" t="s">
         <v>60</v>
       </c>
       <c r="EM18" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="EN18" s="57" t="s">
+      <c r="EN18" s="69" t="s">
         <v>172</v>
       </c>
       <c r="EO18" s="7" t="s">
@@ -6296,43 +6358,43 @@
       <c r="EQ18" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="ER18" s="67"/>
-      <c r="ES18" s="68"/>
+      <c r="ER18" s="81"/>
+      <c r="ES18" s="109"/>
     </row>
     <row r="19" spans="1:149" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="98"/>
-      <c r="B19" s="83"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="88"/>
-      <c r="I19" s="89"/>
-      <c r="J19" s="89"/>
-      <c r="K19" s="90"/>
-      <c r="L19" s="75"/>
-      <c r="M19" s="82"/>
-      <c r="N19" s="82"/>
-      <c r="O19" s="81"/>
-      <c r="P19" s="75"/>
-      <c r="Q19" s="82"/>
-      <c r="R19" s="82"/>
-      <c r="S19" s="81"/>
-      <c r="T19" s="75"/>
-      <c r="U19" s="82"/>
-      <c r="V19" s="82"/>
-      <c r="W19" s="81"/>
-      <c r="X19" s="75"/>
-      <c r="Y19" s="82"/>
-      <c r="Z19" s="82"/>
-      <c r="AA19" s="81"/>
-      <c r="AB19" s="75"/>
-      <c r="AC19" s="82"/>
-      <c r="AD19" s="82"/>
-      <c r="AE19" s="81"/>
-      <c r="AF19" s="75"/>
-      <c r="AG19" s="81"/>
+      <c r="A19" s="97"/>
+      <c r="B19" s="100"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="107"/>
+      <c r="J19" s="107"/>
+      <c r="K19" s="108"/>
+      <c r="L19" s="66"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="68"/>
+      <c r="P19" s="66"/>
+      <c r="Q19" s="67"/>
+      <c r="R19" s="67"/>
+      <c r="S19" s="68"/>
+      <c r="T19" s="66"/>
+      <c r="U19" s="67"/>
+      <c r="V19" s="67"/>
+      <c r="W19" s="68"/>
+      <c r="X19" s="66"/>
+      <c r="Y19" s="67"/>
+      <c r="Z19" s="67"/>
+      <c r="AA19" s="68"/>
+      <c r="AB19" s="66"/>
+      <c r="AC19" s="67"/>
+      <c r="AD19" s="67"/>
+      <c r="AE19" s="68"/>
+      <c r="AF19" s="66"/>
+      <c r="AG19" s="68"/>
       <c r="AH19" s="62"/>
       <c r="AI19" s="4" t="s">
         <v>78</v>
@@ -6345,64 +6407,64 @@
       </c>
       <c r="AN19" s="5"/>
       <c r="AO19" s="6"/>
-      <c r="AP19" s="64"/>
+      <c r="AP19" s="72"/>
       <c r="AQ19" s="20"/>
       <c r="AR19" s="21"/>
       <c r="AS19" s="22"/>
-      <c r="AT19" s="64"/>
+      <c r="AT19" s="72"/>
       <c r="AU19" s="29" t="s">
         <v>82</v>
       </c>
       <c r="AV19" s="21"/>
       <c r="AW19" s="22"/>
-      <c r="AX19" s="110"/>
+      <c r="AX19" s="86"/>
       <c r="AY19" s="54" t="s">
         <v>72</v>
       </c>
       <c r="AZ19" s="55"/>
       <c r="BA19" s="56"/>
-      <c r="BB19" s="64"/>
+      <c r="BB19" s="72"/>
       <c r="BC19" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="BD19" s="58"/>
+      <c r="BD19" s="70"/>
       <c r="BE19" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="BF19" s="75"/>
-      <c r="BG19" s="82"/>
-      <c r="BH19" s="82"/>
-      <c r="BI19" s="81"/>
-      <c r="BJ19" s="64"/>
+      <c r="BF19" s="66"/>
+      <c r="BG19" s="67"/>
+      <c r="BH19" s="67"/>
+      <c r="BI19" s="68"/>
+      <c r="BJ19" s="72"/>
       <c r="BK19" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="BL19" s="75"/>
-      <c r="BM19" s="82"/>
-      <c r="BN19" s="82"/>
-      <c r="BO19" s="81"/>
-      <c r="BP19" s="75"/>
-      <c r="BQ19" s="81"/>
-      <c r="BR19" s="75"/>
-      <c r="BS19" s="82"/>
-      <c r="BT19" s="82"/>
-      <c r="BU19" s="81"/>
+      <c r="BL19" s="66"/>
+      <c r="BM19" s="67"/>
+      <c r="BN19" s="67"/>
+      <c r="BO19" s="68"/>
+      <c r="BP19" s="66"/>
+      <c r="BQ19" s="68"/>
+      <c r="BR19" s="66"/>
+      <c r="BS19" s="67"/>
+      <c r="BT19" s="67"/>
+      <c r="BU19" s="68"/>
       <c r="BV19" s="62"/>
       <c r="BW19" s="47"/>
       <c r="BX19" s="5"/>
       <c r="BY19" s="6"/>
-      <c r="BZ19" s="75"/>
-      <c r="CA19" s="81"/>
-      <c r="CB19" s="75"/>
-      <c r="CC19" s="82"/>
-      <c r="CD19" s="82"/>
-      <c r="CE19" s="81"/>
-      <c r="CF19" s="75"/>
-      <c r="CG19" s="82"/>
-      <c r="CH19" s="82"/>
-      <c r="CI19" s="81"/>
-      <c r="CJ19" s="75"/>
-      <c r="CK19" s="81"/>
+      <c r="BZ19" s="66"/>
+      <c r="CA19" s="68"/>
+      <c r="CB19" s="66"/>
+      <c r="CC19" s="67"/>
+      <c r="CD19" s="67"/>
+      <c r="CE19" s="68"/>
+      <c r="CF19" s="66"/>
+      <c r="CG19" s="67"/>
+      <c r="CH19" s="67"/>
+      <c r="CI19" s="68"/>
+      <c r="CJ19" s="66"/>
+      <c r="CK19" s="68"/>
       <c r="CL19" s="62"/>
       <c r="CM19" s="4" t="s">
         <v>117</v>
@@ -6425,11 +6487,11 @@
       <c r="CY19" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="CZ19" s="58"/>
+      <c r="CZ19" s="70"/>
       <c r="DA19" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="DB19" s="64"/>
+      <c r="DB19" s="72"/>
       <c r="DC19" s="30" t="s">
         <v>86</v>
       </c>
@@ -6437,7 +6499,7 @@
       <c r="DE19" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="DF19" s="58"/>
+      <c r="DF19" s="70"/>
       <c r="DG19" s="8" t="s">
         <v>140</v>
       </c>
@@ -6445,37 +6507,37 @@
       <c r="DI19" s="4"/>
       <c r="DJ19" s="5"/>
       <c r="DK19" s="6"/>
-      <c r="DL19" s="64"/>
+      <c r="DL19" s="72"/>
       <c r="DM19" s="29"/>
       <c r="DN19" s="21"/>
       <c r="DO19" s="22"/>
-      <c r="DP19" s="64"/>
+      <c r="DP19" s="72"/>
       <c r="DQ19" s="29"/>
       <c r="DR19" s="21"/>
       <c r="DS19" s="22"/>
-      <c r="DT19" s="64"/>
+      <c r="DT19" s="72"/>
       <c r="DU19" s="29"/>
       <c r="DV19" s="21"/>
       <c r="DW19" s="22"/>
-      <c r="DX19" s="64"/>
+      <c r="DX19" s="72"/>
       <c r="DY19" s="30"/>
-      <c r="DZ19" s="64"/>
+      <c r="DZ19" s="72"/>
       <c r="EA19" s="29"/>
       <c r="EB19" s="21"/>
       <c r="EC19" s="21"/>
       <c r="ED19" s="21"/>
       <c r="EE19" s="22"/>
-      <c r="EF19" s="75"/>
-      <c r="EG19" s="82"/>
-      <c r="EH19" s="82"/>
-      <c r="EI19" s="81"/>
-      <c r="EJ19" s="75"/>
-      <c r="EK19" s="81"/>
+      <c r="EF19" s="66"/>
+      <c r="EG19" s="67"/>
+      <c r="EH19" s="67"/>
+      <c r="EI19" s="68"/>
+      <c r="EJ19" s="66"/>
+      <c r="EK19" s="68"/>
       <c r="EL19" s="62"/>
       <c r="EM19" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="EN19" s="58"/>
+      <c r="EN19" s="70"/>
       <c r="EO19" s="8" t="s">
         <v>114</v>
       </c>
@@ -6483,47 +6545,47 @@
       <c r="EQ19" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="ER19" s="75"/>
-      <c r="ES19" s="76"/>
+      <c r="ER19" s="66"/>
+      <c r="ES19" s="110"/>
     </row>
     <row r="20" spans="1:149" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="98"/>
-      <c r="B20" s="77">
+      <c r="A20" s="97"/>
+      <c r="B20" s="99">
         <v>9</v>
       </c>
-      <c r="C20" s="77" t="s">
+      <c r="C20" s="99" t="s">
         <v>174</v>
       </c>
-      <c r="D20" s="79"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="71"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="83"/>
       <c r="H20" s="61"/>
       <c r="I20" s="23"/>
       <c r="J20" s="2"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="67"/>
-      <c r="M20" s="73"/>
-      <c r="N20" s="73"/>
-      <c r="O20" s="71"/>
-      <c r="P20" s="67"/>
-      <c r="Q20" s="73"/>
-      <c r="R20" s="73"/>
-      <c r="S20" s="71"/>
-      <c r="T20" s="67"/>
-      <c r="U20" s="73"/>
-      <c r="V20" s="73"/>
-      <c r="W20" s="71"/>
-      <c r="X20" s="67"/>
-      <c r="Y20" s="73"/>
-      <c r="Z20" s="73"/>
-      <c r="AA20" s="71"/>
-      <c r="AB20" s="67"/>
-      <c r="AC20" s="73"/>
-      <c r="AD20" s="73"/>
-      <c r="AE20" s="71"/>
-      <c r="AF20" s="67"/>
-      <c r="AG20" s="71"/>
+      <c r="L20" s="81"/>
+      <c r="M20" s="82"/>
+      <c r="N20" s="82"/>
+      <c r="O20" s="83"/>
+      <c r="P20" s="81"/>
+      <c r="Q20" s="82"/>
+      <c r="R20" s="82"/>
+      <c r="S20" s="83"/>
+      <c r="T20" s="81"/>
+      <c r="U20" s="82"/>
+      <c r="V20" s="82"/>
+      <c r="W20" s="83"/>
+      <c r="X20" s="81"/>
+      <c r="Y20" s="82"/>
+      <c r="Z20" s="82"/>
+      <c r="AA20" s="83"/>
+      <c r="AB20" s="81"/>
+      <c r="AC20" s="82"/>
+      <c r="AD20" s="82"/>
+      <c r="AE20" s="83"/>
+      <c r="AF20" s="81"/>
+      <c r="AG20" s="83"/>
       <c r="AH20" s="61" t="s">
         <v>46</v>
       </c>
@@ -6556,7 +6618,7 @@
       </c>
       <c r="AV20" s="2"/>
       <c r="AW20" s="3"/>
-      <c r="AX20" s="63" t="s">
+      <c r="AX20" s="71" t="s">
         <v>70</v>
       </c>
       <c r="AY20" s="27" t="s">
@@ -6570,32 +6632,32 @@
       <c r="BC20" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="BD20" s="57" t="s">
+      <c r="BD20" s="69" t="s">
         <v>62</v>
       </c>
       <c r="BE20" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="BF20" s="67"/>
-      <c r="BG20" s="73"/>
-      <c r="BH20" s="73"/>
-      <c r="BI20" s="71"/>
-      <c r="BJ20" s="67"/>
-      <c r="BK20" s="71"/>
-      <c r="BL20" s="67"/>
-      <c r="BM20" s="73"/>
-      <c r="BN20" s="73"/>
-      <c r="BO20" s="71"/>
-      <c r="BP20" s="67"/>
-      <c r="BQ20" s="71"/>
-      <c r="BR20" s="67"/>
-      <c r="BS20" s="73"/>
-      <c r="BT20" s="73"/>
-      <c r="BU20" s="71"/>
-      <c r="BV20" s="67"/>
-      <c r="BW20" s="73"/>
-      <c r="BX20" s="73"/>
-      <c r="BY20" s="71"/>
+      <c r="BF20" s="81"/>
+      <c r="BG20" s="82"/>
+      <c r="BH20" s="82"/>
+      <c r="BI20" s="83"/>
+      <c r="BJ20" s="81"/>
+      <c r="BK20" s="83"/>
+      <c r="BL20" s="81"/>
+      <c r="BM20" s="82"/>
+      <c r="BN20" s="82"/>
+      <c r="BO20" s="83"/>
+      <c r="BP20" s="81"/>
+      <c r="BQ20" s="83"/>
+      <c r="BR20" s="81"/>
+      <c r="BS20" s="82"/>
+      <c r="BT20" s="82"/>
+      <c r="BU20" s="83"/>
+      <c r="BV20" s="81"/>
+      <c r="BW20" s="82"/>
+      <c r="BX20" s="82"/>
+      <c r="BY20" s="83"/>
       <c r="BZ20" s="61"/>
       <c r="CA20" s="7"/>
       <c r="CB20" s="61"/>
@@ -6604,10 +6666,10 @@
       <c r="CE20" s="3"/>
       <c r="CF20" s="61"/>
       <c r="CG20" s="46"/>
-      <c r="CH20" s="59"/>
+      <c r="CH20" s="84"/>
       <c r="CI20" s="28"/>
-      <c r="CJ20" s="67"/>
-      <c r="CK20" s="71"/>
+      <c r="CJ20" s="81"/>
+      <c r="CK20" s="83"/>
       <c r="CL20" s="61" t="s">
         <v>115</v>
       </c>
@@ -6622,19 +6684,19 @@
       <c r="CQ20" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="CR20" s="57" t="s">
+      <c r="CR20" s="69" t="s">
         <v>62</v>
       </c>
       <c r="CS20" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="CT20" s="63" t="s">
+      <c r="CT20" s="71" t="s">
         <v>136</v>
       </c>
       <c r="CU20" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="CV20" s="57" t="s">
+      <c r="CV20" s="69" t="s">
         <v>62</v>
       </c>
       <c r="CW20" s="7" t="s">
@@ -6662,87 +6724,87 @@
       </c>
       <c r="DF20" s="2"/>
       <c r="DG20" s="3"/>
-      <c r="DH20" s="67"/>
-      <c r="DI20" s="73"/>
-      <c r="DJ20" s="73"/>
-      <c r="DK20" s="71"/>
+      <c r="DH20" s="81"/>
+      <c r="DI20" s="82"/>
+      <c r="DJ20" s="82"/>
+      <c r="DK20" s="83"/>
       <c r="DL20" s="61"/>
       <c r="DM20" s="25"/>
       <c r="DN20" s="2"/>
       <c r="DO20" s="3"/>
-      <c r="DP20" s="67"/>
-      <c r="DQ20" s="73"/>
-      <c r="DR20" s="73"/>
-      <c r="DS20" s="71"/>
-      <c r="DT20" s="67"/>
-      <c r="DU20" s="73"/>
-      <c r="DV20" s="73"/>
-      <c r="DW20" s="71"/>
-      <c r="DX20" s="67"/>
-      <c r="DY20" s="71"/>
-      <c r="DZ20" s="67"/>
-      <c r="EA20" s="73"/>
-      <c r="EB20" s="73"/>
-      <c r="EC20" s="73"/>
-      <c r="ED20" s="73"/>
-      <c r="EE20" s="71"/>
-      <c r="EF20" s="67"/>
-      <c r="EG20" s="73"/>
-      <c r="EH20" s="73"/>
-      <c r="EI20" s="71"/>
-      <c r="EJ20" s="67"/>
-      <c r="EK20" s="71"/>
+      <c r="DP20" s="81"/>
+      <c r="DQ20" s="82"/>
+      <c r="DR20" s="82"/>
+      <c r="DS20" s="83"/>
+      <c r="DT20" s="81"/>
+      <c r="DU20" s="82"/>
+      <c r="DV20" s="82"/>
+      <c r="DW20" s="83"/>
+      <c r="DX20" s="81"/>
+      <c r="DY20" s="83"/>
+      <c r="DZ20" s="81"/>
+      <c r="EA20" s="82"/>
+      <c r="EB20" s="82"/>
+      <c r="EC20" s="82"/>
+      <c r="ED20" s="82"/>
+      <c r="EE20" s="83"/>
+      <c r="EF20" s="81"/>
+      <c r="EG20" s="82"/>
+      <c r="EH20" s="82"/>
+      <c r="EI20" s="83"/>
+      <c r="EJ20" s="81"/>
+      <c r="EK20" s="83"/>
       <c r="EL20" s="61" t="s">
         <v>60</v>
       </c>
       <c r="EM20" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="EN20" s="57" t="s">
+      <c r="EN20" s="69" t="s">
         <v>172</v>
       </c>
       <c r="EO20" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="EP20" s="67"/>
-      <c r="EQ20" s="71"/>
-      <c r="ER20" s="67"/>
-      <c r="ES20" s="68"/>
+      <c r="EP20" s="81"/>
+      <c r="EQ20" s="83"/>
+      <c r="ER20" s="81"/>
+      <c r="ES20" s="109"/>
     </row>
     <row r="21" spans="1:149" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="98"/>
-      <c r="B21" s="83"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="81"/>
+      <c r="A21" s="97"/>
+      <c r="B21" s="100"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="68"/>
       <c r="H21" s="62"/>
       <c r="I21" s="24"/>
       <c r="J21" s="5"/>
       <c r="K21" s="6"/>
-      <c r="L21" s="75"/>
-      <c r="M21" s="82"/>
-      <c r="N21" s="82"/>
-      <c r="O21" s="81"/>
-      <c r="P21" s="75"/>
-      <c r="Q21" s="82"/>
-      <c r="R21" s="82"/>
-      <c r="S21" s="81"/>
-      <c r="T21" s="75"/>
-      <c r="U21" s="82"/>
-      <c r="V21" s="82"/>
-      <c r="W21" s="81"/>
-      <c r="X21" s="75"/>
-      <c r="Y21" s="82"/>
-      <c r="Z21" s="82"/>
-      <c r="AA21" s="81"/>
-      <c r="AB21" s="75"/>
-      <c r="AC21" s="82"/>
-      <c r="AD21" s="82"/>
-      <c r="AE21" s="81"/>
-      <c r="AF21" s="75"/>
-      <c r="AG21" s="81"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="67"/>
+      <c r="N21" s="67"/>
+      <c r="O21" s="68"/>
+      <c r="P21" s="66"/>
+      <c r="Q21" s="67"/>
+      <c r="R21" s="67"/>
+      <c r="S21" s="68"/>
+      <c r="T21" s="66"/>
+      <c r="U21" s="67"/>
+      <c r="V21" s="67"/>
+      <c r="W21" s="68"/>
+      <c r="X21" s="66"/>
+      <c r="Y21" s="67"/>
+      <c r="Z21" s="67"/>
+      <c r="AA21" s="68"/>
+      <c r="AB21" s="66"/>
+      <c r="AC21" s="67"/>
+      <c r="AD21" s="67"/>
+      <c r="AE21" s="68"/>
+      <c r="AF21" s="66"/>
+      <c r="AG21" s="68"/>
       <c r="AH21" s="62"/>
       <c r="AI21" s="4" t="s">
         <v>78</v>
@@ -6767,7 +6829,7 @@
       </c>
       <c r="AV21" s="5"/>
       <c r="AW21" s="6"/>
-      <c r="AX21" s="64"/>
+      <c r="AX21" s="72"/>
       <c r="AY21" s="29" t="s">
         <v>72</v>
       </c>
@@ -6777,30 +6839,30 @@
       <c r="BC21" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="BD21" s="58"/>
+      <c r="BD21" s="70"/>
       <c r="BE21" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="BF21" s="75"/>
-      <c r="BG21" s="82"/>
-      <c r="BH21" s="82"/>
-      <c r="BI21" s="81"/>
-      <c r="BJ21" s="75"/>
-      <c r="BK21" s="81"/>
-      <c r="BL21" s="75"/>
-      <c r="BM21" s="82"/>
-      <c r="BN21" s="82"/>
-      <c r="BO21" s="81"/>
-      <c r="BP21" s="75"/>
-      <c r="BQ21" s="81"/>
-      <c r="BR21" s="75"/>
-      <c r="BS21" s="82"/>
-      <c r="BT21" s="82"/>
-      <c r="BU21" s="81"/>
-      <c r="BV21" s="75"/>
-      <c r="BW21" s="82"/>
-      <c r="BX21" s="82"/>
-      <c r="BY21" s="81"/>
+      <c r="BF21" s="66"/>
+      <c r="BG21" s="67"/>
+      <c r="BH21" s="67"/>
+      <c r="BI21" s="68"/>
+      <c r="BJ21" s="66"/>
+      <c r="BK21" s="68"/>
+      <c r="BL21" s="66"/>
+      <c r="BM21" s="67"/>
+      <c r="BN21" s="67"/>
+      <c r="BO21" s="68"/>
+      <c r="BP21" s="66"/>
+      <c r="BQ21" s="68"/>
+      <c r="BR21" s="66"/>
+      <c r="BS21" s="67"/>
+      <c r="BT21" s="67"/>
+      <c r="BU21" s="68"/>
+      <c r="BV21" s="66"/>
+      <c r="BW21" s="67"/>
+      <c r="BX21" s="67"/>
+      <c r="BY21" s="68"/>
       <c r="BZ21" s="62"/>
       <c r="CA21" s="8"/>
       <c r="CB21" s="62"/>
@@ -6809,10 +6871,10 @@
       <c r="CE21" s="6"/>
       <c r="CF21" s="62"/>
       <c r="CG21" s="47"/>
-      <c r="CH21" s="60"/>
+      <c r="CH21" s="85"/>
       <c r="CI21" s="30"/>
-      <c r="CJ21" s="75"/>
-      <c r="CK21" s="81"/>
+      <c r="CJ21" s="66"/>
+      <c r="CK21" s="68"/>
       <c r="CL21" s="62"/>
       <c r="CM21" s="4" t="s">
         <v>117</v>
@@ -6823,15 +6885,15 @@
       <c r="CQ21" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="CR21" s="58"/>
+      <c r="CR21" s="70"/>
       <c r="CS21" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="CT21" s="64"/>
+      <c r="CT21" s="72"/>
       <c r="CU21" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="CV21" s="58"/>
+      <c r="CV21" s="70"/>
       <c r="CW21" s="8" t="s">
         <v>89</v>
       </c>
@@ -6851,87 +6913,87 @@
       </c>
       <c r="DF21" s="5"/>
       <c r="DG21" s="6"/>
-      <c r="DH21" s="75"/>
-      <c r="DI21" s="82"/>
-      <c r="DJ21" s="82"/>
-      <c r="DK21" s="81"/>
+      <c r="DH21" s="66"/>
+      <c r="DI21" s="67"/>
+      <c r="DJ21" s="67"/>
+      <c r="DK21" s="68"/>
       <c r="DL21" s="62"/>
       <c r="DM21" s="26"/>
       <c r="DN21" s="5"/>
       <c r="DO21" s="6"/>
-      <c r="DP21" s="75"/>
-      <c r="DQ21" s="82"/>
-      <c r="DR21" s="82"/>
-      <c r="DS21" s="81"/>
-      <c r="DT21" s="75"/>
-      <c r="DU21" s="82"/>
-      <c r="DV21" s="82"/>
-      <c r="DW21" s="81"/>
-      <c r="DX21" s="75"/>
-      <c r="DY21" s="81"/>
-      <c r="DZ21" s="75"/>
-      <c r="EA21" s="82"/>
-      <c r="EB21" s="82"/>
-      <c r="EC21" s="82"/>
-      <c r="ED21" s="82"/>
-      <c r="EE21" s="81"/>
-      <c r="EF21" s="75"/>
-      <c r="EG21" s="82"/>
-      <c r="EH21" s="82"/>
-      <c r="EI21" s="81"/>
-      <c r="EJ21" s="75"/>
-      <c r="EK21" s="81"/>
+      <c r="DP21" s="66"/>
+      <c r="DQ21" s="67"/>
+      <c r="DR21" s="67"/>
+      <c r="DS21" s="68"/>
+      <c r="DT21" s="66"/>
+      <c r="DU21" s="67"/>
+      <c r="DV21" s="67"/>
+      <c r="DW21" s="68"/>
+      <c r="DX21" s="66"/>
+      <c r="DY21" s="68"/>
+      <c r="DZ21" s="66"/>
+      <c r="EA21" s="67"/>
+      <c r="EB21" s="67"/>
+      <c r="EC21" s="67"/>
+      <c r="ED21" s="67"/>
+      <c r="EE21" s="68"/>
+      <c r="EF21" s="66"/>
+      <c r="EG21" s="67"/>
+      <c r="EH21" s="67"/>
+      <c r="EI21" s="68"/>
+      <c r="EJ21" s="66"/>
+      <c r="EK21" s="68"/>
       <c r="EL21" s="62"/>
       <c r="EM21" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="EN21" s="58"/>
+      <c r="EN21" s="70"/>
       <c r="EO21" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="EP21" s="75"/>
-      <c r="EQ21" s="81"/>
-      <c r="ER21" s="75"/>
-      <c r="ES21" s="76"/>
+      <c r="EP21" s="66"/>
+      <c r="EQ21" s="68"/>
+      <c r="ER21" s="66"/>
+      <c r="ES21" s="110"/>
     </row>
     <row r="22" spans="1:149" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="98"/>
-      <c r="B22" s="77">
+      <c r="A22" s="97"/>
+      <c r="B22" s="99">
         <v>10</v>
       </c>
-      <c r="C22" s="77" t="s">
+      <c r="C22" s="99" t="s">
         <v>176</v>
       </c>
-      <c r="D22" s="79"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="71"/>
-      <c r="L22" s="67"/>
-      <c r="M22" s="73"/>
-      <c r="N22" s="73"/>
-      <c r="O22" s="71"/>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="73"/>
-      <c r="R22" s="73"/>
-      <c r="S22" s="71"/>
-      <c r="T22" s="67"/>
-      <c r="U22" s="73"/>
-      <c r="V22" s="73"/>
-      <c r="W22" s="71"/>
-      <c r="X22" s="67"/>
-      <c r="Y22" s="73"/>
-      <c r="Z22" s="73"/>
-      <c r="AA22" s="71"/>
-      <c r="AB22" s="67"/>
-      <c r="AC22" s="73"/>
-      <c r="AD22" s="73"/>
-      <c r="AE22" s="71"/>
-      <c r="AF22" s="67"/>
-      <c r="AG22" s="71"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="82"/>
+      <c r="K22" s="83"/>
+      <c r="L22" s="81"/>
+      <c r="M22" s="82"/>
+      <c r="N22" s="82"/>
+      <c r="O22" s="83"/>
+      <c r="P22" s="81"/>
+      <c r="Q22" s="82"/>
+      <c r="R22" s="82"/>
+      <c r="S22" s="83"/>
+      <c r="T22" s="81"/>
+      <c r="U22" s="82"/>
+      <c r="V22" s="82"/>
+      <c r="W22" s="83"/>
+      <c r="X22" s="81"/>
+      <c r="Y22" s="82"/>
+      <c r="Z22" s="82"/>
+      <c r="AA22" s="83"/>
+      <c r="AB22" s="81"/>
+      <c r="AC22" s="82"/>
+      <c r="AD22" s="82"/>
+      <c r="AE22" s="83"/>
+      <c r="AF22" s="81"/>
+      <c r="AG22" s="83"/>
       <c r="AH22" s="61" t="s">
         <v>52</v>
       </c>
@@ -6946,7 +7008,7 @@
       <c r="AM22" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AN22" s="57" t="s">
+      <c r="AN22" s="69" t="s">
         <v>62</v>
       </c>
       <c r="AO22" s="7" t="s">
@@ -6960,7 +7022,7 @@
       </c>
       <c r="AR22" s="2"/>
       <c r="AS22" s="3"/>
-      <c r="AT22" s="63" t="s">
+      <c r="AT22" s="71" t="s">
         <v>70</v>
       </c>
       <c r="AU22" s="27" t="s">
@@ -6984,57 +7046,57 @@
       </c>
       <c r="BD22" s="2"/>
       <c r="BE22" s="3"/>
-      <c r="BF22" s="67"/>
-      <c r="BG22" s="73"/>
-      <c r="BH22" s="73"/>
-      <c r="BI22" s="71"/>
-      <c r="BJ22" s="67"/>
-      <c r="BK22" s="71"/>
-      <c r="BL22" s="67"/>
-      <c r="BM22" s="73"/>
-      <c r="BN22" s="73"/>
-      <c r="BO22" s="71"/>
-      <c r="BP22" s="67"/>
-      <c r="BQ22" s="71"/>
-      <c r="BR22" s="67"/>
-      <c r="BS22" s="73"/>
-      <c r="BT22" s="73"/>
-      <c r="BU22" s="71"/>
-      <c r="BV22" s="67"/>
-      <c r="BW22" s="73"/>
-      <c r="BX22" s="73"/>
-      <c r="BY22" s="71"/>
-      <c r="BZ22" s="67"/>
-      <c r="CA22" s="71"/>
-      <c r="CB22" s="67"/>
-      <c r="CC22" s="73"/>
-      <c r="CD22" s="73"/>
-      <c r="CE22" s="71"/>
-      <c r="CF22" s="67"/>
-      <c r="CG22" s="73"/>
-      <c r="CH22" s="73"/>
-      <c r="CI22" s="71"/>
-      <c r="CJ22" s="67"/>
-      <c r="CK22" s="71"/>
+      <c r="BF22" s="81"/>
+      <c r="BG22" s="82"/>
+      <c r="BH22" s="82"/>
+      <c r="BI22" s="83"/>
+      <c r="BJ22" s="81"/>
+      <c r="BK22" s="83"/>
+      <c r="BL22" s="81"/>
+      <c r="BM22" s="82"/>
+      <c r="BN22" s="82"/>
+      <c r="BO22" s="83"/>
+      <c r="BP22" s="81"/>
+      <c r="BQ22" s="83"/>
+      <c r="BR22" s="81"/>
+      <c r="BS22" s="82"/>
+      <c r="BT22" s="82"/>
+      <c r="BU22" s="83"/>
+      <c r="BV22" s="81"/>
+      <c r="BW22" s="82"/>
+      <c r="BX22" s="82"/>
+      <c r="BY22" s="83"/>
+      <c r="BZ22" s="81"/>
+      <c r="CA22" s="83"/>
+      <c r="CB22" s="81"/>
+      <c r="CC22" s="82"/>
+      <c r="CD22" s="82"/>
+      <c r="CE22" s="83"/>
+      <c r="CF22" s="81"/>
+      <c r="CG22" s="82"/>
+      <c r="CH22" s="82"/>
+      <c r="CI22" s="83"/>
+      <c r="CJ22" s="81"/>
+      <c r="CK22" s="83"/>
       <c r="CL22" s="61" t="s">
         <v>60</v>
       </c>
       <c r="CM22" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="CN22" s="57" t="s">
+      <c r="CN22" s="69" t="s">
         <v>62</v>
       </c>
       <c r="CO22" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="CP22" s="63" t="s">
+      <c r="CP22" s="71" t="s">
         <v>136</v>
       </c>
       <c r="CQ22" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="CR22" s="57" t="s">
+      <c r="CR22" s="69" t="s">
         <v>62</v>
       </c>
       <c r="CS22" s="7" t="s">
@@ -7070,79 +7132,79 @@
       </c>
       <c r="DF22" s="2"/>
       <c r="DG22" s="3"/>
-      <c r="DH22" s="67"/>
-      <c r="DI22" s="73"/>
-      <c r="DJ22" s="73"/>
-      <c r="DK22" s="71"/>
-      <c r="DL22" s="67"/>
-      <c r="DM22" s="73"/>
-      <c r="DN22" s="73"/>
-      <c r="DO22" s="71"/>
-      <c r="DP22" s="67"/>
-      <c r="DQ22" s="73"/>
-      <c r="DR22" s="73"/>
-      <c r="DS22" s="71"/>
-      <c r="DT22" s="67"/>
-      <c r="DU22" s="73"/>
-      <c r="DV22" s="73"/>
-      <c r="DW22" s="71"/>
-      <c r="DX22" s="67"/>
-      <c r="DY22" s="71"/>
-      <c r="DZ22" s="67"/>
-      <c r="EA22" s="73"/>
-      <c r="EB22" s="73"/>
-      <c r="EC22" s="73"/>
-      <c r="ED22" s="73"/>
-      <c r="EE22" s="71"/>
-      <c r="EF22" s="67"/>
-      <c r="EG22" s="73"/>
-      <c r="EH22" s="73"/>
-      <c r="EI22" s="71"/>
-      <c r="EJ22" s="67"/>
-      <c r="EK22" s="71"/>
-      <c r="EL22" s="67"/>
-      <c r="EM22" s="73"/>
-      <c r="EN22" s="73"/>
-      <c r="EO22" s="71"/>
-      <c r="EP22" s="67"/>
-      <c r="EQ22" s="71"/>
-      <c r="ER22" s="67"/>
-      <c r="ES22" s="68"/>
+      <c r="DH22" s="81"/>
+      <c r="DI22" s="82"/>
+      <c r="DJ22" s="82"/>
+      <c r="DK22" s="83"/>
+      <c r="DL22" s="81"/>
+      <c r="DM22" s="82"/>
+      <c r="DN22" s="82"/>
+      <c r="DO22" s="83"/>
+      <c r="DP22" s="81"/>
+      <c r="DQ22" s="82"/>
+      <c r="DR22" s="82"/>
+      <c r="DS22" s="83"/>
+      <c r="DT22" s="81"/>
+      <c r="DU22" s="82"/>
+      <c r="DV22" s="82"/>
+      <c r="DW22" s="83"/>
+      <c r="DX22" s="81"/>
+      <c r="DY22" s="83"/>
+      <c r="DZ22" s="81"/>
+      <c r="EA22" s="82"/>
+      <c r="EB22" s="82"/>
+      <c r="EC22" s="82"/>
+      <c r="ED22" s="82"/>
+      <c r="EE22" s="83"/>
+      <c r="EF22" s="81"/>
+      <c r="EG22" s="82"/>
+      <c r="EH22" s="82"/>
+      <c r="EI22" s="83"/>
+      <c r="EJ22" s="81"/>
+      <c r="EK22" s="83"/>
+      <c r="EL22" s="81"/>
+      <c r="EM22" s="82"/>
+      <c r="EN22" s="82"/>
+      <c r="EO22" s="83"/>
+      <c r="EP22" s="81"/>
+      <c r="EQ22" s="83"/>
+      <c r="ER22" s="81"/>
+      <c r="ES22" s="109"/>
     </row>
     <row r="23" spans="1:149" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="98"/>
-      <c r="B23" s="83"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="81"/>
-      <c r="L23" s="75"/>
-      <c r="M23" s="82"/>
-      <c r="N23" s="82"/>
-      <c r="O23" s="81"/>
-      <c r="P23" s="75"/>
-      <c r="Q23" s="82"/>
-      <c r="R23" s="82"/>
-      <c r="S23" s="81"/>
-      <c r="T23" s="75"/>
-      <c r="U23" s="82"/>
-      <c r="V23" s="82"/>
-      <c r="W23" s="81"/>
-      <c r="X23" s="75"/>
-      <c r="Y23" s="82"/>
-      <c r="Z23" s="82"/>
-      <c r="AA23" s="81"/>
-      <c r="AB23" s="75"/>
-      <c r="AC23" s="82"/>
-      <c r="AD23" s="82"/>
-      <c r="AE23" s="81"/>
-      <c r="AF23" s="75"/>
-      <c r="AG23" s="81"/>
+      <c r="A23" s="97"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="68"/>
+      <c r="P23" s="66"/>
+      <c r="Q23" s="67"/>
+      <c r="R23" s="67"/>
+      <c r="S23" s="68"/>
+      <c r="T23" s="66"/>
+      <c r="U23" s="67"/>
+      <c r="V23" s="67"/>
+      <c r="W23" s="68"/>
+      <c r="X23" s="66"/>
+      <c r="Y23" s="67"/>
+      <c r="Z23" s="67"/>
+      <c r="AA23" s="68"/>
+      <c r="AB23" s="66"/>
+      <c r="AC23" s="67"/>
+      <c r="AD23" s="67"/>
+      <c r="AE23" s="68"/>
+      <c r="AF23" s="66"/>
+      <c r="AG23" s="68"/>
       <c r="AH23" s="62"/>
       <c r="AI23" s="4" t="s">
         <v>78</v>
@@ -7153,7 +7215,7 @@
       <c r="AM23" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AN23" s="58"/>
+      <c r="AN23" s="70"/>
       <c r="AO23" s="8" t="s">
         <v>64</v>
       </c>
@@ -7163,7 +7225,7 @@
       </c>
       <c r="AR23" s="5"/>
       <c r="AS23" s="6"/>
-      <c r="AT23" s="110"/>
+      <c r="AT23" s="86"/>
       <c r="AU23" s="54" t="s">
         <v>82</v>
       </c>
@@ -7181,51 +7243,51 @@
       </c>
       <c r="BD23" s="5"/>
       <c r="BE23" s="6"/>
-      <c r="BF23" s="75"/>
-      <c r="BG23" s="82"/>
-      <c r="BH23" s="82"/>
-      <c r="BI23" s="81"/>
-      <c r="BJ23" s="75"/>
-      <c r="BK23" s="81"/>
-      <c r="BL23" s="75"/>
-      <c r="BM23" s="82"/>
-      <c r="BN23" s="82"/>
-      <c r="BO23" s="81"/>
-      <c r="BP23" s="75"/>
-      <c r="BQ23" s="81"/>
-      <c r="BR23" s="75"/>
-      <c r="BS23" s="82"/>
-      <c r="BT23" s="82"/>
-      <c r="BU23" s="81"/>
-      <c r="BV23" s="75"/>
-      <c r="BW23" s="82"/>
-      <c r="BX23" s="82"/>
-      <c r="BY23" s="81"/>
-      <c r="BZ23" s="75"/>
-      <c r="CA23" s="81"/>
-      <c r="CB23" s="75"/>
-      <c r="CC23" s="82"/>
-      <c r="CD23" s="82"/>
-      <c r="CE23" s="81"/>
-      <c r="CF23" s="75"/>
-      <c r="CG23" s="82"/>
-      <c r="CH23" s="82"/>
-      <c r="CI23" s="81"/>
-      <c r="CJ23" s="75"/>
-      <c r="CK23" s="81"/>
+      <c r="BF23" s="66"/>
+      <c r="BG23" s="67"/>
+      <c r="BH23" s="67"/>
+      <c r="BI23" s="68"/>
+      <c r="BJ23" s="66"/>
+      <c r="BK23" s="68"/>
+      <c r="BL23" s="66"/>
+      <c r="BM23" s="67"/>
+      <c r="BN23" s="67"/>
+      <c r="BO23" s="68"/>
+      <c r="BP23" s="66"/>
+      <c r="BQ23" s="68"/>
+      <c r="BR23" s="66"/>
+      <c r="BS23" s="67"/>
+      <c r="BT23" s="67"/>
+      <c r="BU23" s="68"/>
+      <c r="BV23" s="66"/>
+      <c r="BW23" s="67"/>
+      <c r="BX23" s="67"/>
+      <c r="BY23" s="68"/>
+      <c r="BZ23" s="66"/>
+      <c r="CA23" s="68"/>
+      <c r="CB23" s="66"/>
+      <c r="CC23" s="67"/>
+      <c r="CD23" s="67"/>
+      <c r="CE23" s="68"/>
+      <c r="CF23" s="66"/>
+      <c r="CG23" s="67"/>
+      <c r="CH23" s="67"/>
+      <c r="CI23" s="68"/>
+      <c r="CJ23" s="66"/>
+      <c r="CK23" s="68"/>
       <c r="CL23" s="62"/>
       <c r="CM23" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="CN23" s="58"/>
+      <c r="CN23" s="70"/>
       <c r="CO23" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="CP23" s="64"/>
+      <c r="CP23" s="72"/>
       <c r="CQ23" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="CR23" s="58"/>
+      <c r="CR23" s="70"/>
       <c r="CS23" s="8" t="s">
         <v>89</v>
       </c>
@@ -7251,90 +7313,90 @@
       </c>
       <c r="DF23" s="5"/>
       <c r="DG23" s="6"/>
-      <c r="DH23" s="75"/>
-      <c r="DI23" s="82"/>
-      <c r="DJ23" s="82"/>
-      <c r="DK23" s="81"/>
-      <c r="DL23" s="75"/>
-      <c r="DM23" s="82"/>
-      <c r="DN23" s="82"/>
-      <c r="DO23" s="81"/>
-      <c r="DP23" s="75"/>
-      <c r="DQ23" s="82"/>
-      <c r="DR23" s="82"/>
-      <c r="DS23" s="81"/>
-      <c r="DT23" s="75"/>
-      <c r="DU23" s="82"/>
-      <c r="DV23" s="82"/>
-      <c r="DW23" s="81"/>
-      <c r="DX23" s="75"/>
-      <c r="DY23" s="81"/>
-      <c r="DZ23" s="75"/>
-      <c r="EA23" s="82"/>
-      <c r="EB23" s="82"/>
-      <c r="EC23" s="82"/>
-      <c r="ED23" s="82"/>
-      <c r="EE23" s="81"/>
-      <c r="EF23" s="75"/>
-      <c r="EG23" s="82"/>
-      <c r="EH23" s="82"/>
-      <c r="EI23" s="81"/>
-      <c r="EJ23" s="75"/>
-      <c r="EK23" s="81"/>
-      <c r="EL23" s="75"/>
-      <c r="EM23" s="82"/>
-      <c r="EN23" s="82"/>
-      <c r="EO23" s="81"/>
-      <c r="EP23" s="75"/>
-      <c r="EQ23" s="81"/>
-      <c r="ER23" s="75"/>
-      <c r="ES23" s="76"/>
+      <c r="DH23" s="66"/>
+      <c r="DI23" s="67"/>
+      <c r="DJ23" s="67"/>
+      <c r="DK23" s="68"/>
+      <c r="DL23" s="66"/>
+      <c r="DM23" s="67"/>
+      <c r="DN23" s="67"/>
+      <c r="DO23" s="68"/>
+      <c r="DP23" s="66"/>
+      <c r="DQ23" s="67"/>
+      <c r="DR23" s="67"/>
+      <c r="DS23" s="68"/>
+      <c r="DT23" s="66"/>
+      <c r="DU23" s="67"/>
+      <c r="DV23" s="67"/>
+      <c r="DW23" s="68"/>
+      <c r="DX23" s="66"/>
+      <c r="DY23" s="68"/>
+      <c r="DZ23" s="66"/>
+      <c r="EA23" s="67"/>
+      <c r="EB23" s="67"/>
+      <c r="EC23" s="67"/>
+      <c r="ED23" s="67"/>
+      <c r="EE23" s="68"/>
+      <c r="EF23" s="66"/>
+      <c r="EG23" s="67"/>
+      <c r="EH23" s="67"/>
+      <c r="EI23" s="68"/>
+      <c r="EJ23" s="66"/>
+      <c r="EK23" s="68"/>
+      <c r="EL23" s="66"/>
+      <c r="EM23" s="67"/>
+      <c r="EN23" s="67"/>
+      <c r="EO23" s="68"/>
+      <c r="EP23" s="66"/>
+      <c r="EQ23" s="68"/>
+      <c r="ER23" s="66"/>
+      <c r="ES23" s="110"/>
     </row>
     <row r="24" spans="1:149" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="98"/>
-      <c r="B24" s="77">
+      <c r="A24" s="97"/>
+      <c r="B24" s="99">
         <v>11</v>
       </c>
-      <c r="C24" s="77" t="s">
+      <c r="C24" s="99" t="s">
         <v>177</v>
       </c>
-      <c r="D24" s="79"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="67"/>
-      <c r="M24" s="73"/>
-      <c r="N24" s="73"/>
-      <c r="O24" s="71"/>
-      <c r="P24" s="67"/>
-      <c r="Q24" s="73"/>
-      <c r="R24" s="73"/>
-      <c r="S24" s="71"/>
-      <c r="T24" s="67"/>
-      <c r="U24" s="73"/>
-      <c r="V24" s="73"/>
-      <c r="W24" s="71"/>
-      <c r="X24" s="67"/>
-      <c r="Y24" s="73"/>
-      <c r="Z24" s="73"/>
-      <c r="AA24" s="71"/>
-      <c r="AB24" s="67"/>
-      <c r="AC24" s="73"/>
-      <c r="AD24" s="73"/>
-      <c r="AE24" s="71"/>
-      <c r="AF24" s="67"/>
-      <c r="AG24" s="71"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="82"/>
+      <c r="K24" s="83"/>
+      <c r="L24" s="81"/>
+      <c r="M24" s="82"/>
+      <c r="N24" s="82"/>
+      <c r="O24" s="83"/>
+      <c r="P24" s="81"/>
+      <c r="Q24" s="82"/>
+      <c r="R24" s="82"/>
+      <c r="S24" s="83"/>
+      <c r="T24" s="81"/>
+      <c r="U24" s="82"/>
+      <c r="V24" s="82"/>
+      <c r="W24" s="83"/>
+      <c r="X24" s="81"/>
+      <c r="Y24" s="82"/>
+      <c r="Z24" s="82"/>
+      <c r="AA24" s="83"/>
+      <c r="AB24" s="81"/>
+      <c r="AC24" s="82"/>
+      <c r="AD24" s="82"/>
+      <c r="AE24" s="83"/>
+      <c r="AF24" s="81"/>
+      <c r="AG24" s="83"/>
       <c r="AH24" s="61" t="s">
         <v>60</v>
       </c>
       <c r="AI24" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="AJ24" s="57" t="s">
+      <c r="AJ24" s="69" t="s">
         <v>62</v>
       </c>
       <c r="AK24" s="7" t="s">
@@ -7356,7 +7418,7 @@
       </c>
       <c r="AR24" s="2"/>
       <c r="AS24" s="3"/>
-      <c r="AT24" s="63" t="s">
+      <c r="AT24" s="71" t="s">
         <v>142</v>
       </c>
       <c r="AU24" s="27" t="s">
@@ -7364,7 +7426,7 @@
       </c>
       <c r="AV24" s="18"/>
       <c r="AW24" s="19"/>
-      <c r="AX24" s="63" t="s">
+      <c r="AX24" s="71" t="s">
         <v>46</v>
       </c>
       <c r="AY24" s="27" t="s">
@@ -7380,38 +7442,38 @@
       </c>
       <c r="BD24" s="2"/>
       <c r="BE24" s="3"/>
-      <c r="BF24" s="67"/>
-      <c r="BG24" s="73"/>
-      <c r="BH24" s="73"/>
-      <c r="BI24" s="71"/>
-      <c r="BJ24" s="67"/>
-      <c r="BK24" s="71"/>
-      <c r="BL24" s="67"/>
-      <c r="BM24" s="73"/>
-      <c r="BN24" s="73"/>
-      <c r="BO24" s="71"/>
-      <c r="BP24" s="67"/>
-      <c r="BQ24" s="71"/>
-      <c r="BR24" s="67"/>
-      <c r="BS24" s="73"/>
-      <c r="BT24" s="73"/>
-      <c r="BU24" s="71"/>
-      <c r="BV24" s="67"/>
-      <c r="BW24" s="73"/>
-      <c r="BX24" s="73"/>
-      <c r="BY24" s="71"/>
-      <c r="BZ24" s="67"/>
-      <c r="CA24" s="71"/>
-      <c r="CB24" s="67"/>
-      <c r="CC24" s="73"/>
-      <c r="CD24" s="73"/>
-      <c r="CE24" s="71"/>
-      <c r="CF24" s="67"/>
-      <c r="CG24" s="73"/>
-      <c r="CH24" s="73"/>
-      <c r="CI24" s="71"/>
-      <c r="CJ24" s="67"/>
-      <c r="CK24" s="71"/>
+      <c r="BF24" s="81"/>
+      <c r="BG24" s="82"/>
+      <c r="BH24" s="82"/>
+      <c r="BI24" s="83"/>
+      <c r="BJ24" s="81"/>
+      <c r="BK24" s="83"/>
+      <c r="BL24" s="81"/>
+      <c r="BM24" s="82"/>
+      <c r="BN24" s="82"/>
+      <c r="BO24" s="83"/>
+      <c r="BP24" s="81"/>
+      <c r="BQ24" s="83"/>
+      <c r="BR24" s="81"/>
+      <c r="BS24" s="82"/>
+      <c r="BT24" s="82"/>
+      <c r="BU24" s="83"/>
+      <c r="BV24" s="81"/>
+      <c r="BW24" s="82"/>
+      <c r="BX24" s="82"/>
+      <c r="BY24" s="83"/>
+      <c r="BZ24" s="81"/>
+      <c r="CA24" s="83"/>
+      <c r="CB24" s="81"/>
+      <c r="CC24" s="82"/>
+      <c r="CD24" s="82"/>
+      <c r="CE24" s="83"/>
+      <c r="CF24" s="81"/>
+      <c r="CG24" s="82"/>
+      <c r="CH24" s="82"/>
+      <c r="CI24" s="83"/>
+      <c r="CJ24" s="81"/>
+      <c r="CK24" s="83"/>
       <c r="CL24" s="61" t="s">
         <v>119</v>
       </c>
@@ -7450,7 +7512,7 @@
       <c r="DC24" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="DD24" s="63" t="s">
+      <c r="DD24" s="71" t="s">
         <v>76</v>
       </c>
       <c r="DE24" s="27" t="s">
@@ -7458,84 +7520,84 @@
       </c>
       <c r="DF24" s="18"/>
       <c r="DG24" s="19"/>
-      <c r="DH24" s="67"/>
-      <c r="DI24" s="73"/>
-      <c r="DJ24" s="73"/>
-      <c r="DK24" s="71"/>
-      <c r="DL24" s="67"/>
-      <c r="DM24" s="73"/>
-      <c r="DN24" s="73"/>
-      <c r="DO24" s="71"/>
-      <c r="DP24" s="67"/>
-      <c r="DQ24" s="73"/>
-      <c r="DR24" s="73"/>
-      <c r="DS24" s="71"/>
-      <c r="DT24" s="67"/>
-      <c r="DU24" s="73"/>
-      <c r="DV24" s="73"/>
-      <c r="DW24" s="71"/>
-      <c r="DX24" s="67"/>
-      <c r="DY24" s="71"/>
-      <c r="DZ24" s="67"/>
-      <c r="EA24" s="73"/>
-      <c r="EB24" s="73"/>
-      <c r="EC24" s="73"/>
-      <c r="ED24" s="73"/>
-      <c r="EE24" s="71"/>
-      <c r="EF24" s="67"/>
-      <c r="EG24" s="73"/>
-      <c r="EH24" s="73"/>
-      <c r="EI24" s="71"/>
-      <c r="EJ24" s="67"/>
-      <c r="EK24" s="71"/>
-      <c r="EL24" s="67"/>
-      <c r="EM24" s="73"/>
-      <c r="EN24" s="73"/>
-      <c r="EO24" s="71"/>
-      <c r="EP24" s="67"/>
-      <c r="EQ24" s="71"/>
-      <c r="ER24" s="67"/>
-      <c r="ES24" s="68"/>
+      <c r="DH24" s="81"/>
+      <c r="DI24" s="82"/>
+      <c r="DJ24" s="82"/>
+      <c r="DK24" s="83"/>
+      <c r="DL24" s="81"/>
+      <c r="DM24" s="82"/>
+      <c r="DN24" s="82"/>
+      <c r="DO24" s="83"/>
+      <c r="DP24" s="81"/>
+      <c r="DQ24" s="82"/>
+      <c r="DR24" s="82"/>
+      <c r="DS24" s="83"/>
+      <c r="DT24" s="81"/>
+      <c r="DU24" s="82"/>
+      <c r="DV24" s="82"/>
+      <c r="DW24" s="83"/>
+      <c r="DX24" s="81"/>
+      <c r="DY24" s="83"/>
+      <c r="DZ24" s="81"/>
+      <c r="EA24" s="82"/>
+      <c r="EB24" s="82"/>
+      <c r="EC24" s="82"/>
+      <c r="ED24" s="82"/>
+      <c r="EE24" s="83"/>
+      <c r="EF24" s="81"/>
+      <c r="EG24" s="82"/>
+      <c r="EH24" s="82"/>
+      <c r="EI24" s="83"/>
+      <c r="EJ24" s="81"/>
+      <c r="EK24" s="83"/>
+      <c r="EL24" s="81"/>
+      <c r="EM24" s="82"/>
+      <c r="EN24" s="82"/>
+      <c r="EO24" s="83"/>
+      <c r="EP24" s="81"/>
+      <c r="EQ24" s="83"/>
+      <c r="ER24" s="81"/>
+      <c r="ES24" s="109"/>
     </row>
     <row r="25" spans="1:149" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="98"/>
-      <c r="B25" s="83"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="82"/>
-      <c r="K25" s="81"/>
-      <c r="L25" s="75"/>
-      <c r="M25" s="82"/>
-      <c r="N25" s="82"/>
-      <c r="O25" s="81"/>
-      <c r="P25" s="75"/>
-      <c r="Q25" s="82"/>
-      <c r="R25" s="82"/>
-      <c r="S25" s="81"/>
-      <c r="T25" s="75"/>
-      <c r="U25" s="82"/>
-      <c r="V25" s="82"/>
-      <c r="W25" s="81"/>
-      <c r="X25" s="75"/>
-      <c r="Y25" s="82"/>
-      <c r="Z25" s="82"/>
-      <c r="AA25" s="81"/>
-      <c r="AB25" s="75"/>
-      <c r="AC25" s="82"/>
-      <c r="AD25" s="82"/>
-      <c r="AE25" s="81"/>
-      <c r="AF25" s="75"/>
-      <c r="AG25" s="81"/>
+      <c r="A25" s="97"/>
+      <c r="B25" s="100"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="119"/>
+      <c r="I25" s="120"/>
+      <c r="J25" s="120"/>
+      <c r="K25" s="121"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="67"/>
+      <c r="N25" s="67"/>
+      <c r="O25" s="68"/>
+      <c r="P25" s="66"/>
+      <c r="Q25" s="67"/>
+      <c r="R25" s="67"/>
+      <c r="S25" s="68"/>
+      <c r="T25" s="66"/>
+      <c r="U25" s="67"/>
+      <c r="V25" s="67"/>
+      <c r="W25" s="68"/>
+      <c r="X25" s="66"/>
+      <c r="Y25" s="67"/>
+      <c r="Z25" s="67"/>
+      <c r="AA25" s="68"/>
+      <c r="AB25" s="66"/>
+      <c r="AC25" s="67"/>
+      <c r="AD25" s="67"/>
+      <c r="AE25" s="68"/>
+      <c r="AF25" s="66"/>
+      <c r="AG25" s="68"/>
       <c r="AH25" s="62"/>
       <c r="AI25" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AJ25" s="58"/>
+      <c r="AJ25" s="70"/>
       <c r="AK25" s="8" t="s">
         <v>65</v>
       </c>
@@ -7551,13 +7613,13 @@
       </c>
       <c r="AR25" s="5"/>
       <c r="AS25" s="6"/>
-      <c r="AT25" s="64"/>
+      <c r="AT25" s="72"/>
       <c r="AU25" s="29" t="s">
         <v>179</v>
       </c>
       <c r="AV25" s="21"/>
       <c r="AW25" s="22"/>
-      <c r="AX25" s="64"/>
+      <c r="AX25" s="72"/>
       <c r="AY25" s="29" t="s">
         <v>72</v>
       </c>
@@ -7569,38 +7631,38 @@
       </c>
       <c r="BD25" s="5"/>
       <c r="BE25" s="6"/>
-      <c r="BF25" s="75"/>
-      <c r="BG25" s="82"/>
-      <c r="BH25" s="82"/>
-      <c r="BI25" s="81"/>
-      <c r="BJ25" s="75"/>
-      <c r="BK25" s="81"/>
-      <c r="BL25" s="75"/>
-      <c r="BM25" s="82"/>
-      <c r="BN25" s="82"/>
-      <c r="BO25" s="81"/>
-      <c r="BP25" s="75"/>
-      <c r="BQ25" s="81"/>
-      <c r="BR25" s="75"/>
-      <c r="BS25" s="82"/>
-      <c r="BT25" s="82"/>
-      <c r="BU25" s="81"/>
-      <c r="BV25" s="75"/>
-      <c r="BW25" s="82"/>
-      <c r="BX25" s="82"/>
-      <c r="BY25" s="81"/>
-      <c r="BZ25" s="75"/>
-      <c r="CA25" s="81"/>
-      <c r="CB25" s="75"/>
-      <c r="CC25" s="82"/>
-      <c r="CD25" s="82"/>
-      <c r="CE25" s="81"/>
-      <c r="CF25" s="75"/>
-      <c r="CG25" s="82"/>
-      <c r="CH25" s="82"/>
-      <c r="CI25" s="81"/>
-      <c r="CJ25" s="75"/>
-      <c r="CK25" s="81"/>
+      <c r="BF25" s="66"/>
+      <c r="BG25" s="67"/>
+      <c r="BH25" s="67"/>
+      <c r="BI25" s="68"/>
+      <c r="BJ25" s="66"/>
+      <c r="BK25" s="68"/>
+      <c r="BL25" s="66"/>
+      <c r="BM25" s="67"/>
+      <c r="BN25" s="67"/>
+      <c r="BO25" s="68"/>
+      <c r="BP25" s="66"/>
+      <c r="BQ25" s="68"/>
+      <c r="BR25" s="66"/>
+      <c r="BS25" s="67"/>
+      <c r="BT25" s="67"/>
+      <c r="BU25" s="68"/>
+      <c r="BV25" s="66"/>
+      <c r="BW25" s="67"/>
+      <c r="BX25" s="67"/>
+      <c r="BY25" s="68"/>
+      <c r="BZ25" s="66"/>
+      <c r="CA25" s="68"/>
+      <c r="CB25" s="66"/>
+      <c r="CC25" s="67"/>
+      <c r="CD25" s="67"/>
+      <c r="CE25" s="68"/>
+      <c r="CF25" s="66"/>
+      <c r="CG25" s="67"/>
+      <c r="CH25" s="67"/>
+      <c r="CI25" s="68"/>
+      <c r="CJ25" s="66"/>
+      <c r="CK25" s="68"/>
       <c r="CL25" s="62"/>
       <c r="CM25" s="4" t="s">
         <v>59</v>
@@ -7629,89 +7691,91 @@
       <c r="DC25" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="DD25" s="64"/>
+      <c r="DD25" s="72"/>
       <c r="DE25" s="29" t="s">
         <v>97</v>
       </c>
       <c r="DF25" s="21"/>
       <c r="DG25" s="22"/>
-      <c r="DH25" s="75"/>
-      <c r="DI25" s="82"/>
-      <c r="DJ25" s="82"/>
-      <c r="DK25" s="81"/>
-      <c r="DL25" s="75"/>
-      <c r="DM25" s="82"/>
-      <c r="DN25" s="82"/>
-      <c r="DO25" s="81"/>
-      <c r="DP25" s="75"/>
-      <c r="DQ25" s="82"/>
-      <c r="DR25" s="82"/>
-      <c r="DS25" s="81"/>
-      <c r="DT25" s="75"/>
-      <c r="DU25" s="82"/>
-      <c r="DV25" s="82"/>
-      <c r="DW25" s="81"/>
-      <c r="DX25" s="75"/>
-      <c r="DY25" s="81"/>
-      <c r="DZ25" s="75"/>
-      <c r="EA25" s="82"/>
-      <c r="EB25" s="82"/>
-      <c r="EC25" s="82"/>
-      <c r="ED25" s="82"/>
-      <c r="EE25" s="81"/>
-      <c r="EF25" s="75"/>
-      <c r="EG25" s="82"/>
-      <c r="EH25" s="82"/>
-      <c r="EI25" s="81"/>
-      <c r="EJ25" s="75"/>
-      <c r="EK25" s="81"/>
-      <c r="EL25" s="75"/>
-      <c r="EM25" s="82"/>
-      <c r="EN25" s="82"/>
-      <c r="EO25" s="81"/>
-      <c r="EP25" s="75"/>
-      <c r="EQ25" s="81"/>
-      <c r="ER25" s="75"/>
-      <c r="ES25" s="76"/>
+      <c r="DH25" s="66"/>
+      <c r="DI25" s="67"/>
+      <c r="DJ25" s="67"/>
+      <c r="DK25" s="68"/>
+      <c r="DL25" s="66"/>
+      <c r="DM25" s="67"/>
+      <c r="DN25" s="67"/>
+      <c r="DO25" s="68"/>
+      <c r="DP25" s="66"/>
+      <c r="DQ25" s="67"/>
+      <c r="DR25" s="67"/>
+      <c r="DS25" s="68"/>
+      <c r="DT25" s="66"/>
+      <c r="DU25" s="67"/>
+      <c r="DV25" s="67"/>
+      <c r="DW25" s="68"/>
+      <c r="DX25" s="66"/>
+      <c r="DY25" s="68"/>
+      <c r="DZ25" s="66"/>
+      <c r="EA25" s="67"/>
+      <c r="EB25" s="67"/>
+      <c r="EC25" s="67"/>
+      <c r="ED25" s="67"/>
+      <c r="EE25" s="68"/>
+      <c r="EF25" s="66"/>
+      <c r="EG25" s="67"/>
+      <c r="EH25" s="67"/>
+      <c r="EI25" s="68"/>
+      <c r="EJ25" s="66"/>
+      <c r="EK25" s="68"/>
+      <c r="EL25" s="66"/>
+      <c r="EM25" s="67"/>
+      <c r="EN25" s="67"/>
+      <c r="EO25" s="68"/>
+      <c r="EP25" s="66"/>
+      <c r="EQ25" s="68"/>
+      <c r="ER25" s="66"/>
+      <c r="ES25" s="110"/>
     </row>
     <row r="26" spans="1:149" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="98"/>
-      <c r="B26" s="77">
+      <c r="A26" s="97"/>
+      <c r="B26" s="99">
         <v>12</v>
       </c>
-      <c r="C26" s="77" t="s">
+      <c r="C26" s="99" t="s">
         <v>178</v>
       </c>
-      <c r="D26" s="79"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="71"/>
-      <c r="L26" s="67"/>
-      <c r="M26" s="73"/>
-      <c r="N26" s="73"/>
-      <c r="O26" s="71"/>
-      <c r="P26" s="67"/>
-      <c r="Q26" s="73"/>
-      <c r="R26" s="73"/>
-      <c r="S26" s="71"/>
-      <c r="T26" s="67"/>
-      <c r="U26" s="73"/>
-      <c r="V26" s="73"/>
-      <c r="W26" s="71"/>
-      <c r="X26" s="67"/>
-      <c r="Y26" s="73"/>
-      <c r="Z26" s="73"/>
-      <c r="AA26" s="71"/>
-      <c r="AB26" s="67"/>
-      <c r="AC26" s="73"/>
-      <c r="AD26" s="73"/>
-      <c r="AE26" s="71"/>
-      <c r="AF26" s="67"/>
-      <c r="AG26" s="71"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="122" t="s">
+        <v>186</v>
+      </c>
+      <c r="I26" s="122"/>
+      <c r="J26" s="122"/>
+      <c r="K26" s="122"/>
+      <c r="L26" s="82"/>
+      <c r="M26" s="82"/>
+      <c r="N26" s="82"/>
+      <c r="O26" s="83"/>
+      <c r="P26" s="81"/>
+      <c r="Q26" s="82"/>
+      <c r="R26" s="82"/>
+      <c r="S26" s="83"/>
+      <c r="T26" s="81"/>
+      <c r="U26" s="82"/>
+      <c r="V26" s="82"/>
+      <c r="W26" s="83"/>
+      <c r="X26" s="81"/>
+      <c r="Y26" s="82"/>
+      <c r="Z26" s="82"/>
+      <c r="AA26" s="83"/>
+      <c r="AB26" s="81"/>
+      <c r="AC26" s="82"/>
+      <c r="AD26" s="82"/>
+      <c r="AE26" s="83"/>
+      <c r="AF26" s="81"/>
+      <c r="AG26" s="83"/>
       <c r="AH26" s="61" t="s">
         <v>119</v>
       </c>
@@ -7730,17 +7794,17 @@
       <c r="AQ26" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="AR26" s="57" t="s">
+      <c r="AR26" s="69" t="s">
         <v>62</v>
       </c>
       <c r="AS26" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="AT26" s="63"/>
+      <c r="AT26" s="71"/>
       <c r="AU26" s="27"/>
       <c r="AV26" s="18"/>
       <c r="AW26" s="19"/>
-      <c r="AX26" s="63" t="s">
+      <c r="AX26" s="71" t="s">
         <v>46</v>
       </c>
       <c r="AY26" s="27" t="s">
@@ -7756,38 +7820,38 @@
       </c>
       <c r="BD26" s="2"/>
       <c r="BE26" s="3"/>
-      <c r="BF26" s="67"/>
-      <c r="BG26" s="73"/>
-      <c r="BH26" s="73"/>
-      <c r="BI26" s="71"/>
-      <c r="BJ26" s="67"/>
-      <c r="BK26" s="71"/>
-      <c r="BL26" s="67"/>
-      <c r="BM26" s="73"/>
-      <c r="BN26" s="73"/>
-      <c r="BO26" s="71"/>
-      <c r="BP26" s="67"/>
-      <c r="BQ26" s="71"/>
-      <c r="BR26" s="67"/>
-      <c r="BS26" s="73"/>
-      <c r="BT26" s="73"/>
-      <c r="BU26" s="71"/>
-      <c r="BV26" s="67"/>
-      <c r="BW26" s="73"/>
-      <c r="BX26" s="73"/>
-      <c r="BY26" s="71"/>
-      <c r="BZ26" s="67"/>
-      <c r="CA26" s="71"/>
-      <c r="CB26" s="67"/>
-      <c r="CC26" s="73"/>
-      <c r="CD26" s="73"/>
-      <c r="CE26" s="71"/>
-      <c r="CF26" s="67"/>
-      <c r="CG26" s="73"/>
-      <c r="CH26" s="73"/>
-      <c r="CI26" s="71"/>
-      <c r="CJ26" s="67"/>
-      <c r="CK26" s="71"/>
+      <c r="BF26" s="81"/>
+      <c r="BG26" s="82"/>
+      <c r="BH26" s="82"/>
+      <c r="BI26" s="83"/>
+      <c r="BJ26" s="81"/>
+      <c r="BK26" s="83"/>
+      <c r="BL26" s="81"/>
+      <c r="BM26" s="82"/>
+      <c r="BN26" s="82"/>
+      <c r="BO26" s="83"/>
+      <c r="BP26" s="81"/>
+      <c r="BQ26" s="83"/>
+      <c r="BR26" s="81"/>
+      <c r="BS26" s="82"/>
+      <c r="BT26" s="82"/>
+      <c r="BU26" s="83"/>
+      <c r="BV26" s="81"/>
+      <c r="BW26" s="82"/>
+      <c r="BX26" s="82"/>
+      <c r="BY26" s="83"/>
+      <c r="BZ26" s="81"/>
+      <c r="CA26" s="83"/>
+      <c r="CB26" s="81"/>
+      <c r="CC26" s="82"/>
+      <c r="CD26" s="82"/>
+      <c r="CE26" s="83"/>
+      <c r="CF26" s="81"/>
+      <c r="CG26" s="82"/>
+      <c r="CH26" s="82"/>
+      <c r="CI26" s="83"/>
+      <c r="CJ26" s="81"/>
+      <c r="CK26" s="83"/>
       <c r="CL26" s="61" t="s">
         <v>73</v>
       </c>
@@ -7804,10 +7868,10 @@
       </c>
       <c r="CR26" s="2"/>
       <c r="CS26" s="3"/>
-      <c r="CT26" s="67"/>
-      <c r="CU26" s="73"/>
-      <c r="CV26" s="73"/>
-      <c r="CW26" s="71"/>
+      <c r="CT26" s="81"/>
+      <c r="CU26" s="82"/>
+      <c r="CV26" s="82"/>
+      <c r="CW26" s="83"/>
       <c r="CX26" s="61" t="s">
         <v>70</v>
       </c>
@@ -7816,262 +7880,765 @@
       </c>
       <c r="CZ26" s="2"/>
       <c r="DA26" s="3"/>
-      <c r="DB26" s="63" t="s">
+      <c r="DB26" s="71" t="s">
         <v>52</v>
       </c>
       <c r="DC26" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="DD26" s="67"/>
-      <c r="DE26" s="73"/>
-      <c r="DF26" s="73"/>
-      <c r="DG26" s="71"/>
-      <c r="DH26" s="67"/>
-      <c r="DI26" s="73"/>
-      <c r="DJ26" s="73"/>
-      <c r="DK26" s="71"/>
-      <c r="DL26" s="67"/>
-      <c r="DM26" s="73"/>
-      <c r="DN26" s="73"/>
-      <c r="DO26" s="71"/>
-      <c r="DP26" s="67"/>
-      <c r="DQ26" s="73"/>
-      <c r="DR26" s="73"/>
-      <c r="DS26" s="71"/>
-      <c r="DT26" s="67"/>
-      <c r="DU26" s="73"/>
-      <c r="DV26" s="73"/>
-      <c r="DW26" s="71"/>
-      <c r="DX26" s="67"/>
-      <c r="DY26" s="71"/>
-      <c r="DZ26" s="67"/>
-      <c r="EA26" s="73"/>
-      <c r="EB26" s="73"/>
-      <c r="EC26" s="73"/>
-      <c r="ED26" s="73"/>
-      <c r="EE26" s="71"/>
-      <c r="EF26" s="67"/>
-      <c r="EG26" s="73"/>
-      <c r="EH26" s="73"/>
-      <c r="EI26" s="71"/>
-      <c r="EJ26" s="67"/>
-      <c r="EK26" s="71"/>
-      <c r="EL26" s="67"/>
-      <c r="EM26" s="73"/>
-      <c r="EN26" s="73"/>
-      <c r="EO26" s="71"/>
-      <c r="EP26" s="67"/>
-      <c r="EQ26" s="71"/>
-      <c r="ER26" s="67"/>
-      <c r="ES26" s="68"/>
+      <c r="DD26" s="81"/>
+      <c r="DE26" s="82"/>
+      <c r="DF26" s="82"/>
+      <c r="DG26" s="83"/>
+      <c r="DH26" s="81"/>
+      <c r="DI26" s="82"/>
+      <c r="DJ26" s="82"/>
+      <c r="DK26" s="83"/>
+      <c r="DL26" s="81"/>
+      <c r="DM26" s="82"/>
+      <c r="DN26" s="82"/>
+      <c r="DO26" s="83"/>
+      <c r="DP26" s="81"/>
+      <c r="DQ26" s="82"/>
+      <c r="DR26" s="82"/>
+      <c r="DS26" s="83"/>
+      <c r="DT26" s="81"/>
+      <c r="DU26" s="82"/>
+      <c r="DV26" s="82"/>
+      <c r="DW26" s="83"/>
+      <c r="DX26" s="81"/>
+      <c r="DY26" s="83"/>
+      <c r="DZ26" s="81"/>
+      <c r="EA26" s="82"/>
+      <c r="EB26" s="82"/>
+      <c r="EC26" s="82"/>
+      <c r="ED26" s="82"/>
+      <c r="EE26" s="83"/>
+      <c r="EF26" s="81"/>
+      <c r="EG26" s="82"/>
+      <c r="EH26" s="82"/>
+      <c r="EI26" s="83"/>
+      <c r="EJ26" s="81"/>
+      <c r="EK26" s="83"/>
+      <c r="EL26" s="81"/>
+      <c r="EM26" s="82"/>
+      <c r="EN26" s="82"/>
+      <c r="EO26" s="83"/>
+      <c r="EP26" s="81"/>
+      <c r="EQ26" s="83"/>
+      <c r="ER26" s="81"/>
+      <c r="ES26" s="109"/>
     </row>
     <row r="27" spans="1:149" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="99"/>
-      <c r="B27" s="78"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
-      <c r="K27" s="72"/>
-      <c r="L27" s="69"/>
-      <c r="M27" s="74"/>
-      <c r="N27" s="74"/>
-      <c r="O27" s="72"/>
-      <c r="P27" s="69"/>
-      <c r="Q27" s="74"/>
-      <c r="R27" s="74"/>
-      <c r="S27" s="72"/>
-      <c r="T27" s="69"/>
-      <c r="U27" s="74"/>
-      <c r="V27" s="74"/>
-      <c r="W27" s="72"/>
-      <c r="X27" s="69"/>
-      <c r="Y27" s="74"/>
-      <c r="Z27" s="74"/>
-      <c r="AA27" s="72"/>
-      <c r="AB27" s="69"/>
-      <c r="AC27" s="74"/>
-      <c r="AD27" s="74"/>
-      <c r="AE27" s="72"/>
-      <c r="AF27" s="69"/>
-      <c r="AG27" s="72"/>
-      <c r="AH27" s="105"/>
+      <c r="A27" s="98"/>
+      <c r="B27" s="111"/>
+      <c r="C27" s="111"/>
+      <c r="D27" s="112"/>
+      <c r="E27" s="113"/>
+      <c r="F27" s="113"/>
+      <c r="G27" s="113"/>
+      <c r="H27" s="123"/>
+      <c r="I27" s="123"/>
+      <c r="J27" s="123"/>
+      <c r="K27" s="123"/>
+      <c r="L27" s="113"/>
+      <c r="M27" s="113"/>
+      <c r="N27" s="113"/>
+      <c r="O27" s="114"/>
+      <c r="P27" s="115"/>
+      <c r="Q27" s="113"/>
+      <c r="R27" s="113"/>
+      <c r="S27" s="114"/>
+      <c r="T27" s="115"/>
+      <c r="U27" s="113"/>
+      <c r="V27" s="113"/>
+      <c r="W27" s="114"/>
+      <c r="X27" s="115"/>
+      <c r="Y27" s="113"/>
+      <c r="Z27" s="113"/>
+      <c r="AA27" s="114"/>
+      <c r="AB27" s="115"/>
+      <c r="AC27" s="113"/>
+      <c r="AD27" s="113"/>
+      <c r="AE27" s="114"/>
+      <c r="AF27" s="115"/>
+      <c r="AG27" s="114"/>
+      <c r="AH27" s="87"/>
       <c r="AI27" s="15" t="s">
         <v>78</v>
       </c>
       <c r="AJ27" s="13"/>
       <c r="AK27" s="14"/>
-      <c r="AL27" s="105"/>
+      <c r="AL27" s="87"/>
       <c r="AM27" s="15"/>
       <c r="AN27" s="13"/>
       <c r="AO27" s="14"/>
-      <c r="AP27" s="105"/>
+      <c r="AP27" s="87"/>
       <c r="AQ27" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="AR27" s="109"/>
+      <c r="AR27" s="94"/>
       <c r="AS27" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="AT27" s="64"/>
+      <c r="AT27" s="72"/>
       <c r="AU27" s="29"/>
       <c r="AV27" s="21"/>
       <c r="AW27" s="22"/>
-      <c r="AX27" s="64"/>
+      <c r="AX27" s="72"/>
       <c r="AY27" s="29" t="s">
         <v>72</v>
       </c>
       <c r="AZ27" s="21"/>
       <c r="BA27" s="22"/>
-      <c r="BB27" s="105"/>
+      <c r="BB27" s="87"/>
       <c r="BC27" s="15" t="s">
         <v>48</v>
       </c>
       <c r="BD27" s="13"/>
       <c r="BE27" s="14"/>
-      <c r="BF27" s="69"/>
-      <c r="BG27" s="74"/>
-      <c r="BH27" s="74"/>
-      <c r="BI27" s="72"/>
-      <c r="BJ27" s="69"/>
-      <c r="BK27" s="72"/>
-      <c r="BL27" s="69"/>
-      <c r="BM27" s="74"/>
-      <c r="BN27" s="74"/>
-      <c r="BO27" s="72"/>
-      <c r="BP27" s="69"/>
-      <c r="BQ27" s="72"/>
-      <c r="BR27" s="69"/>
-      <c r="BS27" s="74"/>
-      <c r="BT27" s="74"/>
-      <c r="BU27" s="72"/>
-      <c r="BV27" s="69"/>
-      <c r="BW27" s="74"/>
-      <c r="BX27" s="74"/>
-      <c r="BY27" s="72"/>
-      <c r="BZ27" s="69"/>
-      <c r="CA27" s="72"/>
-      <c r="CB27" s="69"/>
-      <c r="CC27" s="74"/>
-      <c r="CD27" s="74"/>
-      <c r="CE27" s="72"/>
-      <c r="CF27" s="69"/>
-      <c r="CG27" s="74"/>
-      <c r="CH27" s="74"/>
-      <c r="CI27" s="72"/>
-      <c r="CJ27" s="69"/>
-      <c r="CK27" s="72"/>
-      <c r="CL27" s="105"/>
+      <c r="BF27" s="115"/>
+      <c r="BG27" s="113"/>
+      <c r="BH27" s="113"/>
+      <c r="BI27" s="114"/>
+      <c r="BJ27" s="115"/>
+      <c r="BK27" s="114"/>
+      <c r="BL27" s="115"/>
+      <c r="BM27" s="113"/>
+      <c r="BN27" s="113"/>
+      <c r="BO27" s="114"/>
+      <c r="BP27" s="115"/>
+      <c r="BQ27" s="114"/>
+      <c r="BR27" s="115"/>
+      <c r="BS27" s="113"/>
+      <c r="BT27" s="113"/>
+      <c r="BU27" s="114"/>
+      <c r="BV27" s="115"/>
+      <c r="BW27" s="113"/>
+      <c r="BX27" s="113"/>
+      <c r="BY27" s="114"/>
+      <c r="BZ27" s="115"/>
+      <c r="CA27" s="114"/>
+      <c r="CB27" s="115"/>
+      <c r="CC27" s="113"/>
+      <c r="CD27" s="113"/>
+      <c r="CE27" s="114"/>
+      <c r="CF27" s="115"/>
+      <c r="CG27" s="113"/>
+      <c r="CH27" s="113"/>
+      <c r="CI27" s="114"/>
+      <c r="CJ27" s="115"/>
+      <c r="CK27" s="114"/>
+      <c r="CL27" s="87"/>
       <c r="CM27" s="15" t="s">
         <v>59</v>
       </c>
       <c r="CN27" s="13"/>
       <c r="CO27" s="14"/>
-      <c r="CP27" s="105"/>
+      <c r="CP27" s="87"/>
       <c r="CQ27" s="15" t="s">
         <v>102</v>
       </c>
       <c r="CR27" s="13"/>
       <c r="CS27" s="14"/>
-      <c r="CT27" s="69"/>
-      <c r="CU27" s="74"/>
-      <c r="CV27" s="74"/>
-      <c r="CW27" s="72"/>
-      <c r="CX27" s="105"/>
+      <c r="CT27" s="115"/>
+      <c r="CU27" s="113"/>
+      <c r="CV27" s="113"/>
+      <c r="CW27" s="114"/>
+      <c r="CX27" s="87"/>
       <c r="CY27" s="15" t="s">
         <v>54</v>
       </c>
       <c r="CZ27" s="13"/>
       <c r="DA27" s="14"/>
-      <c r="DB27" s="64"/>
+      <c r="DB27" s="72"/>
       <c r="DC27" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="DD27" s="69"/>
-      <c r="DE27" s="74"/>
-      <c r="DF27" s="74"/>
-      <c r="DG27" s="72"/>
-      <c r="DH27" s="69"/>
-      <c r="DI27" s="74"/>
-      <c r="DJ27" s="74"/>
-      <c r="DK27" s="72"/>
-      <c r="DL27" s="69"/>
-      <c r="DM27" s="74"/>
-      <c r="DN27" s="74"/>
-      <c r="DO27" s="72"/>
-      <c r="DP27" s="69"/>
-      <c r="DQ27" s="74"/>
-      <c r="DR27" s="74"/>
-      <c r="DS27" s="72"/>
-      <c r="DT27" s="69"/>
-      <c r="DU27" s="74"/>
-      <c r="DV27" s="74"/>
-      <c r="DW27" s="72"/>
-      <c r="DX27" s="69"/>
-      <c r="DY27" s="72"/>
-      <c r="DZ27" s="69"/>
-      <c r="EA27" s="74"/>
-      <c r="EB27" s="74"/>
-      <c r="EC27" s="74"/>
-      <c r="ED27" s="74"/>
-      <c r="EE27" s="72"/>
-      <c r="EF27" s="69"/>
-      <c r="EG27" s="74"/>
-      <c r="EH27" s="74"/>
-      <c r="EI27" s="72"/>
-      <c r="EJ27" s="69"/>
-      <c r="EK27" s="72"/>
-      <c r="EL27" s="69"/>
-      <c r="EM27" s="74"/>
-      <c r="EN27" s="74"/>
-      <c r="EO27" s="72"/>
-      <c r="EP27" s="69"/>
-      <c r="EQ27" s="72"/>
-      <c r="ER27" s="69"/>
-      <c r="ES27" s="70"/>
+      <c r="DD27" s="115"/>
+      <c r="DE27" s="113"/>
+      <c r="DF27" s="113"/>
+      <c r="DG27" s="114"/>
+      <c r="DH27" s="115"/>
+      <c r="DI27" s="113"/>
+      <c r="DJ27" s="113"/>
+      <c r="DK27" s="114"/>
+      <c r="DL27" s="115"/>
+      <c r="DM27" s="113"/>
+      <c r="DN27" s="113"/>
+      <c r="DO27" s="114"/>
+      <c r="DP27" s="115"/>
+      <c r="DQ27" s="113"/>
+      <c r="DR27" s="113"/>
+      <c r="DS27" s="114"/>
+      <c r="DT27" s="115"/>
+      <c r="DU27" s="113"/>
+      <c r="DV27" s="113"/>
+      <c r="DW27" s="114"/>
+      <c r="DX27" s="115"/>
+      <c r="DY27" s="114"/>
+      <c r="DZ27" s="115"/>
+      <c r="EA27" s="113"/>
+      <c r="EB27" s="113"/>
+      <c r="EC27" s="113"/>
+      <c r="ED27" s="113"/>
+      <c r="EE27" s="114"/>
+      <c r="EF27" s="115"/>
+      <c r="EG27" s="113"/>
+      <c r="EH27" s="113"/>
+      <c r="EI27" s="114"/>
+      <c r="EJ27" s="115"/>
+      <c r="EK27" s="114"/>
+      <c r="EL27" s="115"/>
+      <c r="EM27" s="113"/>
+      <c r="EN27" s="113"/>
+      <c r="EO27" s="114"/>
+      <c r="EP27" s="115"/>
+      <c r="EQ27" s="114"/>
+      <c r="ER27" s="115"/>
+      <c r="ES27" s="118"/>
     </row>
   </sheetData>
-  <mergeCells count="596">
-    <mergeCell ref="DT6:DU7"/>
-    <mergeCell ref="DT8:DU9"/>
-    <mergeCell ref="DT10:DU11"/>
-    <mergeCell ref="DT12:DU13"/>
-    <mergeCell ref="DT14:DU15"/>
-    <mergeCell ref="DH14:DI15"/>
-    <mergeCell ref="DL6:DM7"/>
-    <mergeCell ref="DL8:DM9"/>
-    <mergeCell ref="DL10:DM11"/>
-    <mergeCell ref="DL12:DM13"/>
-    <mergeCell ref="DL14:DM15"/>
-    <mergeCell ref="DP6:DQ7"/>
-    <mergeCell ref="DP8:DQ9"/>
-    <mergeCell ref="DP10:DQ11"/>
-    <mergeCell ref="DP12:DQ13"/>
-    <mergeCell ref="DP14:DQ15"/>
-    <mergeCell ref="DH6:DI7"/>
-    <mergeCell ref="DH10:DI11"/>
-    <mergeCell ref="DZ4:DZ5"/>
-    <mergeCell ref="EF4:EF5"/>
-    <mergeCell ref="ER4:ER5"/>
-    <mergeCell ref="BV4:BV5"/>
-    <mergeCell ref="BZ4:BZ5"/>
-    <mergeCell ref="CB4:CB5"/>
-    <mergeCell ref="CJ4:CJ5"/>
-    <mergeCell ref="DH4:DH5"/>
-    <mergeCell ref="DL4:DL5"/>
-    <mergeCell ref="CF4:CI5"/>
-    <mergeCell ref="CL4:CO5"/>
-    <mergeCell ref="CP4:CS5"/>
-    <mergeCell ref="CT4:CW5"/>
-    <mergeCell ref="DB4:DC5"/>
-    <mergeCell ref="DD4:DG5"/>
-    <mergeCell ref="EJ4:EK5"/>
-    <mergeCell ref="EL4:EO5"/>
-    <mergeCell ref="EP4:EQ5"/>
+  <mergeCells count="599">
+    <mergeCell ref="CD6:CD7"/>
+    <mergeCell ref="BV18:BV19"/>
+    <mergeCell ref="BV12:BV13"/>
+    <mergeCell ref="BZ12:BZ13"/>
+    <mergeCell ref="CB12:CB13"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="DB26:DB27"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="AN16:AN17"/>
+    <mergeCell ref="AV14:AV15"/>
+    <mergeCell ref="DD10:DD11"/>
+    <mergeCell ref="BJ18:BJ19"/>
+    <mergeCell ref="ER26:ES27"/>
+    <mergeCell ref="BF16:BF17"/>
+    <mergeCell ref="BR16:BR17"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="DX26:DY27"/>
+    <mergeCell ref="DZ26:EE27"/>
+    <mergeCell ref="EF26:EI27"/>
+    <mergeCell ref="EJ26:EK27"/>
+    <mergeCell ref="EL26:EO27"/>
+    <mergeCell ref="EP26:EQ27"/>
+    <mergeCell ref="DD26:DG27"/>
+    <mergeCell ref="DH26:DK27"/>
+    <mergeCell ref="DL26:DO27"/>
+    <mergeCell ref="DP26:DS27"/>
+    <mergeCell ref="DT26:DW27"/>
+    <mergeCell ref="BV26:BY27"/>
+    <mergeCell ref="BZ26:CA27"/>
+    <mergeCell ref="CB26:CE27"/>
+    <mergeCell ref="CF26:CI27"/>
+    <mergeCell ref="CJ26:CK27"/>
+    <mergeCell ref="CT26:CW27"/>
+    <mergeCell ref="AF26:AG27"/>
+    <mergeCell ref="BF26:BI27"/>
+    <mergeCell ref="BJ26:BK27"/>
+    <mergeCell ref="BL26:BO27"/>
+    <mergeCell ref="BP26:BQ27"/>
+    <mergeCell ref="BR26:BU27"/>
+    <mergeCell ref="ER24:ES25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:G27"/>
+    <mergeCell ref="L26:O27"/>
+    <mergeCell ref="P26:S27"/>
+    <mergeCell ref="T26:W27"/>
+    <mergeCell ref="X26:AA27"/>
+    <mergeCell ref="AB26:AE27"/>
+    <mergeCell ref="DX24:DY25"/>
+    <mergeCell ref="DZ24:EE25"/>
+    <mergeCell ref="EF24:EI25"/>
+    <mergeCell ref="EJ24:EK25"/>
+    <mergeCell ref="EL24:EO25"/>
+    <mergeCell ref="EP24:EQ25"/>
+    <mergeCell ref="CF24:CI25"/>
+    <mergeCell ref="CJ24:CK25"/>
+    <mergeCell ref="DH24:DK25"/>
+    <mergeCell ref="DL24:DO25"/>
+    <mergeCell ref="BP24:BQ25"/>
+    <mergeCell ref="BR24:BU25"/>
+    <mergeCell ref="BV24:BY25"/>
+    <mergeCell ref="BZ24:CA25"/>
+    <mergeCell ref="T24:W25"/>
+    <mergeCell ref="X24:AA25"/>
+    <mergeCell ref="AB24:AE25"/>
+    <mergeCell ref="AF24:AG25"/>
+    <mergeCell ref="BF24:BI25"/>
+    <mergeCell ref="BJ24:BK25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:G25"/>
+    <mergeCell ref="H24:K25"/>
+    <mergeCell ref="L24:O25"/>
+    <mergeCell ref="P24:S25"/>
+    <mergeCell ref="DP24:DS25"/>
+    <mergeCell ref="DT24:DW25"/>
+    <mergeCell ref="BL24:BO25"/>
+    <mergeCell ref="DZ22:EE23"/>
+    <mergeCell ref="EF22:EI23"/>
+    <mergeCell ref="EJ22:EK23"/>
+    <mergeCell ref="BP22:BQ23"/>
+    <mergeCell ref="BR22:BU23"/>
+    <mergeCell ref="BV22:BY23"/>
+    <mergeCell ref="BZ22:CA23"/>
+    <mergeCell ref="CB22:CE23"/>
+    <mergeCell ref="CF22:CI23"/>
+    <mergeCell ref="CB24:CE25"/>
+    <mergeCell ref="EP22:EQ23"/>
+    <mergeCell ref="ER22:ES23"/>
+    <mergeCell ref="CJ22:CK23"/>
+    <mergeCell ref="DH22:DK23"/>
+    <mergeCell ref="DL22:DO23"/>
+    <mergeCell ref="DP22:DS23"/>
+    <mergeCell ref="DT22:DW23"/>
+    <mergeCell ref="DX22:DY23"/>
+    <mergeCell ref="CR22:CR23"/>
+    <mergeCell ref="CT22:CT23"/>
+    <mergeCell ref="CX22:CX23"/>
+    <mergeCell ref="DB22:DB23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:G23"/>
+    <mergeCell ref="H22:K23"/>
+    <mergeCell ref="L22:O23"/>
+    <mergeCell ref="P22:S23"/>
+    <mergeCell ref="T22:W23"/>
+    <mergeCell ref="DP20:DS21"/>
+    <mergeCell ref="BV20:BY21"/>
+    <mergeCell ref="CJ20:CK21"/>
+    <mergeCell ref="DH20:DK21"/>
+    <mergeCell ref="AF20:AG21"/>
+    <mergeCell ref="BF20:BI21"/>
+    <mergeCell ref="X22:AA23"/>
+    <mergeCell ref="AB22:AE23"/>
+    <mergeCell ref="AF22:AG23"/>
+    <mergeCell ref="BF22:BI23"/>
+    <mergeCell ref="BJ22:BK23"/>
+    <mergeCell ref="BL22:BO23"/>
+    <mergeCell ref="BZ20:BZ21"/>
+    <mergeCell ref="CF20:CF21"/>
+    <mergeCell ref="CH20:CH21"/>
+    <mergeCell ref="CB20:CB21"/>
+    <mergeCell ref="ER18:ES19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:G21"/>
+    <mergeCell ref="L20:O21"/>
+    <mergeCell ref="P20:S21"/>
+    <mergeCell ref="T20:W21"/>
+    <mergeCell ref="X20:AA21"/>
+    <mergeCell ref="AB20:AE21"/>
+    <mergeCell ref="BZ18:CA19"/>
+    <mergeCell ref="CB18:CE19"/>
+    <mergeCell ref="CF18:CI19"/>
+    <mergeCell ref="CJ18:CK19"/>
+    <mergeCell ref="EF18:EI19"/>
+    <mergeCell ref="EJ18:EK19"/>
+    <mergeCell ref="T18:W19"/>
+    <mergeCell ref="X18:AA19"/>
+    <mergeCell ref="AB18:AE19"/>
+    <mergeCell ref="AF18:AG19"/>
+    <mergeCell ref="EJ20:EK21"/>
+    <mergeCell ref="EP20:EQ21"/>
+    <mergeCell ref="ER20:ES21"/>
+    <mergeCell ref="DT20:DW21"/>
+    <mergeCell ref="EL20:EL21"/>
+    <mergeCell ref="BF14:BF15"/>
+    <mergeCell ref="BH14:BH15"/>
+    <mergeCell ref="BF18:BI19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:G19"/>
+    <mergeCell ref="H18:K19"/>
+    <mergeCell ref="L18:O19"/>
+    <mergeCell ref="P18:S19"/>
+    <mergeCell ref="AB16:AE17"/>
+    <mergeCell ref="AF16:AG17"/>
+    <mergeCell ref="AT14:AT15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:G17"/>
+    <mergeCell ref="L16:O17"/>
+    <mergeCell ref="X16:AA17"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="L14:O15"/>
+    <mergeCell ref="AB14:AE15"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="AH10:AK11"/>
+    <mergeCell ref="AL10:AO11"/>
+    <mergeCell ref="AP10:AS11"/>
+    <mergeCell ref="AT10:AW11"/>
+    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="X12:X13"/>
+    <mergeCell ref="AB12:AB13"/>
+    <mergeCell ref="AF12:AF13"/>
+    <mergeCell ref="AT12:AT13"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="X10:X11"/>
+    <mergeCell ref="Z10:Z11"/>
+    <mergeCell ref="AB10:AB11"/>
+    <mergeCell ref="AF10:AF11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="AH12:AK13"/>
+    <mergeCell ref="DB6:DC7"/>
+    <mergeCell ref="DD6:DG7"/>
+    <mergeCell ref="BF6:BF7"/>
+    <mergeCell ref="BJ6:BJ7"/>
+    <mergeCell ref="BL6:BL7"/>
+    <mergeCell ref="AX6:BA7"/>
+    <mergeCell ref="BB6:BE7"/>
+    <mergeCell ref="DB10:DC11"/>
+    <mergeCell ref="BL10:BL11"/>
+    <mergeCell ref="BP10:BP11"/>
+    <mergeCell ref="BR10:BR11"/>
+    <mergeCell ref="BV10:BV11"/>
+    <mergeCell ref="BF10:BF11"/>
+    <mergeCell ref="BB10:BE11"/>
+    <mergeCell ref="CT10:CW11"/>
+    <mergeCell ref="CX10:DA11"/>
+    <mergeCell ref="BF8:BF9"/>
+    <mergeCell ref="BJ8:BJ9"/>
+    <mergeCell ref="BL8:BL9"/>
+    <mergeCell ref="BP8:BP9"/>
+    <mergeCell ref="BR8:BR9"/>
+    <mergeCell ref="BV8:BV9"/>
+    <mergeCell ref="AX10:AX11"/>
+    <mergeCell ref="CH8:CH9"/>
+    <mergeCell ref="AT8:AW9"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="AH6:AK7"/>
+    <mergeCell ref="AL6:AO7"/>
+    <mergeCell ref="AP6:AS7"/>
+    <mergeCell ref="AT6:AW7"/>
+    <mergeCell ref="CT6:CW7"/>
+    <mergeCell ref="CX6:DA7"/>
+    <mergeCell ref="BP6:BP7"/>
+    <mergeCell ref="BR6:BR7"/>
+    <mergeCell ref="BV6:BV7"/>
+    <mergeCell ref="BZ6:BZ7"/>
+    <mergeCell ref="CB6:CB7"/>
+    <mergeCell ref="CF6:CF7"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="AX8:BA9"/>
+    <mergeCell ref="BB8:BE9"/>
+    <mergeCell ref="CL8:CO9"/>
+    <mergeCell ref="CP8:CS9"/>
+    <mergeCell ref="CT8:CW9"/>
+    <mergeCell ref="CX8:DA9"/>
+    <mergeCell ref="ER3:ES3"/>
+    <mergeCell ref="A4:A27"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="P4:S5"/>
+    <mergeCell ref="AH4:AK5"/>
+    <mergeCell ref="AL4:AO5"/>
+    <mergeCell ref="AP4:AS5"/>
+    <mergeCell ref="AT4:AW5"/>
+    <mergeCell ref="AX4:BA5"/>
+    <mergeCell ref="DX3:DY3"/>
+    <mergeCell ref="DZ3:EE3"/>
+    <mergeCell ref="EF3:EI3"/>
+    <mergeCell ref="EJ3:EK3"/>
+    <mergeCell ref="EL3:EO3"/>
+    <mergeCell ref="EP3:EQ3"/>
+    <mergeCell ref="DB3:DC3"/>
+    <mergeCell ref="DD3:DG3"/>
+    <mergeCell ref="EJ6:EK7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="AH8:AK9"/>
+    <mergeCell ref="AL8:AO9"/>
+    <mergeCell ref="AP8:AS9"/>
+    <mergeCell ref="DH3:DK3"/>
+    <mergeCell ref="DL3:DO3"/>
+    <mergeCell ref="DP3:DS3"/>
+    <mergeCell ref="DT3:DW3"/>
+    <mergeCell ref="CF3:CI3"/>
+    <mergeCell ref="CJ3:CK3"/>
+    <mergeCell ref="CL3:CO3"/>
+    <mergeCell ref="CP3:CS3"/>
+    <mergeCell ref="CT3:CW3"/>
+    <mergeCell ref="CX3:DA3"/>
+    <mergeCell ref="BL3:BO3"/>
+    <mergeCell ref="BP3:BQ3"/>
+    <mergeCell ref="BR3:BU3"/>
+    <mergeCell ref="BV3:BY3"/>
+    <mergeCell ref="BZ3:CA3"/>
+    <mergeCell ref="CB3:CE3"/>
+    <mergeCell ref="AP3:AS3"/>
+    <mergeCell ref="AT3:AW3"/>
+    <mergeCell ref="AX3:BA3"/>
+    <mergeCell ref="BB3:BE3"/>
+    <mergeCell ref="BF3:BI3"/>
+    <mergeCell ref="BJ3:BK3"/>
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="X3:AA3"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AK3"/>
+    <mergeCell ref="AL3:AO3"/>
+    <mergeCell ref="BB26:BB27"/>
+    <mergeCell ref="CL26:CL27"/>
+    <mergeCell ref="CP26:CP27"/>
+    <mergeCell ref="BB24:BB25"/>
+    <mergeCell ref="CL24:CL25"/>
+    <mergeCell ref="CP24:CP25"/>
+    <mergeCell ref="CN22:CN23"/>
+    <mergeCell ref="CP22:CP23"/>
+    <mergeCell ref="CL18:CL19"/>
+    <mergeCell ref="CP18:CP19"/>
+    <mergeCell ref="AP16:AP17"/>
+    <mergeCell ref="AT16:AT17"/>
+    <mergeCell ref="AX16:AX17"/>
+    <mergeCell ref="AZ16:AZ17"/>
+    <mergeCell ref="BB16:BB17"/>
+    <mergeCell ref="BP14:BP15"/>
+    <mergeCell ref="BR14:BR15"/>
+    <mergeCell ref="BJ14:BJ15"/>
+    <mergeCell ref="CX26:CX27"/>
+    <mergeCell ref="A1:ES1"/>
+    <mergeCell ref="A2:ES2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="CT24:CT25"/>
+    <mergeCell ref="CX24:CX25"/>
+    <mergeCell ref="DB24:DB25"/>
+    <mergeCell ref="DD24:DD25"/>
+    <mergeCell ref="AH26:AH27"/>
+    <mergeCell ref="AL26:AL27"/>
+    <mergeCell ref="AP26:AP27"/>
+    <mergeCell ref="AR26:AR27"/>
+    <mergeCell ref="AT26:AT27"/>
+    <mergeCell ref="AX26:AX27"/>
+    <mergeCell ref="DD22:DD23"/>
+    <mergeCell ref="AH24:AH25"/>
+    <mergeCell ref="AJ24:AJ25"/>
+    <mergeCell ref="AL24:AL25"/>
+    <mergeCell ref="AP24:AP25"/>
+    <mergeCell ref="AT24:AT25"/>
+    <mergeCell ref="AX24:AX25"/>
+    <mergeCell ref="EN20:EN21"/>
+    <mergeCell ref="AH22:AH23"/>
+    <mergeCell ref="AL22:AL23"/>
+    <mergeCell ref="AN22:AN23"/>
+    <mergeCell ref="AP22:AP23"/>
+    <mergeCell ref="AT22:AT23"/>
+    <mergeCell ref="AX22:AX23"/>
+    <mergeCell ref="BB22:BB23"/>
+    <mergeCell ref="CL22:CL23"/>
+    <mergeCell ref="CR20:CR21"/>
+    <mergeCell ref="CT20:CT21"/>
+    <mergeCell ref="CV20:CV21"/>
+    <mergeCell ref="CX20:CX21"/>
+    <mergeCell ref="DB20:DB21"/>
+    <mergeCell ref="DD20:DD21"/>
+    <mergeCell ref="BJ20:BK21"/>
+    <mergeCell ref="BL20:BO21"/>
+    <mergeCell ref="BP20:BQ21"/>
+    <mergeCell ref="BR20:BU21"/>
+    <mergeCell ref="DX20:DY21"/>
+    <mergeCell ref="DZ20:EE21"/>
+    <mergeCell ref="EF20:EI21"/>
+    <mergeCell ref="EL22:EO23"/>
+    <mergeCell ref="DL20:DL21"/>
+    <mergeCell ref="EP18:EP19"/>
+    <mergeCell ref="AH20:AH21"/>
+    <mergeCell ref="AL20:AL21"/>
+    <mergeCell ref="AP20:AP21"/>
+    <mergeCell ref="AT20:AT21"/>
+    <mergeCell ref="AX20:AX21"/>
+    <mergeCell ref="BB20:BB21"/>
+    <mergeCell ref="BD20:BD21"/>
+    <mergeCell ref="CL20:CL21"/>
+    <mergeCell ref="CP20:CP21"/>
+    <mergeCell ref="DP18:DP19"/>
+    <mergeCell ref="DT18:DT19"/>
+    <mergeCell ref="DX18:DX19"/>
+    <mergeCell ref="DZ18:DZ19"/>
+    <mergeCell ref="EL18:EL19"/>
+    <mergeCell ref="EN18:EN19"/>
+    <mergeCell ref="CZ18:CZ19"/>
+    <mergeCell ref="DB18:DB19"/>
+    <mergeCell ref="DD18:DD19"/>
+    <mergeCell ref="DF18:DF19"/>
+    <mergeCell ref="DH18:DH19"/>
+    <mergeCell ref="DL18:DL19"/>
+    <mergeCell ref="BB18:BB19"/>
+    <mergeCell ref="BD18:BD19"/>
+    <mergeCell ref="CT18:CT19"/>
+    <mergeCell ref="CX18:CX19"/>
+    <mergeCell ref="BL18:BO19"/>
+    <mergeCell ref="BP18:BQ19"/>
+    <mergeCell ref="BR18:BU19"/>
+    <mergeCell ref="EF16:EF17"/>
+    <mergeCell ref="EJ16:EJ17"/>
+    <mergeCell ref="EL16:EL17"/>
+    <mergeCell ref="CL16:CL17"/>
+    <mergeCell ref="CJ16:CK17"/>
+    <mergeCell ref="BL16:BO17"/>
+    <mergeCell ref="BV16:BY17"/>
+    <mergeCell ref="BT16:BT17"/>
+    <mergeCell ref="EP16:EP17"/>
+    <mergeCell ref="ER16:ER17"/>
+    <mergeCell ref="AH18:AH19"/>
+    <mergeCell ref="AL18:AL19"/>
+    <mergeCell ref="AP18:AP19"/>
+    <mergeCell ref="AT18:AT19"/>
+    <mergeCell ref="AX18:AX19"/>
+    <mergeCell ref="DJ16:DJ17"/>
+    <mergeCell ref="DL16:DL17"/>
+    <mergeCell ref="DP16:DP17"/>
+    <mergeCell ref="DT16:DT17"/>
+    <mergeCell ref="DX16:DX17"/>
+    <mergeCell ref="DZ16:DZ17"/>
+    <mergeCell ref="CP16:CP17"/>
+    <mergeCell ref="CT16:CT17"/>
+    <mergeCell ref="CX16:CX17"/>
+    <mergeCell ref="DB16:DB17"/>
+    <mergeCell ref="DD16:DD17"/>
+    <mergeCell ref="DH16:DH17"/>
+    <mergeCell ref="BJ16:BJ17"/>
+    <mergeCell ref="BP16:BP17"/>
+    <mergeCell ref="BZ16:BZ17"/>
+    <mergeCell ref="CB16:CB17"/>
+    <mergeCell ref="CF16:CF17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="AH16:AH17"/>
+    <mergeCell ref="AL16:AL17"/>
+    <mergeCell ref="DX14:DX15"/>
+    <mergeCell ref="DZ14:DZ15"/>
+    <mergeCell ref="CF14:CF15"/>
+    <mergeCell ref="CJ14:CJ15"/>
+    <mergeCell ref="CP14:CP15"/>
+    <mergeCell ref="CX14:CX15"/>
+    <mergeCell ref="DB14:DB15"/>
+    <mergeCell ref="DD14:DD15"/>
+    <mergeCell ref="CL14:CO15"/>
+    <mergeCell ref="CT14:CW15"/>
+    <mergeCell ref="AH14:AK15"/>
+    <mergeCell ref="AP14:AS15"/>
+    <mergeCell ref="AX14:BA15"/>
+    <mergeCell ref="BV14:BV15"/>
+    <mergeCell ref="BX14:BX15"/>
+    <mergeCell ref="BZ14:BZ15"/>
+    <mergeCell ref="CB14:CB15"/>
+    <mergeCell ref="AN14:AN15"/>
+    <mergeCell ref="BB14:BE15"/>
+    <mergeCell ref="EL12:EL13"/>
+    <mergeCell ref="EP12:EP13"/>
+    <mergeCell ref="ER12:ER13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="X14:X15"/>
+    <mergeCell ref="AF14:AF15"/>
+    <mergeCell ref="AL14:AL15"/>
+    <mergeCell ref="DX12:DX13"/>
+    <mergeCell ref="DZ12:DZ13"/>
+    <mergeCell ref="EF12:EF13"/>
+    <mergeCell ref="EJ12:EJ13"/>
+    <mergeCell ref="CF12:CF13"/>
+    <mergeCell ref="CJ12:CJ13"/>
+    <mergeCell ref="EF14:EF15"/>
+    <mergeCell ref="EJ14:EJ15"/>
+    <mergeCell ref="EL14:EL15"/>
+    <mergeCell ref="EP14:EP15"/>
+    <mergeCell ref="ER14:ER15"/>
+    <mergeCell ref="BF12:BF13"/>
+    <mergeCell ref="BJ12:BJ13"/>
+    <mergeCell ref="BR12:BR13"/>
+    <mergeCell ref="DB12:DC13"/>
+    <mergeCell ref="DD12:DG13"/>
+    <mergeCell ref="DH12:DI13"/>
+    <mergeCell ref="BL14:BL15"/>
+    <mergeCell ref="BN14:BN15"/>
+    <mergeCell ref="EL10:EL11"/>
+    <mergeCell ref="EP10:EP11"/>
+    <mergeCell ref="ER10:ER11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="DX10:DX11"/>
+    <mergeCell ref="DZ10:DZ11"/>
+    <mergeCell ref="EF10:EF11"/>
+    <mergeCell ref="BZ10:BZ11"/>
+    <mergeCell ref="CB10:CB11"/>
+    <mergeCell ref="CF10:CF11"/>
+    <mergeCell ref="CJ10:CJ11"/>
+    <mergeCell ref="CL10:CO11"/>
+    <mergeCell ref="CP10:CS11"/>
+    <mergeCell ref="CL12:CO13"/>
+    <mergeCell ref="CP12:CS13"/>
+    <mergeCell ref="CT12:CW13"/>
+    <mergeCell ref="CX12:DA13"/>
+    <mergeCell ref="BL12:BL13"/>
+    <mergeCell ref="BP12:BP13"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="BJ10:BJ11"/>
+    <mergeCell ref="AL12:AO13"/>
+    <mergeCell ref="AP12:AS13"/>
+    <mergeCell ref="AX12:BA13"/>
+    <mergeCell ref="BB12:BE13"/>
+    <mergeCell ref="BT12:BT13"/>
+    <mergeCell ref="EF8:EF9"/>
+    <mergeCell ref="EH8:EH9"/>
+    <mergeCell ref="EJ8:EJ9"/>
+    <mergeCell ref="BZ8:BZ9"/>
+    <mergeCell ref="CB8:CB9"/>
+    <mergeCell ref="CF8:CF9"/>
+    <mergeCell ref="CJ8:CJ9"/>
+    <mergeCell ref="DB8:DC9"/>
+    <mergeCell ref="DD8:DG9"/>
+    <mergeCell ref="DH8:DI9"/>
+    <mergeCell ref="EJ10:EJ11"/>
+    <mergeCell ref="ER6:ER7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="AF8:AF9"/>
+    <mergeCell ref="DZ6:DZ7"/>
+    <mergeCell ref="EF6:EF7"/>
+    <mergeCell ref="EL6:EL7"/>
+    <mergeCell ref="EP6:EP7"/>
+    <mergeCell ref="CJ6:CJ7"/>
+    <mergeCell ref="DX6:DX7"/>
+    <mergeCell ref="CL6:CO7"/>
+    <mergeCell ref="CP6:CS7"/>
+    <mergeCell ref="EL8:EL9"/>
+    <mergeCell ref="EP8:EP9"/>
+    <mergeCell ref="ER8:ER9"/>
+    <mergeCell ref="DX8:DX9"/>
+    <mergeCell ref="DZ8:DZ9"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="J6:J7"/>
@@ -8096,542 +8663,42 @@
     <mergeCell ref="X4:X5"/>
     <mergeCell ref="AB4:AB5"/>
     <mergeCell ref="CX4:DA5"/>
-    <mergeCell ref="EJ10:EJ11"/>
-    <mergeCell ref="ER6:ER7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="AF8:AF9"/>
-    <mergeCell ref="DZ6:DZ7"/>
-    <mergeCell ref="EF6:EF7"/>
-    <mergeCell ref="EL6:EL7"/>
-    <mergeCell ref="EP6:EP7"/>
-    <mergeCell ref="CJ6:CJ7"/>
-    <mergeCell ref="DX6:DX7"/>
-    <mergeCell ref="CL6:CO7"/>
-    <mergeCell ref="CP6:CS7"/>
-    <mergeCell ref="EL8:EL9"/>
-    <mergeCell ref="EP8:EP9"/>
-    <mergeCell ref="ER8:ER9"/>
-    <mergeCell ref="DX8:DX9"/>
-    <mergeCell ref="DZ8:DZ9"/>
-    <mergeCell ref="EF8:EF9"/>
-    <mergeCell ref="EH8:EH9"/>
-    <mergeCell ref="EJ8:EJ9"/>
-    <mergeCell ref="BZ8:BZ9"/>
-    <mergeCell ref="CB8:CB9"/>
-    <mergeCell ref="CF8:CF9"/>
-    <mergeCell ref="CJ8:CJ9"/>
-    <mergeCell ref="DB8:DC9"/>
-    <mergeCell ref="DD8:DG9"/>
-    <mergeCell ref="DH8:DI9"/>
-    <mergeCell ref="CP12:CS13"/>
-    <mergeCell ref="CT12:CW13"/>
-    <mergeCell ref="CX12:DA13"/>
-    <mergeCell ref="BL12:BL13"/>
-    <mergeCell ref="BP12:BP13"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="BJ10:BJ11"/>
-    <mergeCell ref="DB12:DC13"/>
-    <mergeCell ref="DD12:DG13"/>
-    <mergeCell ref="DH12:DI13"/>
-    <mergeCell ref="BL14:BL15"/>
-    <mergeCell ref="BN14:BN15"/>
-    <mergeCell ref="EL10:EL11"/>
-    <mergeCell ref="EP10:EP11"/>
-    <mergeCell ref="ER10:ER11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="DX10:DX11"/>
-    <mergeCell ref="DZ10:DZ11"/>
-    <mergeCell ref="EF10:EF11"/>
-    <mergeCell ref="BZ10:BZ11"/>
-    <mergeCell ref="CB10:CB11"/>
-    <mergeCell ref="CF10:CF11"/>
-    <mergeCell ref="CJ10:CJ11"/>
-    <mergeCell ref="CL10:CO11"/>
-    <mergeCell ref="CP10:CS11"/>
-    <mergeCell ref="CL12:CO13"/>
-    <mergeCell ref="EL12:EL13"/>
-    <mergeCell ref="EP12:EP13"/>
-    <mergeCell ref="ER12:ER13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="X14:X15"/>
-    <mergeCell ref="AF14:AF15"/>
-    <mergeCell ref="AL14:AL15"/>
-    <mergeCell ref="DX12:DX13"/>
-    <mergeCell ref="DZ12:DZ13"/>
-    <mergeCell ref="EF12:EF13"/>
-    <mergeCell ref="EJ12:EJ13"/>
-    <mergeCell ref="CF12:CF13"/>
-    <mergeCell ref="CJ12:CJ13"/>
-    <mergeCell ref="EF14:EF15"/>
-    <mergeCell ref="EJ14:EJ15"/>
-    <mergeCell ref="EL14:EL15"/>
-    <mergeCell ref="EP14:EP15"/>
-    <mergeCell ref="ER14:ER15"/>
-    <mergeCell ref="BF12:BF13"/>
-    <mergeCell ref="BJ12:BJ13"/>
-    <mergeCell ref="BR12:BR13"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="AH16:AH17"/>
-    <mergeCell ref="AL16:AL17"/>
-    <mergeCell ref="DX14:DX15"/>
-    <mergeCell ref="DZ14:DZ15"/>
-    <mergeCell ref="CF14:CF15"/>
-    <mergeCell ref="CJ14:CJ15"/>
-    <mergeCell ref="CP14:CP15"/>
-    <mergeCell ref="CX14:CX15"/>
-    <mergeCell ref="DB14:DB15"/>
-    <mergeCell ref="DD14:DD15"/>
-    <mergeCell ref="CL14:CO15"/>
-    <mergeCell ref="CT14:CW15"/>
-    <mergeCell ref="AH14:AK15"/>
-    <mergeCell ref="AP14:AS15"/>
-    <mergeCell ref="AX14:BA15"/>
-    <mergeCell ref="BV14:BV15"/>
-    <mergeCell ref="BX14:BX15"/>
-    <mergeCell ref="BZ14:BZ15"/>
-    <mergeCell ref="CB14:CB15"/>
-    <mergeCell ref="AN14:AN15"/>
-    <mergeCell ref="BB14:BE15"/>
-    <mergeCell ref="EP16:EP17"/>
-    <mergeCell ref="ER16:ER17"/>
-    <mergeCell ref="AH18:AH19"/>
-    <mergeCell ref="AL18:AL19"/>
-    <mergeCell ref="AP18:AP19"/>
-    <mergeCell ref="AT18:AT19"/>
-    <mergeCell ref="AX18:AX19"/>
-    <mergeCell ref="DJ16:DJ17"/>
-    <mergeCell ref="DL16:DL17"/>
-    <mergeCell ref="DP16:DP17"/>
-    <mergeCell ref="DT16:DT17"/>
-    <mergeCell ref="DX16:DX17"/>
-    <mergeCell ref="DZ16:DZ17"/>
-    <mergeCell ref="CP16:CP17"/>
-    <mergeCell ref="CT16:CT17"/>
-    <mergeCell ref="CX16:CX17"/>
-    <mergeCell ref="DB16:DB17"/>
-    <mergeCell ref="DD16:DD17"/>
-    <mergeCell ref="DH16:DH17"/>
-    <mergeCell ref="BJ16:BJ17"/>
-    <mergeCell ref="BP16:BP17"/>
-    <mergeCell ref="BZ16:BZ17"/>
-    <mergeCell ref="CB16:CB17"/>
-    <mergeCell ref="CF16:CF17"/>
-    <mergeCell ref="CT18:CT19"/>
-    <mergeCell ref="CX18:CX19"/>
-    <mergeCell ref="BL18:BO19"/>
-    <mergeCell ref="BP18:BQ19"/>
-    <mergeCell ref="BR18:BU19"/>
-    <mergeCell ref="EF16:EF17"/>
-    <mergeCell ref="EJ16:EJ17"/>
-    <mergeCell ref="EL16:EL17"/>
-    <mergeCell ref="CL16:CL17"/>
-    <mergeCell ref="CJ16:CK17"/>
-    <mergeCell ref="BL16:BO17"/>
-    <mergeCell ref="BV16:BY17"/>
-    <mergeCell ref="EP18:EP19"/>
-    <mergeCell ref="AH20:AH21"/>
-    <mergeCell ref="AL20:AL21"/>
-    <mergeCell ref="AP20:AP21"/>
-    <mergeCell ref="AT20:AT21"/>
-    <mergeCell ref="AX20:AX21"/>
-    <mergeCell ref="BB20:BB21"/>
-    <mergeCell ref="BD20:BD21"/>
-    <mergeCell ref="CL20:CL21"/>
-    <mergeCell ref="CP20:CP21"/>
-    <mergeCell ref="DP18:DP19"/>
-    <mergeCell ref="DT18:DT19"/>
-    <mergeCell ref="DX18:DX19"/>
-    <mergeCell ref="DZ18:DZ19"/>
-    <mergeCell ref="EL18:EL19"/>
-    <mergeCell ref="EN18:EN19"/>
-    <mergeCell ref="CZ18:CZ19"/>
-    <mergeCell ref="DB18:DB19"/>
-    <mergeCell ref="DD18:DD19"/>
-    <mergeCell ref="DF18:DF19"/>
-    <mergeCell ref="DH18:DH19"/>
-    <mergeCell ref="DL18:DL19"/>
-    <mergeCell ref="BB18:BB19"/>
-    <mergeCell ref="BD18:BD19"/>
-    <mergeCell ref="EN20:EN21"/>
-    <mergeCell ref="AH22:AH23"/>
-    <mergeCell ref="AL22:AL23"/>
-    <mergeCell ref="AN22:AN23"/>
-    <mergeCell ref="AP22:AP23"/>
-    <mergeCell ref="AT22:AT23"/>
-    <mergeCell ref="AX22:AX23"/>
-    <mergeCell ref="BB22:BB23"/>
-    <mergeCell ref="CL22:CL23"/>
-    <mergeCell ref="CR20:CR21"/>
-    <mergeCell ref="CT20:CT21"/>
-    <mergeCell ref="CV20:CV21"/>
-    <mergeCell ref="CX20:CX21"/>
-    <mergeCell ref="DB20:DB21"/>
-    <mergeCell ref="DD20:DD21"/>
-    <mergeCell ref="BJ20:BK21"/>
-    <mergeCell ref="BL20:BO21"/>
-    <mergeCell ref="BP20:BQ21"/>
-    <mergeCell ref="BR20:BU21"/>
-    <mergeCell ref="DX20:DY21"/>
-    <mergeCell ref="DZ20:EE21"/>
-    <mergeCell ref="EF20:EI21"/>
-    <mergeCell ref="EL22:EO23"/>
-    <mergeCell ref="DL20:DL21"/>
-    <mergeCell ref="CX26:CX27"/>
-    <mergeCell ref="A1:ES1"/>
-    <mergeCell ref="A2:ES2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="CT24:CT25"/>
-    <mergeCell ref="CX24:CX25"/>
-    <mergeCell ref="DB24:DB25"/>
-    <mergeCell ref="DD24:DD25"/>
-    <mergeCell ref="AH26:AH27"/>
-    <mergeCell ref="AL26:AL27"/>
-    <mergeCell ref="AP26:AP27"/>
-    <mergeCell ref="AR26:AR27"/>
-    <mergeCell ref="AT26:AT27"/>
-    <mergeCell ref="AX26:AX27"/>
-    <mergeCell ref="DD22:DD23"/>
-    <mergeCell ref="AH24:AH25"/>
-    <mergeCell ref="AJ24:AJ25"/>
-    <mergeCell ref="AL24:AL25"/>
-    <mergeCell ref="AP24:AP25"/>
-    <mergeCell ref="AT24:AT25"/>
-    <mergeCell ref="AX24:AX25"/>
-    <mergeCell ref="T3:W3"/>
-    <mergeCell ref="X3:AA3"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AK3"/>
-    <mergeCell ref="AL3:AO3"/>
-    <mergeCell ref="BB26:BB27"/>
-    <mergeCell ref="CL26:CL27"/>
-    <mergeCell ref="CP26:CP27"/>
-    <mergeCell ref="BB24:BB25"/>
-    <mergeCell ref="CL24:CL25"/>
-    <mergeCell ref="CP24:CP25"/>
-    <mergeCell ref="CN22:CN23"/>
-    <mergeCell ref="CP22:CP23"/>
-    <mergeCell ref="CL18:CL19"/>
-    <mergeCell ref="CP18:CP19"/>
-    <mergeCell ref="AP16:AP17"/>
-    <mergeCell ref="AT16:AT17"/>
-    <mergeCell ref="AX16:AX17"/>
-    <mergeCell ref="AZ16:AZ17"/>
-    <mergeCell ref="BB16:BB17"/>
-    <mergeCell ref="BP14:BP15"/>
-    <mergeCell ref="BR14:BR15"/>
-    <mergeCell ref="BJ14:BJ15"/>
-    <mergeCell ref="BL3:BO3"/>
-    <mergeCell ref="BP3:BQ3"/>
-    <mergeCell ref="BR3:BU3"/>
-    <mergeCell ref="BV3:BY3"/>
-    <mergeCell ref="BZ3:CA3"/>
-    <mergeCell ref="CB3:CE3"/>
-    <mergeCell ref="AP3:AS3"/>
-    <mergeCell ref="AT3:AW3"/>
-    <mergeCell ref="AX3:BA3"/>
-    <mergeCell ref="BB3:BE3"/>
-    <mergeCell ref="BF3:BI3"/>
-    <mergeCell ref="BJ3:BK3"/>
-    <mergeCell ref="DH3:DK3"/>
-    <mergeCell ref="DL3:DO3"/>
-    <mergeCell ref="DP3:DS3"/>
-    <mergeCell ref="DT3:DW3"/>
-    <mergeCell ref="CF3:CI3"/>
-    <mergeCell ref="CJ3:CK3"/>
-    <mergeCell ref="CL3:CO3"/>
-    <mergeCell ref="CP3:CS3"/>
-    <mergeCell ref="CT3:CW3"/>
-    <mergeCell ref="CX3:DA3"/>
-    <mergeCell ref="ER3:ES3"/>
-    <mergeCell ref="A4:A27"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="P4:S5"/>
-    <mergeCell ref="AH4:AK5"/>
-    <mergeCell ref="AL4:AO5"/>
-    <mergeCell ref="AP4:AS5"/>
-    <mergeCell ref="AT4:AW5"/>
-    <mergeCell ref="AX4:BA5"/>
-    <mergeCell ref="DX3:DY3"/>
-    <mergeCell ref="DZ3:EE3"/>
-    <mergeCell ref="EF3:EI3"/>
-    <mergeCell ref="EJ3:EK3"/>
-    <mergeCell ref="EL3:EO3"/>
-    <mergeCell ref="EP3:EQ3"/>
-    <mergeCell ref="DB3:DC3"/>
-    <mergeCell ref="DD3:DG3"/>
-    <mergeCell ref="EJ6:EK7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="AH8:AK9"/>
-    <mergeCell ref="AL8:AO9"/>
-    <mergeCell ref="AP8:AS9"/>
-    <mergeCell ref="AT8:AW9"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="AH6:AK7"/>
-    <mergeCell ref="AL6:AO7"/>
-    <mergeCell ref="AP6:AS7"/>
-    <mergeCell ref="AT6:AW7"/>
-    <mergeCell ref="CT6:CW7"/>
-    <mergeCell ref="CX6:DA7"/>
-    <mergeCell ref="BP6:BP7"/>
-    <mergeCell ref="BR6:BR7"/>
-    <mergeCell ref="BV6:BV7"/>
-    <mergeCell ref="BZ6:BZ7"/>
-    <mergeCell ref="CB6:CB7"/>
-    <mergeCell ref="CF6:CF7"/>
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="AX8:BA9"/>
-    <mergeCell ref="BB8:BE9"/>
-    <mergeCell ref="CL8:CO9"/>
-    <mergeCell ref="CP8:CS9"/>
-    <mergeCell ref="CT8:CW9"/>
-    <mergeCell ref="CX8:DA9"/>
-    <mergeCell ref="DB6:DC7"/>
-    <mergeCell ref="DD6:DG7"/>
-    <mergeCell ref="BF6:BF7"/>
-    <mergeCell ref="BJ6:BJ7"/>
-    <mergeCell ref="BL6:BL7"/>
-    <mergeCell ref="AX6:BA7"/>
-    <mergeCell ref="BB6:BE7"/>
-    <mergeCell ref="DB10:DC11"/>
-    <mergeCell ref="BL10:BL11"/>
-    <mergeCell ref="BP10:BP11"/>
-    <mergeCell ref="BR10:BR11"/>
-    <mergeCell ref="BV10:BV11"/>
-    <mergeCell ref="BF10:BF11"/>
-    <mergeCell ref="BB10:BE11"/>
-    <mergeCell ref="CT10:CW11"/>
-    <mergeCell ref="CX10:DA11"/>
-    <mergeCell ref="BF8:BF9"/>
-    <mergeCell ref="BJ8:BJ9"/>
-    <mergeCell ref="BL8:BL9"/>
-    <mergeCell ref="BP8:BP9"/>
-    <mergeCell ref="BR8:BR9"/>
-    <mergeCell ref="BV8:BV9"/>
-    <mergeCell ref="AL12:AO13"/>
-    <mergeCell ref="AP12:AS13"/>
-    <mergeCell ref="AX12:BA13"/>
-    <mergeCell ref="BB12:BE13"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="AH10:AK11"/>
-    <mergeCell ref="AL10:AO11"/>
-    <mergeCell ref="AP10:AS11"/>
-    <mergeCell ref="AT10:AW11"/>
-    <mergeCell ref="V12:V13"/>
-    <mergeCell ref="X12:X13"/>
-    <mergeCell ref="AB12:AB13"/>
-    <mergeCell ref="AF12:AF13"/>
-    <mergeCell ref="AT12:AT13"/>
-    <mergeCell ref="AX10:AX11"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="X10:X11"/>
-    <mergeCell ref="Z10:Z11"/>
-    <mergeCell ref="AB10:AB11"/>
-    <mergeCell ref="AF10:AF11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="BF14:BF15"/>
-    <mergeCell ref="BH14:BH15"/>
-    <mergeCell ref="BF18:BI19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:G19"/>
-    <mergeCell ref="H18:K19"/>
-    <mergeCell ref="L18:O19"/>
-    <mergeCell ref="P18:S19"/>
-    <mergeCell ref="AB16:AE17"/>
-    <mergeCell ref="AF16:AG17"/>
-    <mergeCell ref="AT14:AT15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:G17"/>
-    <mergeCell ref="L16:O17"/>
-    <mergeCell ref="X16:AA17"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="L14:O15"/>
-    <mergeCell ref="AB14:AE15"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="AH12:AK13"/>
-    <mergeCell ref="ER18:ES19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:G21"/>
-    <mergeCell ref="L20:O21"/>
-    <mergeCell ref="P20:S21"/>
-    <mergeCell ref="T20:W21"/>
-    <mergeCell ref="X20:AA21"/>
-    <mergeCell ref="AB20:AE21"/>
-    <mergeCell ref="BZ18:CA19"/>
-    <mergeCell ref="CB18:CE19"/>
-    <mergeCell ref="CF18:CI19"/>
-    <mergeCell ref="CJ18:CK19"/>
-    <mergeCell ref="EF18:EI19"/>
-    <mergeCell ref="EJ18:EK19"/>
-    <mergeCell ref="T18:W19"/>
-    <mergeCell ref="X18:AA19"/>
-    <mergeCell ref="AB18:AE19"/>
-    <mergeCell ref="AF18:AG19"/>
-    <mergeCell ref="EJ20:EK21"/>
-    <mergeCell ref="EP20:EQ21"/>
-    <mergeCell ref="ER20:ES21"/>
-    <mergeCell ref="DT20:DW21"/>
-    <mergeCell ref="EL20:EL21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:G23"/>
-    <mergeCell ref="H22:K23"/>
-    <mergeCell ref="L22:O23"/>
-    <mergeCell ref="P22:S23"/>
-    <mergeCell ref="T22:W23"/>
-    <mergeCell ref="DP20:DS21"/>
-    <mergeCell ref="BV20:BY21"/>
-    <mergeCell ref="CJ20:CK21"/>
-    <mergeCell ref="DH20:DK21"/>
-    <mergeCell ref="AF20:AG21"/>
-    <mergeCell ref="BF20:BI21"/>
-    <mergeCell ref="X22:AA23"/>
-    <mergeCell ref="AB22:AE23"/>
-    <mergeCell ref="AF22:AG23"/>
-    <mergeCell ref="BF22:BI23"/>
-    <mergeCell ref="BJ22:BK23"/>
-    <mergeCell ref="BL22:BO23"/>
-    <mergeCell ref="EP22:EQ23"/>
-    <mergeCell ref="ER22:ES23"/>
-    <mergeCell ref="CJ22:CK23"/>
-    <mergeCell ref="DH22:DK23"/>
-    <mergeCell ref="DL22:DO23"/>
-    <mergeCell ref="DP22:DS23"/>
-    <mergeCell ref="DT22:DW23"/>
-    <mergeCell ref="DX22:DY23"/>
-    <mergeCell ref="CR22:CR23"/>
-    <mergeCell ref="CT22:CT23"/>
-    <mergeCell ref="CX22:CX23"/>
-    <mergeCell ref="DB22:DB23"/>
-    <mergeCell ref="DP24:DS25"/>
-    <mergeCell ref="DT24:DW25"/>
-    <mergeCell ref="BL24:BO25"/>
-    <mergeCell ref="DZ22:EE23"/>
-    <mergeCell ref="EF22:EI23"/>
-    <mergeCell ref="EJ22:EK23"/>
-    <mergeCell ref="BP22:BQ23"/>
-    <mergeCell ref="BR22:BU23"/>
-    <mergeCell ref="BV22:BY23"/>
-    <mergeCell ref="BZ22:CA23"/>
-    <mergeCell ref="CB22:CE23"/>
-    <mergeCell ref="CF22:CI23"/>
-    <mergeCell ref="CB24:CE25"/>
-    <mergeCell ref="T24:W25"/>
-    <mergeCell ref="X24:AA25"/>
-    <mergeCell ref="AB24:AE25"/>
-    <mergeCell ref="AF24:AG25"/>
-    <mergeCell ref="BF24:BI25"/>
-    <mergeCell ref="BJ24:BK25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:G25"/>
-    <mergeCell ref="H24:K25"/>
-    <mergeCell ref="L24:O25"/>
-    <mergeCell ref="P24:S25"/>
-    <mergeCell ref="ER24:ES25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:G27"/>
-    <mergeCell ref="H26:K27"/>
-    <mergeCell ref="L26:O27"/>
-    <mergeCell ref="P26:S27"/>
-    <mergeCell ref="T26:W27"/>
-    <mergeCell ref="X26:AA27"/>
-    <mergeCell ref="AB26:AE27"/>
-    <mergeCell ref="DX24:DY25"/>
-    <mergeCell ref="DZ24:EE25"/>
-    <mergeCell ref="EF24:EI25"/>
-    <mergeCell ref="EJ24:EK25"/>
-    <mergeCell ref="EL24:EO25"/>
-    <mergeCell ref="EP24:EQ25"/>
-    <mergeCell ref="CF24:CI25"/>
-    <mergeCell ref="CJ24:CK25"/>
-    <mergeCell ref="DH24:DK25"/>
-    <mergeCell ref="DL24:DO25"/>
-    <mergeCell ref="BP24:BQ25"/>
-    <mergeCell ref="BR24:BU25"/>
-    <mergeCell ref="BV24:BY25"/>
-    <mergeCell ref="BZ24:CA25"/>
-    <mergeCell ref="CF26:CI27"/>
-    <mergeCell ref="CJ26:CK27"/>
-    <mergeCell ref="CT26:CW27"/>
-    <mergeCell ref="AF26:AG27"/>
-    <mergeCell ref="BF26:BI27"/>
-    <mergeCell ref="BJ26:BK27"/>
-    <mergeCell ref="BL26:BO27"/>
-    <mergeCell ref="BP26:BQ27"/>
-    <mergeCell ref="BR26:BU27"/>
-    <mergeCell ref="DB26:DB27"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="AN16:AN17"/>
-    <mergeCell ref="AV14:AV15"/>
-    <mergeCell ref="DD10:DD11"/>
-    <mergeCell ref="BJ18:BJ19"/>
-    <mergeCell ref="ER26:ES27"/>
-    <mergeCell ref="BF16:BF17"/>
-    <mergeCell ref="BR16:BR17"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="DX26:DY27"/>
-    <mergeCell ref="DZ26:EE27"/>
-    <mergeCell ref="EF26:EI27"/>
-    <mergeCell ref="EJ26:EK27"/>
-    <mergeCell ref="EL26:EO27"/>
-    <mergeCell ref="EP26:EQ27"/>
-    <mergeCell ref="DD26:DG27"/>
-    <mergeCell ref="DH26:DK27"/>
-    <mergeCell ref="DL26:DO27"/>
-    <mergeCell ref="DP26:DS27"/>
-    <mergeCell ref="DT26:DW27"/>
-    <mergeCell ref="BV26:BY27"/>
-    <mergeCell ref="BZ26:CA27"/>
-    <mergeCell ref="CB26:CE27"/>
-    <mergeCell ref="BT16:BT17"/>
-    <mergeCell ref="BT12:BT13"/>
-    <mergeCell ref="BZ20:BZ21"/>
-    <mergeCell ref="CF20:CF21"/>
-    <mergeCell ref="CH20:CH21"/>
-    <mergeCell ref="CH8:CH9"/>
-    <mergeCell ref="CB20:CB21"/>
-    <mergeCell ref="CD6:CD7"/>
-    <mergeCell ref="BV18:BV19"/>
-    <mergeCell ref="BV12:BV13"/>
-    <mergeCell ref="BZ12:BZ13"/>
-    <mergeCell ref="CB12:CB13"/>
+    <mergeCell ref="DZ4:DZ5"/>
+    <mergeCell ref="EF4:EF5"/>
+    <mergeCell ref="ER4:ER5"/>
+    <mergeCell ref="BV4:BV5"/>
+    <mergeCell ref="BZ4:BZ5"/>
+    <mergeCell ref="CB4:CB5"/>
+    <mergeCell ref="CJ4:CJ5"/>
+    <mergeCell ref="DH4:DH5"/>
+    <mergeCell ref="DL4:DL5"/>
+    <mergeCell ref="CF4:CI5"/>
+    <mergeCell ref="CL4:CO5"/>
+    <mergeCell ref="CP4:CS5"/>
+    <mergeCell ref="CT4:CW5"/>
+    <mergeCell ref="DB4:DC5"/>
+    <mergeCell ref="DD4:DG5"/>
+    <mergeCell ref="EJ4:EK5"/>
+    <mergeCell ref="EL4:EO5"/>
+    <mergeCell ref="EP4:EQ5"/>
+    <mergeCell ref="DT6:DU7"/>
+    <mergeCell ref="DT8:DU9"/>
+    <mergeCell ref="DT10:DU11"/>
+    <mergeCell ref="DT12:DU13"/>
+    <mergeCell ref="DT14:DU15"/>
+    <mergeCell ref="DH14:DI15"/>
+    <mergeCell ref="DL6:DM7"/>
+    <mergeCell ref="DL8:DM9"/>
+    <mergeCell ref="DL10:DM11"/>
+    <mergeCell ref="DL12:DM13"/>
+    <mergeCell ref="DL14:DM15"/>
+    <mergeCell ref="DP6:DQ7"/>
+    <mergeCell ref="DP8:DQ9"/>
+    <mergeCell ref="DP10:DQ11"/>
+    <mergeCell ref="DP12:DQ13"/>
+    <mergeCell ref="DP14:DQ15"/>
+    <mergeCell ref="DH6:DI7"/>
+    <mergeCell ref="DH10:DI11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
